--- a/Consumer/Hermes International.xlsx
+++ b/Consumer/Hermes International.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445AACB8-BA13-C042-A7D1-661768363604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A414038-5BFD-7245-8888-3418FC20527F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,6 +550,9 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>xsw</t>
   </si>
 </sst>
 </file>
@@ -2376,11 +2379,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>2004</v>
+    <v>2027</v>
     <v>957.6</v>
-    <v>0.72570000000000001</v>
-    <v>7.3</v>
-    <v>3.6570000000000001E-3</v>
+    <v>0.74470000000000003</v>
+    <v>-8.1999999999999993</v>
+    <v>-4.143E-3</v>
     <v>EUR</v>
     <v>Hermes International SCA is a France-based company specialized in the design, manufacturing, and marketing of luxury products. The Company reports its businesses into a number segments, including Leather Goods and Saddler, which includes bags, riding, diaries and small leather goods; Ready-to-wear and Accessories, which includes Hermes ready-to-wear for men and women, belts, costume jewellery, gloves, hats and shoes; Other Hermes, which encompasses jewellery and hermes home products, such as the art of living and hermes tableware; Other product segment, which includes the production activities carried out on behalf of non-group brands, as well as the John Lobb, Saint-Louis, Puiforcat and Shang Xia products; Silk and Textiles; Perfumes, and Watches. Apart from France, Hermes International SCA is present in other countries in Europe, Asia and the Americas, among others.</v>
     <v>19686</v>
@@ -2388,24 +2391,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>24 rue du Faubourg Saint Honore, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>2004</v>
+    <v>1979.2</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45037.666666666664</v>
+    <v>45062.350231481483</v>
     <v>0</v>
-    <v>1972.4</v>
-    <v>211508300000</v>
+    <v>1965.8</v>
+    <v>208541800000</v>
     <v>Hermes International SCA</v>
     <v>Hermes International SCA</v>
-    <v>1975.8</v>
-    <v>61.993000000000002</v>
-    <v>1996.2</v>
-    <v>2003.5</v>
+    <v>1976</v>
+    <v>61.4651</v>
+    <v>1979.2</v>
+    <v>1971</v>
     <v>105569400</v>
     <v>RMS</v>
     <v>Hermes International SCA (XPAR:RMS)</v>
-    <v>48082</v>
-    <v>55690</v>
+    <v>4548</v>
+    <v>47780</v>
     <v>1957</v>
   </rv>
   <rv s="2">
@@ -2970,13 +2973,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF118"/>
+  <dimension ref="A1:AF126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomRight" activeCell="Y126" sqref="Y126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4379,15 +4382,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>18.230330977417687</v>
+        <v>17.974642303051198</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>62.818027918027916</v>
+        <v>61.936976536976537</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>50.551696940726579</v>
+        <v>49.842686424474188</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10185,7 +10188,7 @@
       </c>
       <c r="AE95" s="38" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>0.72570000000000001</v>
+        <v>0.74470000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10340,7 +10343,7 @@
       </c>
       <c r="AE97" s="36">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>7.2191384999999997E-2</v>
+        <v>7.3009335000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10571,7 +10574,7 @@
       </c>
       <c r="AE100" s="34">
         <f>AE99/AE103</f>
-        <v>9.0609968127217527E-3</v>
+        <v>9.1887048297238927E-3</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10649,7 +10652,7 @@
       </c>
       <c r="AE101" s="39" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>211508300000</v>
+        <v>208541800000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10727,7 +10730,7 @@
       </c>
       <c r="AE102" s="34">
         <f>AE101/AE103</f>
-        <v>0.99093900318727823</v>
+        <v>0.99081129517027611</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10805,7 +10808,7 @@
       </c>
       <c r="AE103" s="40">
         <f>AE99+AE101</f>
-        <v>213442300000</v>
+        <v>210475800000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10983,7 +10986,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.1328567142853641E-2</v>
+        <v>7.2126840465187039E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11117,7 +11120,7 @@
       <c r="AA107" s="42"/>
       <c r="AB107" s="45">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>151757055052.68912</v>
+        <v>149186468793.80481</v>
       </c>
       <c r="AC107" s="46" t="s">
         <v>148</v>
@@ -11148,7 +11151,7 @@
       </c>
       <c r="AB108" s="45">
         <f>AB107+AB106</f>
-        <v>158616261798.4552</v>
+        <v>156045675539.57089</v>
       </c>
       <c r="AC108" s="46" t="s">
         <v>144</v>
@@ -11158,7 +11161,7 @@
       </c>
       <c r="AE108" s="50">
         <f>AE105</f>
-        <v>7.1328567142853641E-2</v>
+        <v>7.2126840465187039E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11173,7 +11176,7 @@
       </c>
       <c r="Y110" s="39">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>130439738925.548</v>
+        <v>128173186271.03008</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11200,7 +11203,7 @@
       </c>
       <c r="Y113" s="39">
         <f>Y110+Y111-Y112</f>
-        <v>137730738925.548</v>
+        <v>135464186271.03008</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11218,7 +11221,7 @@
       </c>
       <c r="Y115" s="54">
         <f>Y113/Y114</f>
-        <v>1304.6464119863142</v>
+        <v>1283.1766238230971</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11227,7 +11230,7 @@
       </c>
       <c r="Y116" s="55" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>2003.5</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11236,7 +11239,7 @@
       </c>
       <c r="Y117" s="57">
         <f>Y115/Y116-1</f>
-        <v>-0.34881636536744987</v>
+        <v>-0.34897177888224395</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11246,6 +11249,11 @@
       <c r="Y118" s="58" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
         <v>SELL</v>
+      </c>
+    </row>
+    <row r="126" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="Y126" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Consumer/Hermes International.xlsx
+++ b/Consumer/Hermes International.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A414038-5BFD-7245-8888-3418FC20527F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7197EEF3-1665-D54F-9564-5263CE67A4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,9 +550,6 @@
   </si>
   <si>
     <t>Buy/Sell</t>
-  </si>
-  <si>
-    <t>xsw</t>
   </si>
 </sst>
 </file>
@@ -2379,11 +2376,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>2027</v>
+    <v>2036</v>
     <v>957.6</v>
-    <v>0.74470000000000003</v>
-    <v>-8.1999999999999993</v>
-    <v>-4.143E-3</v>
+    <v>0.746</v>
+    <v>5.2</v>
+    <v>2.6690000000000004E-3</v>
     <v>EUR</v>
     <v>Hermes International SCA is a France-based company specialized in the design, manufacturing, and marketing of luxury products. The Company reports its businesses into a number segments, including Leather Goods and Saddler, which includes bags, riding, diaries and small leather goods; Ready-to-wear and Accessories, which includes Hermes ready-to-wear for men and women, belts, costume jewellery, gloves, hats and shoes; Other Hermes, which encompasses jewellery and hermes home products, such as the art of living and hermes tableware; Other product segment, which includes the production activities carried out on behalf of non-group brands, as well as the John Lobb, Saint-Louis, Puiforcat and Shang Xia products; Silk and Textiles; Perfumes, and Watches. Apart from France, Hermes International SCA is present in other countries in Europe, Asia and the Americas, among others.</v>
     <v>19686</v>
@@ -2391,24 +2388,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>24 rue du Faubourg Saint Honore, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>1979.2</v>
+    <v>1984</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45062.350231481483</v>
+    <v>45076.666666666664</v>
     <v>0</v>
-    <v>1965.8</v>
-    <v>208541800000</v>
+    <v>1941.6</v>
+    <v>205670300000</v>
     <v>Hermes International SCA</v>
     <v>Hermes International SCA</v>
-    <v>1976</v>
-    <v>61.4651</v>
-    <v>1979.2</v>
-    <v>1971</v>
+    <v>1955.6</v>
+    <v>60.663800000000002</v>
+    <v>1948.2</v>
+    <v>1953.4</v>
     <v>105569400</v>
     <v>RMS</v>
     <v>Hermes International SCA (XPAR:RMS)</v>
-    <v>4548</v>
-    <v>47780</v>
+    <v>52027</v>
+    <v>59500</v>
     <v>1957</v>
   </rv>
   <rv s="2">
@@ -2973,13 +2970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF126"/>
+  <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="U99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y126" sqref="Y126"/>
+      <selection pane="bottomRight" activeCell="V122" sqref="V122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4382,15 +4379,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>17.974642303051198</v>
+        <v>17.727141872091018</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>61.936976536976537</v>
+        <v>61.084140184140182</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>49.842686424474188</v>
+        <v>49.156381453154879</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10188,7 +10185,7 @@
       </c>
       <c r="AE95" s="38" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>0.74470000000000003</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10343,7 +10340,7 @@
       </c>
       <c r="AE97" s="36">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>7.3009335000000009E-2</v>
+        <v>7.30653E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10574,7 +10571,7 @@
       </c>
       <c r="AE100" s="34">
         <f>AE99/AE103</f>
-        <v>9.1887048297238927E-3</v>
+        <v>9.3157993355628948E-3</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10652,7 +10649,7 @@
       </c>
       <c r="AE101" s="39" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>208541800000</v>
+        <v>205670300000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10730,7 +10727,7 @@
       </c>
       <c r="AE102" s="34">
         <f>AE101/AE103</f>
-        <v>0.99081129517027611</v>
+        <v>0.99068420066443708</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10808,7 +10805,7 @@
       </c>
       <c r="AE103" s="40">
         <f>AE99+AE101</f>
-        <v>210475800000</v>
+        <v>207604300000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10986,7 +10983,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.2126840465187039E-2</v>
+        <v>7.2170077793521664E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11120,7 +11117,7 @@
       <c r="AA107" s="42"/>
       <c r="AB107" s="45">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>149186468793.80481</v>
+        <v>149049720570.43839</v>
       </c>
       <c r="AC107" s="46" t="s">
         <v>148</v>
@@ -11151,7 +11148,7 @@
       </c>
       <c r="AB108" s="45">
         <f>AB107+AB106</f>
-        <v>156045675539.57089</v>
+        <v>155908927316.20447</v>
       </c>
       <c r="AC108" s="46" t="s">
         <v>144</v>
@@ -11161,7 +11158,7 @@
       </c>
       <c r="AE108" s="50">
         <f>AE105</f>
-        <v>7.2126840465187039E-2</v>
+        <v>7.2170077793521664E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11176,7 +11173,7 @@
       </c>
       <c r="Y110" s="39">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>128173186271.03008</v>
+        <v>128052616692.22127</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11203,7 +11200,7 @@
       </c>
       <c r="Y113" s="39">
         <f>Y110+Y111-Y112</f>
-        <v>135464186271.03008</v>
+        <v>135343616692.22127</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11221,7 +11218,7 @@
       </c>
       <c r="Y115" s="54">
         <f>Y113/Y114</f>
-        <v>1283.1766238230971</v>
+        <v>1282.0345355019663</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11230,7 +11227,7 @@
       </c>
       <c r="Y116" s="55" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>1971</v>
+        <v>1953.4</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11239,7 +11236,7 @@
       </c>
       <c r="Y117" s="57">
         <f>Y115/Y116-1</f>
-        <v>-0.34897177888224395</v>
+        <v>-0.34369072616874874</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11249,11 +11246,6 @@
       <c r="Y118" s="58" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
         <v>SELL</v>
-      </c>
-    </row>
-    <row r="126" spans="24:25" x14ac:dyDescent="0.2">
-      <c r="Y126" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Consumer/Hermes International.xlsx
+++ b/Consumer/Hermes International.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7197EEF3-1665-D54F-9564-5263CE67A4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A68A73-39E8-3A47-A0FF-7730809E0FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +544,50 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -888,12 +914,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -977,7 +1012,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1008,6 +1042,30 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1386,11 +1444,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1430,7 +1488,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$W$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$W$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="22"/>
@@ -2222,13 +2280,13 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>206374</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2254,6 +2312,66 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7280000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2378,9 +2496,9 @@
     <v>Powered by Refinitiv</v>
     <v>2036</v>
     <v>957.6</v>
-    <v>0.746</v>
-    <v>5.2</v>
-    <v>2.6690000000000004E-3</v>
+    <v>0.73019999999999996</v>
+    <v>35.799999999999997</v>
+    <v>1.8357000000000002E-2</v>
     <v>EUR</v>
     <v>Hermes International SCA is a France-based company specialized in the design, manufacturing, and marketing of luxury products. The Company reports its businesses into a number segments, including Leather Goods and Saddler, which includes bags, riding, diaries and small leather goods; Ready-to-wear and Accessories, which includes Hermes ready-to-wear for men and women, belts, costume jewellery, gloves, hats and shoes; Other Hermes, which encompasses jewellery and hermes home products, such as the art of living and hermes tableware; Other product segment, which includes the production activities carried out on behalf of non-group brands, as well as the John Lobb, Saint-Louis, Puiforcat and Shang Xia products; Silk and Textiles; Perfumes, and Watches. Apart from France, Hermes International SCA is present in other countries in Europe, Asia and the Americas, among others.</v>
     <v>19686</v>
@@ -2388,24 +2506,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>24 rue du Faubourg Saint Honore, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>1984</v>
+    <v>1997.2</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45076.666666666664</v>
+    <v>45093.666666666664</v>
     <v>0</v>
-    <v>1941.6</v>
-    <v>205670300000</v>
+    <v>1953.8</v>
+    <v>209660900000</v>
     <v>Hermes International SCA</v>
     <v>Hermes International SCA</v>
-    <v>1955.6</v>
-    <v>60.663800000000002</v>
-    <v>1948.2</v>
-    <v>1953.4</v>
+    <v>1959</v>
+    <v>60.564500000000002</v>
+    <v>1950.2</v>
+    <v>1986</v>
     <v>105569400</v>
     <v>RMS</v>
     <v>Hermes International SCA (XPAR:RMS)</v>
-    <v>52027</v>
-    <v>59500</v>
+    <v>234843</v>
+    <v>50850</v>
     <v>1957</v>
   </rv>
   <rv s="2">
@@ -2973,10 +3091,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V122" sqref="V122"/>
+      <selection pane="bottomRight" activeCell="AA92" sqref="AA92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3077,79 +3195,79 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
@@ -3229,10 +3347,10 @@
         <v>11602000000</v>
       </c>
       <c r="X3" s="28">
-        <v>13518000000</v>
+        <v>13698000000</v>
       </c>
       <c r="Y3" s="28">
-        <v>15065000000</v>
+        <v>15146000000</v>
       </c>
       <c r="Z3" s="28">
         <v>16451000000</v>
@@ -3244,21 +3362,21 @@
         <v>18960000000</v>
       </c>
       <c r="AC3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AF3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3347,15 +3465,15 @@
       </c>
       <c r="X4" s="16">
         <f t="shared" si="0"/>
-        <v>0.16514394069987937</v>
+        <v>0.18065850715393905</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11444000591803527</v>
+        <v>0.10570886260767987</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>9.2001327580484515E-2</v>
+        <v>8.6161362736035807E-2</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
@@ -3378,7 +3496,7 @@
         <v>0.34949536969443279</v>
       </c>
       <c r="AF4" s="17">
-        <f>(W105+V105+U105)/3</f>
+        <f>(W106+V106+U106)/3</f>
         <v>0.60749249547680717</v>
       </c>
     </row>
@@ -3524,16 +3642,16 @@
         <v>8213000000</v>
       </c>
       <c r="AC6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AF6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AE6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3619,7 +3737,7 @@
         <v>0.29020000000000001</v>
       </c>
       <c r="AF7" s="20">
-        <f>W106/W3</f>
+        <f>W107/W3</f>
         <v>0.36062747802103085</v>
       </c>
     </row>
@@ -3696,7 +3814,7 @@
     </row>
     <row r="9" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3787,16 +3905,16 @@
         <v>0</v>
       </c>
       <c r="AC9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AD9" s="19" t="s">
+      <c r="AE9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AE9" s="19" t="s">
+      <c r="AF9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AF9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3855,7 +3973,7 @@
         <v>1656300000</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1">
         <v>1815700000</v>
@@ -3867,7 +3985,7 @@
         <v>2137000000</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="17">
         <f>W9</f>
@@ -3891,67 +4009,67 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1">
         <v>1130800000</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1">
         <v>1771200000</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1">
         <v>1419800000</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1">
         <v>2680000000</v>
@@ -4028,21 +4146,21 @@
         <v>2680000000</v>
       </c>
       <c r="AC12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AD12" s="19" t="s">
+      <c r="AF12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AE12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4217,7 +4335,7 @@
         <v>669000000</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -4291,16 +4409,16 @@
         <v>3516000000</v>
       </c>
       <c r="AC15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AD15" s="19" t="s">
+      <c r="AF15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AE15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4379,53 +4497,53 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>17.727141872091018</v>
+        <v>18.071099810377522</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>61.084140184140182</v>
+        <v>62.269349569349572</v>
       </c>
       <c r="AF16" s="31">
-        <f>AE101/W106</f>
-        <v>49.156381453154879</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+        <f>AE101/W107</f>
+        <v>50.110157743785848</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1">
         <v>12700000</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1">
         <v>1500000</v>
@@ -4461,7 +4579,7 @@
         <v>-62000000</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4532,10 +4650,19 @@
         <v>607000000</v>
       </c>
       <c r="AC18" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="AD18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF18" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4604,15 +4731,42 @@
       </c>
       <c r="W19" s="10">
         <v>5304000000</v>
+      </c>
+      <c r="X19" s="63">
+        <v>6258000000</v>
+      </c>
+      <c r="Y19" s="63">
+        <v>7097000002</v>
+      </c>
+      <c r="Z19" s="63">
+        <v>7856000003</v>
+      </c>
+      <c r="AA19" s="63">
+        <v>7706000004</v>
+      </c>
+      <c r="AB19" s="63">
+        <v>8341000005</v>
       </c>
       <c r="AC19" s="32">
         <f>W40-W56-W61</f>
         <v>7291000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD19" s="68">
+        <f>AE101/X3</f>
+        <v>15.305949773689589</v>
+      </c>
+      <c r="AE19" s="68">
+        <f>AE101/X28</f>
+        <v>52.718355531124374</v>
+      </c>
+      <c r="AF19" s="69">
+        <f>AE101/X106</f>
+        <v>54.827641213389121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4699,8 +4853,28 @@
         <f t="shared" si="3"/>
         <v>0.30801479654747221</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="X20" s="16">
+        <f t="shared" ref="X20" si="4">(X19/W19)-1</f>
+        <v>0.17986425339366519</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" ref="Y20" si="5">(Y19/X19)-1</f>
+        <v>0.13406839277724503</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" ref="Z20" si="6">(Z19/Y19)-1</f>
+        <v>0.10694659726449296</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" ref="AA20" si="7">(AA19/Z19)-1</f>
+        <v>-1.9093686219796235E-2</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" ref="AB20" si="8">(AB19/AA19)-1</f>
+        <v>8.2403322173681071E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4767,11 +4941,37 @@
       <c r="V21" s="2">
         <v>0.45150000000000001</v>
       </c>
-      <c r="W21" s="2">
+      <c r="W21" s="62">
         <v>0.4572</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="X21" s="64">
+        <f>X19/X3</f>
+        <v>0.45685501533070522</v>
+      </c>
+      <c r="Y21" s="64">
+        <f t="shared" ref="Y21:AB21" si="9">Y19/Y3</f>
+        <v>0.46857256054403801</v>
+      </c>
+      <c r="Z21" s="64">
+        <f t="shared" si="9"/>
+        <v>0.47753935949182419</v>
+      </c>
+      <c r="AA21" s="64">
+        <f t="shared" si="9"/>
+        <v>0.44911994428255042</v>
+      </c>
+      <c r="AB21" s="64">
+        <f t="shared" si="9"/>
+        <v>0.43992616060126583</v>
+      </c>
+      <c r="AE21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF21" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4838,11 +5038,19 @@
       <c r="V22" s="10">
         <v>3530000000</v>
       </c>
-      <c r="W22" s="10">
+      <c r="W22" s="61">
         <v>4697000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="AE22" s="70">
+        <f>(-1*W98)/AE101</f>
+        <v>4.0637047728021769E-3</v>
+      </c>
+      <c r="AF22" s="71">
+        <f>W107/AE101</f>
+        <v>1.9956033766906467E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4913,7 +5121,7 @@
         <v>0.40479999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4981,10 +5189,10 @@
         <v>-95000000</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5055,7 +5263,7 @@
         <v>4635000000</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5126,7 +5334,7 @@
         <v>0.39950000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5197,7 +5405,7 @@
         <v>1305000000</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5267,10 +5475,25 @@
       <c r="W28" s="11">
         <v>3367000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="65">
+        <v>3977000001</v>
+      </c>
+      <c r="Y28" s="65">
+        <v>4372000002</v>
+      </c>
+      <c r="Z28" s="65">
+        <v>4811000003</v>
+      </c>
+      <c r="AA28" s="65">
+        <v>4746000004</v>
+      </c>
+      <c r="AB28" s="65">
+        <v>5141000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5286,79 +5509,99 @@
         <v>-2.7186225645672857E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:W29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:W29" si="10">(F28/E28)-1</f>
         <v>0.17279925477410329</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.3399523431294753E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7.6979472140762395E-2</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.1055139550715278E-3</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.3863867253636215E-4</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.46140825998645907</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.39772990502663896</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.22621809744779586</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6.8117313150425796E-2</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.6675945843350588E-2</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.13251047973917096</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.13129755295085332</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.11015177678814858</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.1498976668031109</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.7996582656984179E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-9.3443266588142948E-2</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.76483326115201389</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.37709611451942737</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="X29" s="16">
+        <f t="shared" ref="X29" si="11">(X28/W28)-1</f>
+        <v>0.18117018146718156</v>
+      </c>
+      <c r="Y29" s="16">
+        <f t="shared" ref="Y29" si="12">(Y28/X28)-1</f>
+        <v>9.9321096530218478E-2</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" ref="Z29" si="13">(Z28/Y28)-1</f>
+        <v>0.10041171107026003</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" ref="AA29" si="14">(AA28/Z28)-1</f>
+        <v>-1.3510704418929098E-2</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" ref="AB29" si="15">(AB28/AA28)-1</f>
+        <v>8.3227981598627876E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5428,8 +5671,28 @@
       <c r="W30" s="2">
         <v>0.29020000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="X30" s="66">
+        <f>X28/X3</f>
+        <v>0.29033435545335085</v>
+      </c>
+      <c r="Y30" s="66">
+        <f t="shared" ref="Y30:AB30" si="16">Y28/Y3</f>
+        <v>0.28865707130595536</v>
+      </c>
+      <c r="Z30" s="66">
+        <f t="shared" si="16"/>
+        <v>0.29244422849674789</v>
+      </c>
+      <c r="AA30" s="66">
+        <f t="shared" si="16"/>
+        <v>0.27660566522904767</v>
+      </c>
+      <c r="AB30" s="66">
+        <f t="shared" si="16"/>
+        <v>0.27114978929324896</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5499,8 +5762,23 @@
       <c r="W31" s="12">
         <v>42.16</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="X31" s="67">
+        <v>38.04</v>
+      </c>
+      <c r="Y31" s="67">
+        <v>41.83</v>
+      </c>
+      <c r="Z31" s="67">
+        <v>46.02</v>
+      </c>
+      <c r="AA31" s="67">
+        <v>45.4</v>
+      </c>
+      <c r="AB31" s="67">
+        <v>49.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5715,7 +5993,7 @@
     </row>
     <row r="35" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -5723,83 +6001,83 @@
         <v>1.1163911586726015E-3</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:W35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:W35" si="17">(D34-C34)/C34</f>
         <v>9.1528504339676177E-5</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.4227219842105692E-3</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.3054133514481299E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.7797550613758154E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-8.254252820705979E-3</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.0314223140718285E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.5160699610068031E-4</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.0618427554839587E-3</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-4.324063231952854E-3</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.7435148947662609E-3</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.6552055064006648E-3</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.2629980427924526E-4</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.5321364256077278E-3</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.9100160352055893E-4</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.9432321826878892E-4</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.6719366912385605E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.6734773669561226E-3</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.5879251287114597E-3</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-0.23855023549719379</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5808,70 +6086,70 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="21" x14ac:dyDescent="0.25">
@@ -5879,70 +6157,70 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -6033,16 +6311,16 @@
         <v>507600000</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1">
         <v>47900000</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1">
         <v>58200000</v>
@@ -6069,22 +6347,22 @@
         <v>40500000</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -6163,70 +6441,70 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -6581,7 +6859,7 @@
         <v>42000000</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -6743,16 +7021,16 @@
         <v>-451400000</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1">
         <v>26900000</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1">
         <v>96400000</v>
@@ -6779,22 +7057,22 @@
         <v>78700000</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -6802,16 +7080,16 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1">
         <v>97300000</v>
@@ -7015,70 +7293,70 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7231,13 +7509,13 @@
         <v>303100000</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1">
         <v>32100000</v>
@@ -7299,16 +7577,16 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1">
         <v>43200000</v>
@@ -7370,70 +7648,70 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7654,70 +7932,70 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7725,16 +8003,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1">
         <v>10800000</v>
@@ -7938,70 +8216,70 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8222,28 +8500,28 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1">
         <v>-529300000</v>
@@ -8282,10 +8560,10 @@
         <v>-2453500000</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8356,7 +8634,7 @@
         <v>6902000000</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8506,70 +8784,70 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="21" x14ac:dyDescent="0.25">
@@ -8577,70 +8855,70 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8790,70 +9068,70 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8861,25 +9139,25 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1">
         <v>3900000</v>
@@ -8929,94 +9207,94 @@
     </row>
     <row r="80" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:W80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:W80" si="18">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.2101326079564773E-3</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.5596823904299221E-3</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.7904031989336889E-3</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.1179783190201319E-3</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>8.151315978301427E-3</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.1318845211462661E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>9.3478366435196421E-3</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.5191076223920681E-3</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.0341778478336089E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.1172983006253266E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>8.6153433566316349E-3</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.2740796699305576E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.2364228253044104E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.5686929414384325E-3</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.7405619720737808E-3</v>
       </c>
     </row>
@@ -9096,70 +9374,70 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="21" x14ac:dyDescent="0.25">
@@ -9191,13 +9469,13 @@
         <v>-76100000</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1">
         <v>-173900000</v>
@@ -9230,160 +9508,160 @@
         <v>-116000000</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD83" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE83" s="62"/>
+        <v>91</v>
+      </c>
+      <c r="AD83" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE83" s="75"/>
     </row>
     <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD84" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE84" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="AD84" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE84" s="77"/>
     </row>
     <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD85" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AE85" s="24">
         <f>W17</f>
@@ -9458,10 +9736,10 @@
         <v>-8000000</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD86" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AE86" s="24">
         <f>W56</f>
@@ -9539,7 +9817,7 @@
         <v>4184000000</v>
       </c>
       <c r="AD87" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AE87" s="24">
         <f>W61</f>
@@ -9617,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="AD88" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AE88" s="34">
         <f>AE85/(AE86+AE87)</f>
@@ -9626,98 +9904,98 @@
     </row>
     <row r="89" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:W89" si="19">(-1*B88)/B3</f>
+        <v>0.10220881897465156</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="19"/>
+        <v>8.1783788134911051E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="19"/>
+        <v>7.4552845528455286E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="19"/>
+        <v>7.5548212676479418E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="19"/>
+        <v>7.1108308813226842E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="19"/>
+        <v>8.1325500033005482E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="19"/>
+        <v>7.3780075072303247E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="19"/>
+        <v>9.1012127394310319E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.10416340176565847</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="19"/>
+        <v>5.76057980673109E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="19"/>
+        <v>6.5183725186540892E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="19"/>
+        <v>7.5485778249763213E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="19"/>
+        <v>5.6248002556727392E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="19"/>
+        <v>6.7717185451366971E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="19"/>
+        <v>5.2137988019004336E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="19"/>
+        <v>5.0382530467878973E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.7809554702564379E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="19"/>
+        <v>5.2345753507316337E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="19"/>
+        <v>6.9442426707731639E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AD89" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:W89" si="7">(-1*B88)/B3</f>
-        <v>0.10220881897465156</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.1783788134911051E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.4552845528455286E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.5548212676479418E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.1108308813226842E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.1325500033005482E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.3780075072303247E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.1012127394310319E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10416340176565847</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.76057980673109E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.5183725186540892E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.5485778249763213E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.6248002556727392E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.7717185451366971E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.2137988019004336E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.0382530467878973E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.7809554702564379E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.2345753507316337E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.9442426707731639E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD89" s="23" t="s">
-        <v>106</v>
       </c>
       <c r="AE89" s="24">
         <f>W27</f>
@@ -9729,67 +10007,67 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1">
         <v>-1000000</v>
@@ -9807,22 +10085,22 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-24300000</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1">
         <v>-20400000</v>
@@ -9873,7 +10151,7 @@
         <v>-683000000</v>
       </c>
       <c r="AD91" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AE91" s="34">
         <f>AE89/AE90</f>
@@ -9885,19 +10163,19 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1">
         <v>15600000</v>
@@ -9909,7 +10187,7 @@
         <v>1100000</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1">
         <v>25800000</v>
@@ -9951,7 +10229,7 @@
         <v>5000000</v>
       </c>
       <c r="AD92" s="35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AE92" s="36">
         <f>AE88*(1-AE91)</f>
@@ -10028,10 +10306,10 @@
       <c r="W93" s="1">
         <v>32000000</v>
       </c>
-      <c r="AD93" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE93" s="64"/>
+      <c r="AD93" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE93" s="77"/>
     </row>
     <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10104,10 +10382,11 @@
         <v>-579000000</v>
       </c>
       <c r="AD94" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AE94" s="37">
-        <v>4.095E-2</v>
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7280000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10115,19 +10394,19 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1">
         <v>-12400000</v>
@@ -10178,14 +10457,14 @@
         <v>-8000000</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD95" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AE95" s="38" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>0.746</v>
+        <v>0.73019999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10193,37 +10472,37 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>6300000</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1">
         <v>100000</v>
@@ -10232,34 +10511,34 @@
         <v>3100000</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1">
         <v>300000</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD96" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AE96" s="37">
         <v>8.4000000000000005E-2</v>
@@ -10276,7 +10555,7 @@
         <v>-3000000</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1">
         <v>-16400000</v>
@@ -10294,7 +10573,7 @@
         <v>-50900000</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1">
         <v>-500000</v>
@@ -10324,7 +10603,7 @@
         <v>-59700000</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U97" s="1">
         <v>-122100000</v>
@@ -10336,11 +10615,11 @@
         <v>-123000000</v>
       </c>
       <c r="AD97" s="35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AE97" s="36">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>7.30653E-2</v>
+        <v>7.1394944000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10413,29 +10692,29 @@
       <c r="W98" s="1">
         <v>-852000000</v>
       </c>
-      <c r="AD98" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE98" s="64"/>
+      <c r="AD98" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE98" s="77"/>
     </row>
     <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G99" s="1">
         <v>12600000</v>
@@ -10459,10 +10738,10 @@
         <v>34200000</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P99" s="1">
         <v>10600000</v>
@@ -10489,7 +10768,7 @@
         <v>-1000000</v>
       </c>
       <c r="AD99" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AE99" s="24">
         <f>AE86+AE87</f>
@@ -10567,11 +10846,11 @@
         <v>-1237000000</v>
       </c>
       <c r="AD100" s="33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AE100" s="34">
         <f>AE99/AE103</f>
-        <v>9.3157993355628948E-3</v>
+        <v>9.1401068740314638E-3</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10645,11 +10924,11 @@
         <v>159000000</v>
       </c>
       <c r="AD101" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AE101" s="39" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>205670300000</v>
+        <v>209660900000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10723,11 +11002,11 @@
         <v>-1237000000</v>
       </c>
       <c r="AD102" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AE102" s="34">
         <f>AE101/AE103</f>
-        <v>0.99068420066443708</v>
+        <v>0.99085989312596856</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10801,11 +11080,11 @@
         <v>6695000000</v>
       </c>
       <c r="AD103" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AE103" s="40">
         <f>AE99+AE101</f>
-        <v>207604300000</v>
+        <v>211594900000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10878,307 +11157,387 @@
       <c r="W104" s="11">
         <v>9223000000</v>
       </c>
-      <c r="AD104" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE104" s="64"/>
+      <c r="AD104" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE104" s="77"/>
     </row>
     <row r="105" spans="1:31" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>0.58752735229759301</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>2.7567195037905279E-3</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.22268041237113412</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>0.14446318156267557</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-0.16453831041257372</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:W105" si="8">(H106/G106)-1</f>
-        <v>0.20458553791887124</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.30697901415324547</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.81760563380281681</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.0360325455249901</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>4.7954329210275981E-2</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>-7.71745051752315E-2</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.34927194018103114</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>3.2084001750036784E-3</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.35673789795028354</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.29840351441122892</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.10604060075920119</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>7.9683652913526748E-2</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.11208624144841406</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.25806251165102845</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.8517587939698492</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.22878120411160063</v>
-      </c>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="15"/>
-      <c r="AA105" s="15"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
+        <v>157</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:V105" si="20">((B22*(1-$AE$91))+B77+B88+B81)</f>
+        <v>119934951.45631069</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="20"/>
+        <v>154146601.94174755</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="20"/>
+        <v>177899029.12621361</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="20"/>
+        <v>195100970.87378645</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="20"/>
+        <v>194124271.84466022</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="20"/>
+        <v>194599029.12621361</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="20"/>
+        <v>219405825.24271846</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="20"/>
+        <v>156054368.93203884</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="20"/>
+        <v>274068932.03883493</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="20"/>
+        <v>498366019.4174757</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="20"/>
+        <v>564568932.03883493</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="20"/>
+        <v>487381553.3980583</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="20"/>
+        <v>727438834.95145631</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="20"/>
+        <v>711731067.96116495</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="20"/>
+        <v>1066046601.9417477</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="20"/>
+        <v>1271261165.0485437</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="20"/>
+        <v>1460229126.2135923</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="20"/>
+        <v>1550488349.5145631</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="20"/>
+        <v>1735306796.1165047</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="20"/>
+        <v>1626441747.5728157</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="20"/>
+        <v>3445116504.8543692</v>
+      </c>
+      <c r="W105" s="1">
+        <f>((W22*(1-$AE$91))+W77+W88+W81)</f>
+        <v>4054543689.3203883</v>
+      </c>
+      <c r="X105" s="41">
+        <f>W105*(1+$AE$106)</f>
+        <v>4476644992.0291462</v>
+      </c>
+      <c r="Y105" s="41">
+        <f t="shared" ref="Y105:AB105" si="21">X105*(1+$AE$106)</f>
+        <v>4942689466.4979534</v>
+      </c>
+      <c r="Z105" s="41">
+        <f t="shared" si="21"/>
+        <v>5457251849.4829893</v>
+      </c>
+      <c r="AA105" s="41">
+        <f t="shared" si="21"/>
+        <v>6025383134.131362</v>
+      </c>
+      <c r="AB105" s="41">
+        <f t="shared" si="21"/>
+        <v>6652660151.0088215</v>
+      </c>
+      <c r="AC105" s="42" t="s">
+        <v>160</v>
+      </c>
       <c r="AD105" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.2170077793521664E-2</v>
+        <v>7.0531872579014013E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>91400000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>145100000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>145500000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>177900000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>203600000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>170100000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>204900000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>142000000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>258100000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>525500000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>550700000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>508200000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>685700000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>687900000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>933300000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>1211800000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>1340300000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>1447100000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>1609300000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>1194000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>3405000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>4184000000</v>
-      </c>
-      <c r="X106" s="41">
-        <f>W106*(1+$AE$106)</f>
-        <v>4618788962.8328924</v>
-      </c>
-      <c r="Y106" s="41">
-        <f t="shared" ref="Y106:AB106" si="9">X106*(1+$AE$106)</f>
-        <v>5098759914.7196331</v>
-      </c>
-      <c r="Z106" s="41">
-        <f t="shared" si="9"/>
-        <v>5628608034.9526339</v>
-      </c>
-      <c r="AA106" s="41">
-        <f t="shared" si="9"/>
-        <v>6213516412.034359</v>
-      </c>
-      <c r="AB106" s="41">
-        <f t="shared" si="9"/>
-        <v>6859206745.7660923</v>
+      <c r="A106" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:W106" si="22">(C107/B107)-1</f>
+        <v>0.58752735229759301</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="22"/>
+        <v>2.7567195037905279E-3</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.22268041237113412</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.14446318156267557</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.16453831041257372</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.20458553791887124</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.30697901415324547</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.81760563380281681</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="22"/>
+        <v>1.0360325455249901</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="22"/>
+        <v>4.7954329210275981E-2</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="22"/>
+        <v>-7.71745051752315E-2</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.34927194018103114</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="22"/>
+        <v>3.2084001750036784E-3</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.35673789795028354</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.29840351441122892</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.10604060075920119</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="22"/>
+        <v>7.9683652913526748E-2</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.11208624144841406</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.25806251165102845</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="22"/>
+        <v>1.8517587939698492</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.22878120411160063</v>
+      </c>
+      <c r="X106" s="59">
+        <v>3824000000</v>
+      </c>
+      <c r="Y106" s="59">
+        <v>4449000000</v>
+      </c>
+      <c r="Z106" s="59">
+        <v>4970000000</v>
+      </c>
+      <c r="AA106" s="59">
+        <v>4708000000</v>
+      </c>
+      <c r="AB106" s="59">
+        <v>5062000000</v>
       </c>
       <c r="AC106" s="42" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AD106" s="43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AE106" s="44">
         <f>(SUM(X4:AB4)/5)</f>
-        <v>0.10391705612640818</v>
+        <v>0.10410574778625929</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
+      <c r="A107" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1">
+        <v>91400000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>145100000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>145500000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>177900000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>203600000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>170100000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>204900000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>142000000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>258100000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>525500000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>550700000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>508200000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>685700000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>687900000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>933300000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>1211800000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>1340300000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>1447100000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>1609300000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>1194000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>3405000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>4184000000</v>
+      </c>
       <c r="X107" s="42"/>
       <c r="Y107" s="42"/>
       <c r="Z107" s="42"/>
       <c r="AA107" s="42"/>
-      <c r="AB107" s="45">
+      <c r="AB107" s="60">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>149049720570.43839</v>
-      </c>
-      <c r="AC107" s="46" t="s">
+        <v>113954241416.18639</v>
+      </c>
+      <c r="AC107" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD107" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE107" s="47">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="X108" s="60">
+        <f t="shared" ref="X108:AA108" si="23">X107+X106</f>
+        <v>3824000000</v>
+      </c>
+      <c r="Y108" s="60">
+        <f t="shared" si="23"/>
+        <v>4449000000</v>
+      </c>
+      <c r="Z108" s="60">
+        <f t="shared" si="23"/>
+        <v>4970000000</v>
+      </c>
+      <c r="AA108" s="60">
+        <f t="shared" si="23"/>
+        <v>4708000000</v>
+      </c>
+      <c r="AB108" s="60">
+        <f>AB107+AB106</f>
+        <v>119016241416.18639</v>
+      </c>
+      <c r="AC108" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD108" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE108" s="49">
+        <f>AE105</f>
+        <v>7.0531872579014013E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="X109" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="AD107" s="47" t="s">
+      <c r="Y109" s="73"/>
+    </row>
+    <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="X110" s="50" t="s">
         <v>149</v>
-      </c>
-      <c r="AE107" s="48">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X108" s="45">
-        <f t="shared" ref="X108:Z108" si="10">X107+X106</f>
-        <v>4618788962.8328924</v>
-      </c>
-      <c r="Y108" s="45">
-        <f t="shared" si="10"/>
-        <v>5098759914.7196331</v>
-      </c>
-      <c r="Z108" s="45">
-        <f t="shared" si="10"/>
-        <v>5628608034.9526339</v>
-      </c>
-      <c r="AA108" s="45">
-        <f>AA107+AA106</f>
-        <v>6213516412.034359</v>
-      </c>
-      <c r="AB108" s="45">
-        <f>AB107+AB106</f>
-        <v>155908927316.20447</v>
-      </c>
-      <c r="AC108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD108" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE108" s="50">
-        <f>AE105</f>
-        <v>7.2170077793521664E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y109" s="60"/>
-    </row>
-    <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X110" s="51" t="s">
-        <v>152</v>
       </c>
       <c r="Y110" s="39">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>128052616692.22127</v>
+        <v>99736006555.365509</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X111" s="51" t="s">
-        <v>153</v>
+      <c r="X111" s="50" t="s">
+        <v>150</v>
       </c>
       <c r="Y111" s="39">
         <f>W40</f>
@@ -11186,8 +11545,8 @@
       </c>
     </row>
     <row r="112" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X112" s="51" t="s">
-        <v>140</v>
+      <c r="X112" s="50" t="s">
+        <v>138</v>
       </c>
       <c r="Y112" s="39">
         <f>AE99</f>
@@ -11195,55 +11554,55 @@
       </c>
     </row>
     <row r="113" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X113" s="51" t="s">
-        <v>154</v>
+      <c r="X113" s="50" t="s">
+        <v>151</v>
       </c>
       <c r="Y113" s="39">
         <f>Y110+Y111-Y112</f>
-        <v>135343616692.22127</v>
+        <v>107027006555.36551</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X114" s="51" t="s">
+      <c r="X114" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y114" s="51">
+        <f>W34*(1+(AC16*5))</f>
+        <v>60608393.517080538</v>
+      </c>
+    </row>
+    <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X115" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y115" s="53">
+        <f>Y113/Y114</f>
+        <v>1765.8776341795526</v>
+      </c>
+    </row>
+    <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X116" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y116" s="54" cm="1">
+        <f t="array" ref="Y116">_FV(A1,"Price")</f>
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X117" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="Y114" s="52" cm="1">
-        <f t="array" ref="Y114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>105569400</v>
-      </c>
-    </row>
-    <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X115" s="53" t="s">
+      <c r="Y117" s="56">
+        <f>Y115/Y116-1</f>
+        <v>-0.11083704220566337</v>
+      </c>
+    </row>
+    <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X118" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="Y115" s="54">
-        <f>Y113/Y114</f>
-        <v>1282.0345355019663</v>
-      </c>
-    </row>
-    <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X116" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y116" s="55" cm="1">
-        <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>1953.4</v>
-      </c>
-    </row>
-    <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y117" s="57">
-        <f>Y115/Y116-1</f>
-        <v>-0.34369072616874874</v>
-      </c>
-    </row>
-    <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y118" s="58" t="str">
+      <c r="Y118" s="57" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -11303,9 +11662,10 @@
     <hyperlink ref="V74" r:id="rId43" location="phrase=R.M.S" tooltip="https://www.infogreffe.com/recherche-entreprise-dirigeants/resultats-entreprise-dirigeants.html?ga_cat=globale&amp;ga_q=R.M.S#phrase=R.M.S" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="W36" r:id="rId44" location="phrase=R.M.S" tooltip="https://www.infogreffe.com/recherche-entreprise-dirigeants/resultats-entreprise-dirigeants.html?ga_cat=globale&amp;ga_q=R.M.S#phrase=R.M.S" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="W74" r:id="rId45" location="phrase=R.M.S" tooltip="https://www.infogreffe.com/recherche-entreprise-dirigeants/resultats-entreprise-dirigeants.html?ga_cat=globale&amp;ga_q=R.M.S#phrase=R.M.S" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="X1" r:id="rId46" display="https://finbox.com/OTCPK:HESA.Y/models/dcf-revenue-exit-5yr/" xr:uid="{3AAAE857-2DF6-7E43-BC47-F98C8D288B34}"/>
+    <hyperlink ref="X1" r:id="rId46" display="https://finbox.com/ENXTPA:RMS/explorer/revenue_proj" xr:uid="{3AAAE857-2DF6-7E43-BC47-F98C8D288B34}"/>
+    <hyperlink ref="AC106" r:id="rId47" xr:uid="{F2A414B3-380E-3F4D-8F11-0F084479A878}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId47"/>
+  <drawing r:id="rId48"/>
 </worksheet>
 </file>
--- a/Consumer/Hermes International.xlsx
+++ b/Consumer/Hermes International.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A68A73-39E8-3A47-A0FF-7730809E0FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE505D9F-CE80-7242-A1CD-71B4D8E44F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2358,7 +2358,7 @@
       <sheetData sheetId="12">
         <row r="8">
           <cell r="C8">
-            <v>3.7280000000000001E-2</v>
+            <v>3.7229999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2495,10 +2495,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>2036</v>
-    <v>957.6</v>
-    <v>0.73019999999999996</v>
-    <v>35.799999999999997</v>
-    <v>1.8357000000000002E-2</v>
+    <v>972.4</v>
+    <v>0.72970000000000002</v>
+    <v>-4.2</v>
+    <v>-2.2040000000000002E-3</v>
     <v>EUR</v>
     <v>Hermes International SCA is a France-based company specialized in the design, manufacturing, and marketing of luxury products. The Company reports its businesses into a number segments, including Leather Goods and Saddler, which includes bags, riding, diaries and small leather goods; Ready-to-wear and Accessories, which includes Hermes ready-to-wear for men and women, belts, costume jewellery, gloves, hats and shoes; Other Hermes, which encompasses jewellery and hermes home products, such as the art of living and hermes tableware; Other product segment, which includes the production activities carried out on behalf of non-group brands, as well as the John Lobb, Saint-Louis, Puiforcat and Shang Xia products; Silk and Textiles; Perfumes, and Watches. Apart from France, Hermes International SCA is present in other countries in Europe, Asia and the Americas, among others.</v>
     <v>19686</v>
@@ -2506,24 +2506,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>24 rue du Faubourg Saint Honore, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>1997.2</v>
+    <v>1908.2</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45093.666666666664</v>
+    <v>45100.666666666664</v>
     <v>0</v>
-    <v>1953.8</v>
-    <v>209660900000</v>
+    <v>1880.4</v>
+    <v>201173100000</v>
     <v>Hermes International SCA</v>
     <v>Hermes International SCA</v>
-    <v>1959</v>
-    <v>60.564500000000002</v>
-    <v>1950.2</v>
-    <v>1986</v>
+    <v>1895.2</v>
+    <v>59.179400000000001</v>
+    <v>1905.6</v>
+    <v>1901.4</v>
     <v>105569400</v>
     <v>RMS</v>
     <v>Hermes International SCA (XPAR:RMS)</v>
-    <v>234843</v>
-    <v>50850</v>
+    <v>55521</v>
+    <v>67550</v>
     <v>1957</v>
   </rv>
   <rv s="2">
@@ -3091,10 +3091,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA92" sqref="AA92"/>
+      <selection pane="bottomRight" activeCell="Y99" sqref="Y99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4497,15 +4497,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>18.071099810377522</v>
+        <v>17.339519048439925</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>62.269349569349572</v>
+        <v>59.748470448470449</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W107</f>
-        <v>50.110157743785848</v>
+        <v>48.081524856596559</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4753,15 +4753,15 @@
       </c>
       <c r="AD19" s="68">
         <f>AE101/X3</f>
-        <v>15.305949773689589</v>
+        <v>14.686311870346035</v>
       </c>
       <c r="AE19" s="68">
         <f>AE101/X28</f>
-        <v>52.718355531124374</v>
+        <v>50.584133756453575</v>
       </c>
       <c r="AF19" s="69">
         <f>AE101/X106</f>
-        <v>54.827641213389121</v>
+        <v>52.608028242677825</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5043,11 +5043,11 @@
       </c>
       <c r="AE22" s="70">
         <f>(-1*W98)/AE101</f>
-        <v>4.0637047728021769E-3</v>
+        <v>4.2351586767813395E-3</v>
       </c>
       <c r="AF22" s="71">
         <f>W107/AE101</f>
-        <v>1.9956033766906467E-2</v>
+        <v>2.0798009276588172E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10386,7 +10386,7 @@
       </c>
       <c r="AE94" s="37">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7280000000000001E-2</v>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10464,7 +10464,7 @@
       </c>
       <c r="AE95" s="38" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>0.73019999999999996</v>
+        <v>0.72970000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10619,7 +10619,7 @@
       </c>
       <c r="AE97" s="36">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>7.1394944000000002E-2</v>
+        <v>7.1358068999999996E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10850,7 +10850,7 @@
       </c>
       <c r="AE100" s="34">
         <f>AE99/AE103</f>
-        <v>9.1401068740314638E-3</v>
+        <v>9.5220698833275649E-3</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10928,7 +10928,7 @@
       </c>
       <c r="AE101" s="39" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>209660900000</v>
+        <v>201173100000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11006,7 +11006,7 @@
       </c>
       <c r="AE102" s="34">
         <f>AE101/AE103</f>
-        <v>0.99085989312596856</v>
+        <v>0.9904779301166724</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="AE103" s="40">
         <f>AE99+AE101</f>
-        <v>211594900000</v>
+        <v>203107100000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11282,7 +11282,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.0531872579014013E-2</v>
+        <v>7.0459281144891084E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11476,7 +11476,7 @@
       <c r="AA107" s="42"/>
       <c r="AB107" s="60">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>113954241416.18639</v>
+        <v>114136208697.68445</v>
       </c>
       <c r="AC107" s="45" t="s">
         <v>145</v>
@@ -11507,7 +11507,7 @@
       </c>
       <c r="AB108" s="60">
         <f>AB107+AB106</f>
-        <v>119016241416.18639</v>
+        <v>119198208697.68445</v>
       </c>
       <c r="AC108" s="45" t="s">
         <v>142</v>
@@ -11517,7 +11517,7 @@
       </c>
       <c r="AE108" s="49">
         <f>AE105</f>
-        <v>7.0531872579014013E-2</v>
+        <v>7.0459281144891084E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11532,7 +11532,7 @@
       </c>
       <c r="Y110" s="39">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>99736006555.365509</v>
+        <v>99896738655.693924</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="Y113" s="39">
         <f>Y110+Y111-Y112</f>
-        <v>107027006555.36551</v>
+        <v>107187738655.69392</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11577,7 +11577,7 @@
       </c>
       <c r="Y115" s="53">
         <f>Y113/Y114</f>
-        <v>1765.8776341795526</v>
+        <v>1768.5296117523142</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="Y116" s="54" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>1986</v>
+        <v>1901.4</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11595,7 +11595,7 @@
       </c>
       <c r="Y117" s="56">
         <f>Y115/Y116-1</f>
-        <v>-0.11083704220566337</v>
+        <v>-6.9880292546379508E-2</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Hermes International.xlsx
+++ b/Consumer/Hermes International.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE505D9F-CE80-7242-A1CD-71B4D8E44F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042ABC09-B69E-F14E-B50B-A280DFAD582C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2332,12 +2332,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2354,14 +2355,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2369,6 +2370,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2496,9 +2498,9 @@
     <v>Powered by Refinitiv</v>
     <v>2036</v>
     <v>972.4</v>
-    <v>0.72970000000000002</v>
-    <v>-4.2</v>
-    <v>-2.2040000000000002E-3</v>
+    <v>0.73140000000000005</v>
+    <v>13.2</v>
+    <v>6.9420000000000003E-3</v>
     <v>EUR</v>
     <v>Hermes International SCA is a France-based company specialized in the design, manufacturing, and marketing of luxury products. The Company reports its businesses into a number segments, including Leather Goods and Saddler, which includes bags, riding, diaries and small leather goods; Ready-to-wear and Accessories, which includes Hermes ready-to-wear for men and women, belts, costume jewellery, gloves, hats and shoes; Other Hermes, which encompasses jewellery and hermes home products, such as the art of living and hermes tableware; Other product segment, which includes the production activities carried out on behalf of non-group brands, as well as the John Lobb, Saint-Louis, Puiforcat and Shang Xia products; Silk and Textiles; Perfumes, and Watches. Apart from France, Hermes International SCA is present in other countries in Europe, Asia and the Americas, among others.</v>
     <v>19686</v>
@@ -2506,24 +2508,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>24 rue du Faubourg Saint Honore, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>1908.2</v>
+    <v>1916.8</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45100.666666666664</v>
+    <v>45103.464085648149</v>
     <v>0</v>
-    <v>1880.4</v>
-    <v>201173100000</v>
+    <v>1901</v>
+    <v>200729700000</v>
     <v>Hermes International SCA</v>
     <v>Hermes International SCA</v>
-    <v>1895.2</v>
-    <v>59.179400000000001</v>
-    <v>1905.6</v>
+    <v>1909.8</v>
+    <v>59.048999999999999</v>
     <v>1901.4</v>
+    <v>1914.6</v>
     <v>105569400</v>
     <v>RMS</v>
     <v>Hermes International SCA (XPAR:RMS)</v>
-    <v>55521</v>
-    <v>67550</v>
+    <v>9127</v>
+    <v>69050</v>
     <v>1957</v>
   </rv>
   <rv s="2">
@@ -3091,10 +3093,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y99" sqref="Y99"/>
+      <selection pane="bottomRight" activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4497,15 +4499,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>17.339519048439925</v>
+        <v>17.301301499741424</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>59.748470448470449</v>
+        <v>59.616780516780516</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W107</f>
-        <v>48.081524856596559</v>
+        <v>47.975549713193118</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4753,15 +4755,15 @@
       </c>
       <c r="AD19" s="68">
         <f>AE101/X3</f>
-        <v>14.686311870346035</v>
+        <v>14.653942181340343</v>
       </c>
       <c r="AE19" s="68">
         <f>AE101/X28</f>
-        <v>50.584133756453575</v>
+        <v>50.472642682807987</v>
       </c>
       <c r="AF19" s="69">
         <f>AE101/X106</f>
-        <v>52.608028242677825</v>
+        <v>52.492076359832637</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5043,11 +5045,11 @@
       </c>
       <c r="AE22" s="70">
         <f>(-1*W98)/AE101</f>
-        <v>4.2351586767813395E-3</v>
+        <v>4.244513891068437E-3</v>
       </c>
       <c r="AF22" s="71">
         <f>W107/AE101</f>
-        <v>2.0798009276588172E-2</v>
+        <v>2.0843950845340773E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10386,7 +10388,7 @@
       </c>
       <c r="AE94" s="37">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10464,7 +10466,7 @@
       </c>
       <c r="AE95" s="38" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>0.72970000000000002</v>
+        <v>0.73140000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10619,7 +10621,7 @@
       </c>
       <c r="AE97" s="36">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>7.1358068999999996E-2</v>
+        <v>7.1480554000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10850,7 +10852,7 @@
       </c>
       <c r="AE100" s="34">
         <f>AE99/AE103</f>
-        <v>9.5220698833275649E-3</v>
+        <v>9.5429028484134062E-3</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10928,7 +10930,7 @@
       </c>
       <c r="AE101" s="39" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>201173100000</v>
+        <v>200729700000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11006,7 +11008,7 @@
       </c>
       <c r="AE102" s="34">
         <f>AE101/AE103</f>
-        <v>0.9904779301166724</v>
+        <v>0.99045709715158659</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11084,7 +11086,7 @@
       </c>
       <c r="AE103" s="40">
         <f>AE99+AE101</f>
-        <v>203107100000</v>
+        <v>202663700000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11282,7 +11284,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.0459281144891084E-2</v>
+        <v>7.0578630859563951E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11476,7 +11478,7 @@
       <c r="AA107" s="42"/>
       <c r="AB107" s="60">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>114136208697.68445</v>
+        <v>113837337852.18047</v>
       </c>
       <c r="AC107" s="45" t="s">
         <v>145</v>
@@ -11507,7 +11509,7 @@
       </c>
       <c r="AB108" s="60">
         <f>AB107+AB106</f>
-        <v>119198208697.68445</v>
+        <v>118899337852.18047</v>
       </c>
       <c r="AC108" s="45" t="s">
         <v>142</v>
@@ -11517,7 +11519,7 @@
       </c>
       <c r="AE108" s="49">
         <f>AE105</f>
-        <v>7.0459281144891084E-2</v>
+        <v>7.0578630859563951E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11532,7 +11534,7 @@
       </c>
       <c r="Y110" s="39">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>99896738655.693924</v>
+        <v>99632745537.773209</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11559,7 +11561,7 @@
       </c>
       <c r="Y113" s="39">
         <f>Y110+Y111-Y112</f>
-        <v>107187738655.69392</v>
+        <v>106923745537.77321</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11577,7 +11579,7 @@
       </c>
       <c r="Y115" s="53">
         <f>Y113/Y114</f>
-        <v>1768.5296117523142</v>
+        <v>1764.173892971444</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11586,7 +11588,7 @@
       </c>
       <c r="Y116" s="54" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>1901.4</v>
+        <v>1914.6</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11595,7 +11597,7 @@
       </c>
       <c r="Y117" s="56">
         <f>Y115/Y116-1</f>
-        <v>-6.9880292546379508E-2</v>
+        <v>-7.8567902971145909E-2</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Hermes International.xlsx
+++ b/Consumer/Hermes International.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042ABC09-B69E-F14E-B50B-A280DFAD582C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840443C1-F734-6549-8ADC-1300FBB5B9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -856,62 +856,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -928,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -970,20 +917,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -992,56 +931,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
@@ -1049,13 +942,13 @@
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1067,22 +960,57 @@
     <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2358,7 +2286,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2497,10 +2425,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>2036</v>
-    <v>972.4</v>
-    <v>0.73140000000000005</v>
-    <v>13.2</v>
-    <v>6.9420000000000003E-3</v>
+    <v>1037</v>
+    <v>0.73199999999999998</v>
+    <v>28</v>
+    <v>1.4271000000000001E-2</v>
     <v>EUR</v>
     <v>Hermes International SCA is a France-based company specialized in the design, manufacturing, and marketing of luxury products. The Company reports its businesses into a number segments, including Leather Goods and Saddler, which includes bags, riding, diaries and small leather goods; Ready-to-wear and Accessories, which includes Hermes ready-to-wear for men and women, belts, costume jewellery, gloves, hats and shoes; Other Hermes, which encompasses jewellery and hermes home products, such as the art of living and hermes tableware; Other product segment, which includes the production activities carried out on behalf of non-group brands, as well as the John Lobb, Saint-Louis, Puiforcat and Shang Xia products; Silk and Textiles; Perfumes, and Watches. Apart from France, Hermes International SCA is present in other countries in Europe, Asia and the Americas, among others.</v>
     <v>19686</v>
@@ -2508,24 +2436,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>24 rue du Faubourg Saint Honore, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>1916.8</v>
+    <v>1999.6</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45103.464085648149</v>
+    <v>45107.666666666664</v>
     <v>0</v>
-    <v>1901</v>
-    <v>200729700000</v>
+    <v>1948.4</v>
+    <v>207127200000</v>
     <v>Hermes International SCA</v>
     <v>Hermes International SCA</v>
-    <v>1909.8</v>
-    <v>59.048999999999999</v>
-    <v>1901.4</v>
-    <v>1914.6</v>
+    <v>1960</v>
+    <v>60.930900000000001</v>
+    <v>1962</v>
+    <v>1990</v>
     <v>105569400</v>
     <v>RMS</v>
     <v>Hermes International SCA (XPAR:RMS)</v>
-    <v>9127</v>
-    <v>69050</v>
+    <v>85316</v>
+    <v>64850</v>
     <v>1957</v>
   </rv>
   <rv s="2">
@@ -3093,10 +3021,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z11" sqref="Z11"/>
+      <selection pane="bottomRight" activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3176,19 +3104,19 @@
       <c r="W1" s="8">
         <v>2022</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="23">
         <v>2023</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="23">
         <v>2024</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="23">
         <v>2025</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="23">
         <v>2026</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3348,19 +3276,19 @@
       <c r="W3" s="1">
         <v>11602000000</v>
       </c>
-      <c r="X3" s="28">
+      <c r="X3" s="24">
         <v>13698000000</v>
       </c>
-      <c r="Y3" s="28">
+      <c r="Y3" s="24">
         <v>15146000000</v>
       </c>
-      <c r="Z3" s="28">
+      <c r="Z3" s="24">
         <v>16451000000</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="24">
         <v>17158000000</v>
       </c>
-      <c r="AB3" s="28">
+      <c r="AB3" s="24">
         <v>18960000000</v>
       </c>
       <c r="AC3" s="18" t="s">
@@ -4493,21 +4421,21 @@
       <c r="W16" s="1">
         <v>6905000000</v>
       </c>
-      <c r="AC16" s="29">
+      <c r="AC16" s="25">
         <f>(W35+V35+U35+T35+S35)/5</f>
         <v>-4.8227323990037534E-2</v>
       </c>
-      <c r="AD16" s="30">
+      <c r="AD16" s="26">
         <f>AE101/W3</f>
-        <v>17.301301499741424</v>
-      </c>
-      <c r="AE16" s="30">
+        <v>17.852715049129461</v>
+      </c>
+      <c r="AE16" s="26">
         <f>AE101/W28</f>
-        <v>59.616780516780516</v>
-      </c>
-      <c r="AF16" s="31">
+        <v>61.516839916839913</v>
+      </c>
+      <c r="AF16" s="27">
         <f>AE101/W107</f>
-        <v>47.975549713193118</v>
+        <v>49.50458891013384</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4734,36 +4662,36 @@
       <c r="W19" s="10">
         <v>5304000000</v>
       </c>
-      <c r="X19" s="63">
+      <c r="X19" s="37">
         <v>6258000000</v>
       </c>
-      <c r="Y19" s="63">
+      <c r="Y19" s="37">
         <v>7097000002</v>
       </c>
-      <c r="Z19" s="63">
+      <c r="Z19" s="37">
         <v>7856000003</v>
       </c>
-      <c r="AA19" s="63">
+      <c r="AA19" s="37">
         <v>7706000004</v>
       </c>
-      <c r="AB19" s="63">
+      <c r="AB19" s="37">
         <v>8341000005</v>
       </c>
-      <c r="AC19" s="32">
+      <c r="AC19" s="28">
         <f>W40-W56-W61</f>
         <v>7291000000</v>
       </c>
-      <c r="AD19" s="68">
+      <c r="AD19" s="42">
         <f>AE101/X3</f>
-        <v>14.653942181340343</v>
-      </c>
-      <c r="AE19" s="68">
+        <v>15.120981165133596</v>
+      </c>
+      <c r="AE19" s="42">
         <f>AE101/X28</f>
-        <v>50.472642682807987</v>
-      </c>
-      <c r="AF19" s="69">
+        <v>52.081267273804059</v>
+      </c>
+      <c r="AF19" s="43">
         <f>AE101/X106</f>
-        <v>52.492076359832637</v>
+        <v>54.165062761506277</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4943,26 +4871,26 @@
       <c r="V21" s="2">
         <v>0.45150000000000001</v>
       </c>
-      <c r="W21" s="62">
+      <c r="W21" s="36">
         <v>0.4572</v>
       </c>
-      <c r="X21" s="64">
+      <c r="X21" s="38">
         <f>X19/X3</f>
         <v>0.45685501533070522</v>
       </c>
-      <c r="Y21" s="64">
+      <c r="Y21" s="38">
         <f t="shared" ref="Y21:AB21" si="9">Y19/Y3</f>
         <v>0.46857256054403801</v>
       </c>
-      <c r="Z21" s="64">
+      <c r="Z21" s="38">
         <f t="shared" si="9"/>
         <v>0.47753935949182419</v>
       </c>
-      <c r="AA21" s="64">
+      <c r="AA21" s="38">
         <f t="shared" si="9"/>
         <v>0.44911994428255042</v>
       </c>
-      <c r="AB21" s="64">
+      <c r="AB21" s="38">
         <f t="shared" si="9"/>
         <v>0.43992616060126583</v>
       </c>
@@ -5040,16 +4968,16 @@
       <c r="V22" s="10">
         <v>3530000000</v>
       </c>
-      <c r="W22" s="61">
+      <c r="W22" s="35">
         <v>4697000000</v>
       </c>
-      <c r="AE22" s="70">
+      <c r="AE22" s="44">
         <f>(-1*W98)/AE101</f>
-        <v>4.244513891068437E-3</v>
-      </c>
-      <c r="AF22" s="71">
+        <v>4.1134143656651563E-3</v>
+      </c>
+      <c r="AF22" s="45">
         <f>W107/AE101</f>
-        <v>2.0843950845340773E-2</v>
+        <v>2.0200147542186637E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5477,19 +5405,19 @@
       <c r="W28" s="11">
         <v>3367000000</v>
       </c>
-      <c r="X28" s="65">
+      <c r="X28" s="39">
         <v>3977000001</v>
       </c>
-      <c r="Y28" s="65">
+      <c r="Y28" s="39">
         <v>4372000002</v>
       </c>
-      <c r="Z28" s="65">
+      <c r="Z28" s="39">
         <v>4811000003</v>
       </c>
-      <c r="AA28" s="65">
+      <c r="AA28" s="39">
         <v>4746000004</v>
       </c>
-      <c r="AB28" s="65">
+      <c r="AB28" s="39">
         <v>5141000005</v>
       </c>
     </row>
@@ -5673,23 +5601,23 @@
       <c r="W30" s="2">
         <v>0.29020000000000001</v>
       </c>
-      <c r="X30" s="66">
+      <c r="X30" s="40">
         <f>X28/X3</f>
         <v>0.29033435545335085</v>
       </c>
-      <c r="Y30" s="66">
+      <c r="Y30" s="40">
         <f t="shared" ref="Y30:AB30" si="16">Y28/Y3</f>
         <v>0.28865707130595536</v>
       </c>
-      <c r="Z30" s="66">
+      <c r="Z30" s="40">
         <f t="shared" si="16"/>
         <v>0.29244422849674789</v>
       </c>
-      <c r="AA30" s="66">
+      <c r="AA30" s="40">
         <f t="shared" si="16"/>
         <v>0.27660566522904767</v>
       </c>
-      <c r="AB30" s="66">
+      <c r="AB30" s="40">
         <f t="shared" si="16"/>
         <v>0.27114978929324896</v>
       </c>
@@ -5764,19 +5692,19 @@
       <c r="W31" s="12">
         <v>42.16</v>
       </c>
-      <c r="X31" s="67">
+      <c r="X31" s="41">
         <v>38.04</v>
       </c>
-      <c r="Y31" s="67">
+      <c r="Y31" s="41">
         <v>41.83</v>
       </c>
-      <c r="Z31" s="67">
+      <c r="Z31" s="41">
         <v>46.02</v>
       </c>
-      <c r="AA31" s="67">
+      <c r="AA31" s="41">
         <v>45.4</v>
       </c>
-      <c r="AB31" s="67">
+      <c r="AB31" s="41">
         <v>49.18</v>
       </c>
     </row>
@@ -9512,10 +9440,10 @@
       <c r="W83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD83" s="74" t="s">
+      <c r="AD83" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="AE83" s="75"/>
+      <c r="AE83" s="69"/>
     </row>
     <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9587,10 +9515,10 @@
       <c r="W84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD84" s="76" t="s">
+      <c r="AD84" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="AE84" s="77"/>
+      <c r="AE84" s="70"/>
     </row>
     <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9662,10 +9590,10 @@
       <c r="W85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD85" s="23" t="s">
+      <c r="AD85" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="AE85" s="24">
+      <c r="AE85" s="47">
         <f>W17</f>
         <v>-62000000</v>
       </c>
@@ -9740,10 +9668,10 @@
       <c r="W86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD86" s="23" t="s">
+      <c r="AD86" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="AE86" s="24">
+      <c r="AE86" s="47">
         <f>W56</f>
         <v>270000000</v>
       </c>
@@ -9818,10 +9746,10 @@
       <c r="W87" s="10">
         <v>4184000000</v>
       </c>
-      <c r="AD87" s="23" t="s">
+      <c r="AD87" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="AE87" s="24">
+      <c r="AE87" s="47">
         <f>W61</f>
         <v>1664000000</v>
       </c>
@@ -9896,10 +9824,10 @@
       <c r="W88" s="1">
         <v>0</v>
       </c>
-      <c r="AD88" s="33" t="s">
+      <c r="AD88" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="AE88" s="34">
+      <c r="AE88" s="49">
         <f>AE85/(AE86+AE87)</f>
         <v>-3.2057911065149949E-2</v>
       </c>
@@ -9996,10 +9924,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AD89" s="23" t="s">
+      <c r="AD89" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="AE89" s="24">
+      <c r="AE89" s="47">
         <f>W27</f>
         <v>1305000000</v>
       </c>
@@ -10074,10 +10002,10 @@
       <c r="W90" s="1">
         <v>-1000000</v>
       </c>
-      <c r="AD90" s="23" t="s">
+      <c r="AD90" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="AE90" s="24">
+      <c r="AE90" s="47">
         <f>W25</f>
         <v>4635000000</v>
       </c>
@@ -10152,10 +10080,10 @@
       <c r="W91" s="1">
         <v>-683000000</v>
       </c>
-      <c r="AD91" s="33" t="s">
+      <c r="AD91" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="AE91" s="34">
+      <c r="AE91" s="49">
         <f>AE89/AE90</f>
         <v>0.28155339805825241</v>
       </c>
@@ -10230,10 +10158,10 @@
       <c r="W92" s="1">
         <v>5000000</v>
       </c>
-      <c r="AD92" s="35" t="s">
+      <c r="AD92" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="AE92" s="36">
+      <c r="AE92" s="49">
         <f>AE88*(1-AE91)</f>
         <v>-2.303189727010773E-2</v>
       </c>
@@ -10308,10 +10236,10 @@
       <c r="W93" s="1">
         <v>32000000</v>
       </c>
-      <c r="AD93" s="76" t="s">
+      <c r="AD93" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="AE93" s="77"/>
+      <c r="AE93" s="70"/>
     </row>
     <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10383,12 +10311,12 @@
       <c r="W94" s="10">
         <v>-579000000</v>
       </c>
-      <c r="AD94" s="23" t="s">
+      <c r="AD94" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="AE94" s="37">
+      <c r="AE94" s="50">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10461,12 +10389,12 @@
       <c r="W95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD95" s="23" t="s">
+      <c r="AD95" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="AE95" s="38" cm="1">
+      <c r="AE95" s="51" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>0.73140000000000005</v>
+        <v>0.73199999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10539,10 +10467,10 @@
       <c r="W96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD96" s="23" t="s">
+      <c r="AD96" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="AE96" s="37">
+      <c r="AE96" s="50">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10616,12 +10544,12 @@
       <c r="W97" s="1">
         <v>-123000000</v>
       </c>
-      <c r="AD97" s="35" t="s">
+      <c r="AD97" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AE97" s="36">
+      <c r="AE97" s="49">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>7.1480554000000002E-2</v>
+        <v>7.1816720000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10694,10 +10622,10 @@
       <c r="W98" s="1">
         <v>-852000000</v>
       </c>
-      <c r="AD98" s="76" t="s">
+      <c r="AD98" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="AE98" s="77"/>
+      <c r="AE98" s="70"/>
     </row>
     <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10769,10 +10697,10 @@
       <c r="W99" s="1">
         <v>-1000000</v>
       </c>
-      <c r="AD99" s="23" t="s">
+      <c r="AD99" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="AE99" s="24">
+      <c r="AE99" s="47">
         <f>AE86+AE87</f>
         <v>1934000000</v>
       </c>
@@ -10847,12 +10775,12 @@
       <c r="W100" s="10">
         <v>-1237000000</v>
       </c>
-      <c r="AD100" s="33" t="s">
+      <c r="AD100" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="AE100" s="34">
+      <c r="AE100" s="49">
         <f>AE99/AE103</f>
-        <v>9.5429028484134062E-3</v>
+        <v>9.2508796467254562E-3</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10925,12 +10853,12 @@
       <c r="W101" s="1">
         <v>159000000</v>
       </c>
-      <c r="AD101" s="23" t="s">
+      <c r="AD101" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AE101" s="39" cm="1">
+      <c r="AE101" s="52" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>200729700000</v>
+        <v>207127200000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11003,12 +10931,12 @@
       <c r="W102" s="10">
         <v>-1237000000</v>
       </c>
-      <c r="AD102" s="33" t="s">
+      <c r="AD102" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="AE102" s="34">
+      <c r="AE102" s="49">
         <f>AE101/AE103</f>
-        <v>0.99045709715158659</v>
+        <v>0.99074912035327456</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11081,12 +11009,12 @@
       <c r="W103" s="1">
         <v>6695000000</v>
       </c>
-      <c r="AD103" s="35" t="s">
+      <c r="AD103" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="AE103" s="40">
+      <c r="AE103" s="53">
         <f>AE99+AE101</f>
-        <v>202663700000</v>
+        <v>209061200000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11159,10 +11087,10 @@
       <c r="W104" s="11">
         <v>9223000000</v>
       </c>
-      <c r="AD104" s="76" t="s">
+      <c r="AD104" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="AE104" s="77"/>
+      <c r="AE104" s="70"/>
     </row>
     <row r="105" spans="1:31" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11256,35 +11184,35 @@
         <f>((W22*(1-$AE$91))+W77+W88+W81)</f>
         <v>4054543689.3203883</v>
       </c>
-      <c r="X105" s="41">
+      <c r="X105" s="29">
         <f>W105*(1+$AE$106)</f>
         <v>4476644992.0291462</v>
       </c>
-      <c r="Y105" s="41">
+      <c r="Y105" s="29">
         <f t="shared" ref="Y105:AB105" si="21">X105*(1+$AE$106)</f>
         <v>4942689466.4979534</v>
       </c>
-      <c r="Z105" s="41">
+      <c r="Z105" s="29">
         <f t="shared" si="21"/>
         <v>5457251849.4829893</v>
       </c>
-      <c r="AA105" s="41">
+      <c r="AA105" s="29">
         <f t="shared" si="21"/>
         <v>6025383134.131362</v>
       </c>
-      <c r="AB105" s="41">
+      <c r="AB105" s="29">
         <f t="shared" si="21"/>
         <v>6652660151.0088215</v>
       </c>
-      <c r="AC105" s="42" t="s">
+      <c r="AC105" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="AD105" s="25" t="s">
+      <c r="AD105" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="AE105" s="26">
+      <c r="AE105" s="55">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.0578630859563951E-2</v>
+        <v>7.0939286856975911E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11376,34 +11304,34 @@
         <f t="shared" si="22"/>
         <v>0.22878120411160063</v>
       </c>
-      <c r="X106" s="59">
+      <c r="X106" s="33">
         <v>3824000000</v>
       </c>
-      <c r="Y106" s="59">
+      <c r="Y106" s="33">
         <v>4449000000</v>
       </c>
-      <c r="Z106" s="59">
+      <c r="Z106" s="33">
         <v>4970000000</v>
       </c>
-      <c r="AA106" s="59">
+      <c r="AA106" s="33">
         <v>4708000000</v>
       </c>
-      <c r="AB106" s="59">
+      <c r="AB106" s="33">
         <v>5062000000</v>
       </c>
-      <c r="AC106" s="42" t="s">
+      <c r="AC106" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="AD106" s="43" t="s">
+      <c r="AD106" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="AE106" s="44">
+      <c r="AE106" s="57">
         <f>(SUM(X4:AB4)/5)</f>
         <v>0.10410574778625929</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="58" t="s">
+      <c r="A107" s="32" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1">
@@ -11472,139 +11400,139 @@
       <c r="W107" s="1">
         <v>4184000000</v>
       </c>
-      <c r="X107" s="42"/>
-      <c r="Y107" s="42"/>
-      <c r="Z107" s="42"/>
-      <c r="AA107" s="42"/>
-      <c r="AB107" s="60">
+      <c r="X107" s="30"/>
+      <c r="Y107" s="30"/>
+      <c r="Z107" s="30"/>
+      <c r="AA107" s="30"/>
+      <c r="AB107" s="34">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>113837337852.18047</v>
-      </c>
-      <c r="AC107" s="45" t="s">
+        <v>112943633978.3345</v>
+      </c>
+      <c r="AC107" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="AD107" s="46" t="s">
+      <c r="AD107" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="AE107" s="47">
+      <c r="AE107" s="59">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X108" s="60">
+      <c r="X108" s="34">
         <f t="shared" ref="X108:AA108" si="23">X107+X106</f>
         <v>3824000000</v>
       </c>
-      <c r="Y108" s="60">
+      <c r="Y108" s="34">
         <f t="shared" si="23"/>
         <v>4449000000</v>
       </c>
-      <c r="Z108" s="60">
+      <c r="Z108" s="34">
         <f t="shared" si="23"/>
         <v>4970000000</v>
       </c>
-      <c r="AA108" s="60">
+      <c r="AA108" s="34">
         <f t="shared" si="23"/>
         <v>4708000000</v>
       </c>
-      <c r="AB108" s="60">
+      <c r="AB108" s="34">
         <f>AB107+AB106</f>
-        <v>118899337852.18047</v>
-      </c>
-      <c r="AC108" s="45" t="s">
+        <v>118005633978.3345</v>
+      </c>
+      <c r="AC108" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="AD108" s="48" t="s">
+      <c r="AD108" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="AE108" s="49">
+      <c r="AE108" s="57">
         <f>AE105</f>
-        <v>7.0578630859563951E-2</v>
+        <v>7.0939286856975911E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="72" t="s">
+      <c r="X109" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="Y109" s="73"/>
+      <c r="Y109" s="67"/>
     </row>
     <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X110" s="50" t="s">
+      <c r="X110" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="Y110" s="39">
+      <c r="Y110" s="52">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>99632745537.773209</v>
+        <v>98843340265.737686</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X111" s="50" t="s">
+      <c r="X111" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="Y111" s="39">
+      <c r="Y111" s="52">
         <f>W40</f>
         <v>9225000000</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X112" s="50" t="s">
+      <c r="X112" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="Y112" s="39">
+      <c r="Y112" s="52">
         <f>AE99</f>
         <v>1934000000</v>
       </c>
     </row>
     <row r="113" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X113" s="50" t="s">
+      <c r="X113" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="Y113" s="39">
+      <c r="Y113" s="52">
         <f>Y110+Y111-Y112</f>
-        <v>106923745537.77321</v>
+        <v>106134340265.73769</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X114" s="50" t="s">
+      <c r="X114" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="Y114" s="51">
+      <c r="Y114" s="61">
         <f>W34*(1+(AC16*5))</f>
         <v>60608393.517080538</v>
       </c>
     </row>
     <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X115" s="52" t="s">
+      <c r="X115" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="Y115" s="53">
+      <c r="Y115" s="63">
         <f>Y113/Y114</f>
-        <v>1764.173892971444</v>
+        <v>1751.1492073424965</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X116" s="50" t="s">
+      <c r="X116" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="Y116" s="54" cm="1">
+      <c r="Y116" s="64" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>1914.6</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="55" t="s">
+      <c r="X117" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="Y117" s="56">
+      <c r="Y117" s="65">
         <f>Y115/Y116-1</f>
-        <v>-7.8567902971145909E-2</v>
+        <v>-0.12002552394849419</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="55" t="s">
+      <c r="X118" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="Y118" s="57" t="str">
+      <c r="Y118" s="66" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Consumer/Hermes International.xlsx
+++ b/Consumer/Hermes International.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840443C1-F734-6549-8ADC-1300FBB5B9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CF0187-00E1-B448-A04C-FA51E3AE16C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2251,7 +2251,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2265,10 +2264,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2282,14 +2283,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2299,6 +2300,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2426,9 +2428,9 @@
     <v>Powered by Refinitiv</v>
     <v>2036</v>
     <v>1037</v>
-    <v>0.73199999999999998</v>
-    <v>28</v>
-    <v>1.4271000000000001E-2</v>
+    <v>0.74750000000000005</v>
+    <v>22.2</v>
+    <v>1.2064999999999999E-2</v>
     <v>EUR</v>
     <v>Hermes International SCA is a France-based company specialized in the design, manufacturing, and marketing of luxury products. The Company reports its businesses into a number segments, including Leather Goods and Saddler, which includes bags, riding, diaries and small leather goods; Ready-to-wear and Accessories, which includes Hermes ready-to-wear for men and women, belts, costume jewellery, gloves, hats and shoes; Other Hermes, which encompasses jewellery and hermes home products, such as the art of living and hermes tableware; Other product segment, which includes the production activities carried out on behalf of non-group brands, as well as the John Lobb, Saint-Louis, Puiforcat and Shang Xia products; Silk and Textiles; Perfumes, and Watches. Apart from France, Hermes International SCA is present in other countries in Europe, Asia and the Americas, among others.</v>
     <v>19686</v>
@@ -2436,24 +2438,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>24 rue du Faubourg Saint Honore, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>1999.6</v>
+    <v>1876</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45107.666666666664</v>
+    <v>45114.666666666664</v>
     <v>0</v>
-    <v>1948.4</v>
-    <v>207127200000</v>
+    <v>1835</v>
+    <v>196591400000</v>
     <v>Hermes International SCA</v>
     <v>Hermes International SCA</v>
-    <v>1960</v>
-    <v>60.930900000000001</v>
-    <v>1962</v>
-    <v>1990</v>
+    <v>1844.8</v>
+    <v>57.142099999999999</v>
+    <v>1840</v>
+    <v>1862.2</v>
     <v>105569400</v>
     <v>RMS</v>
     <v>Hermes International SCA (XPAR:RMS)</v>
-    <v>85316</v>
-    <v>64850</v>
+    <v>63940</v>
+    <v>54410</v>
     <v>1957</v>
   </rv>
   <rv s="2">
@@ -3021,10 +3023,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB15" sqref="AB15"/>
+      <selection pane="bottomRight" activeCell="Z99" sqref="Z99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4427,15 +4429,15 @@
       </c>
       <c r="AD16" s="26">
         <f>AE101/W3</f>
-        <v>17.852715049129461</v>
+        <v>16.944612997759005</v>
       </c>
       <c r="AE16" s="26">
         <f>AE101/W28</f>
-        <v>61.516839916839913</v>
+        <v>58.387704187704188</v>
       </c>
       <c r="AF16" s="27">
         <f>AE101/W107</f>
-        <v>49.50458891013384</v>
+        <v>46.986472275334606</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4683,15 +4685,15 @@
       </c>
       <c r="AD19" s="42">
         <f>AE101/X3</f>
-        <v>15.120981165133596</v>
+        <v>14.351832384289677</v>
       </c>
       <c r="AE19" s="42">
         <f>AE101/X28</f>
-        <v>52.081267273804059</v>
+        <v>49.432084473363822</v>
       </c>
       <c r="AF19" s="43">
         <f>AE101/X106</f>
-        <v>54.165062761506277</v>
+        <v>51.409884937238495</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4973,11 +4975,11 @@
       </c>
       <c r="AE22" s="44">
         <f>(-1*W98)/AE101</f>
-        <v>4.1134143656651563E-3</v>
+        <v>4.3338620102405297E-3</v>
       </c>
       <c r="AF22" s="45">
         <f>W107/AE101</f>
-        <v>2.0200147542186637E-2</v>
+        <v>2.1282721421181192E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10316,7 +10318,7 @@
       </c>
       <c r="AE94" s="50">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10394,7 +10396,7 @@
       </c>
       <c r="AE95" s="51" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>0.73199999999999998</v>
+        <v>0.74750000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10549,7 +10551,7 @@
       </c>
       <c r="AE97" s="49">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>7.1816720000000001E-2</v>
+        <v>7.2993525000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10780,7 +10782,7 @@
       </c>
       <c r="AE100" s="49">
         <f>AE99/AE103</f>
-        <v>9.2508796467254562E-3</v>
+        <v>9.7418264866863391E-3</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10858,7 +10860,7 @@
       </c>
       <c r="AE101" s="52" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>207127200000</v>
+        <v>196591400000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10936,7 +10938,7 @@
       </c>
       <c r="AE102" s="49">
         <f>AE101/AE103</f>
-        <v>0.99074912035327456</v>
+        <v>0.99025817351331369</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11014,7 +11016,7 @@
       </c>
       <c r="AE103" s="53">
         <f>AE99+AE101</f>
-        <v>209061200000</v>
+        <v>198525400000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11212,7 +11214,7 @@
       </c>
       <c r="AE105" s="55">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.0939286856975911E-2</v>
+        <v>7.2058061997933839E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11406,7 +11408,7 @@
       <c r="AA107" s="30"/>
       <c r="AB107" s="34">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>112943633978.3345</v>
+        <v>110258471762.5603</v>
       </c>
       <c r="AC107" s="31" t="s">
         <v>145</v>
@@ -11437,7 +11439,7 @@
       </c>
       <c r="AB108" s="34">
         <f>AB107+AB106</f>
-        <v>118005633978.3345</v>
+        <v>115320471762.5603</v>
       </c>
       <c r="AC108" s="31" t="s">
         <v>142</v>
@@ -11447,7 +11449,7 @@
       </c>
       <c r="AE108" s="57">
         <f>AE105</f>
-        <v>7.0939286856975911E-2</v>
+        <v>7.2058061997933839E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11462,7 +11464,7 @@
       </c>
       <c r="Y110" s="52">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>98843340265.737686</v>
+        <v>96471591782.145355</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11489,7 +11491,7 @@
       </c>
       <c r="Y113" s="52">
         <f>Y110+Y111-Y112</f>
-        <v>106134340265.73769</v>
+        <v>103762591782.14536</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11507,7 +11509,7 @@
       </c>
       <c r="Y115" s="63">
         <f>Y113/Y114</f>
-        <v>1751.1492073424965</v>
+        <v>1712.0168636857729</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11516,7 +11518,7 @@
       </c>
       <c r="Y116" s="64" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>1990</v>
+        <v>1862.2</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11525,7 +11527,7 @@
       </c>
       <c r="Y117" s="65">
         <f>Y115/Y116-1</f>
-        <v>-0.12002552394849419</v>
+        <v>-8.0648231293216188E-2</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Hermes International.xlsx
+++ b/Consumer/Hermes International.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CF0187-00E1-B448-A04C-FA51E3AE16C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCB6B66-02E7-AD44-B9B3-E420D4257AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -920,12 +920,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1063,7 +1057,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>RMS.PA</a:t>
+              <a:t>Hermes</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1102,9 +1096,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.962376237623762E-2"/>
-          <c:y val="0.1161933750620595"/>
+          <c:y val="0.15147809193008935"/>
           <c:w val="0.85757095709570952"/>
-          <c:h val="0.72809599153670912"/>
+          <c:h val="0.65111135358274586"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1623,8 +1617,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35004329409318891"/>
-          <c:y val="0.91868354994223245"/>
+          <c:x val="0.35796408617239678"/>
+          <c:y val="0.89943741529278698"/>
           <c:w val="0.30255367584002496"/>
           <c:h val="4.8317039332959041E-2"/>
         </c:manualLayout>
@@ -2208,13 +2202,13 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2249,8 +2243,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2259,21 +2252,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2283,24 +2277,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2427,10 +2409,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>2036</v>
-    <v>1037</v>
+    <v>1039</v>
     <v>0.74750000000000005</v>
-    <v>22.2</v>
-    <v>1.2064999999999999E-2</v>
+    <v>29.6</v>
+    <v>1.5772999999999999E-2</v>
     <v>EUR</v>
     <v>Hermes International SCA is a France-based company specialized in the design, manufacturing, and marketing of luxury products. The Company reports its businesses into a number segments, including Leather Goods and Saddler, which includes bags, riding, diaries and small leather goods; Ready-to-wear and Accessories, which includes Hermes ready-to-wear for men and women, belts, costume jewellery, gloves, hats and shoes; Other Hermes, which encompasses jewellery and hermes home products, such as the art of living and hermes tableware; Other product segment, which includes the production activities carried out on behalf of non-group brands, as well as the John Lobb, Saint-Louis, Puiforcat and Shang Xia products; Silk and Textiles; Perfumes, and Watches. Apart from France, Hermes International SCA is present in other countries in Europe, Asia and the Americas, among others.</v>
     <v>19686</v>
@@ -2438,24 +2420,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>24 rue du Faubourg Saint Honore, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>1876</v>
+    <v>1908.8</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45114.666666666664</v>
+    <v>45118.360358796293</v>
     <v>0</v>
-    <v>1835</v>
+    <v>1896.4</v>
     <v>196591400000</v>
     <v>Hermes International SCA</v>
     <v>Hermes International SCA</v>
-    <v>1844.8</v>
-    <v>57.142099999999999</v>
-    <v>1840</v>
-    <v>1862.2</v>
+    <v>1899</v>
+    <v>58.278799999999997</v>
+    <v>1876.6</v>
+    <v>1906.2</v>
     <v>105569400</v>
     <v>RMS</v>
     <v>Hermes International SCA (XPAR:RMS)</v>
-    <v>63940</v>
-    <v>54410</v>
+    <v>5811</v>
+    <v>55250</v>
     <v>1957</v>
   </rv>
   <rv s="2">
@@ -3023,10 +3005,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z99" sqref="Z99"/>
+      <selection pane="bottomRight" activeCell="Z131" sqref="Z131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3279,19 +3261,19 @@
         <v>11602000000</v>
       </c>
       <c r="X3" s="24">
-        <v>13698000000</v>
+        <v>13584000000</v>
       </c>
       <c r="Y3" s="24">
-        <v>15146000000</v>
+        <v>15229000000</v>
       </c>
       <c r="Z3" s="24">
-        <v>16451000000</v>
+        <v>16629000000</v>
       </c>
       <c r="AA3" s="24">
-        <v>17158000000</v>
+        <v>17839000000</v>
       </c>
       <c r="AB3" s="24">
-        <v>18960000000</v>
+        <v>19308000000</v>
       </c>
       <c r="AC3" s="18" t="s">
         <v>107</v>
@@ -3397,23 +3379,23 @@
       </c>
       <c r="X4" s="16">
         <f t="shared" si="0"/>
-        <v>0.18065850715393905</v>
+        <v>0.17083261506636793</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10570886260767987</v>
+        <v>0.12109835100117783</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>8.6161362736035807E-2</v>
+        <v>9.1929870641539235E-2</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>4.2976110874718865E-2</v>
+        <v>7.2764447651692876E-2</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10502389555892289</v>
+        <v>8.2347665227871625E-2</v>
       </c>
       <c r="AC4" s="17">
         <f>(W4+V4+U4)/3</f>
@@ -4427,15 +4409,15 @@
         <f>(W35+V35+U35+T35+S35)/5</f>
         <v>-4.8227323990037534E-2</v>
       </c>
-      <c r="AD16" s="26">
+      <c r="AD16" s="40">
         <f>AE101/W3</f>
         <v>16.944612997759005</v>
       </c>
-      <c r="AE16" s="26">
+      <c r="AE16" s="40">
         <f>AE101/W28</f>
         <v>58.387704187704188</v>
       </c>
-      <c r="AF16" s="27">
+      <c r="AF16" s="41">
         <f>AE101/W107</f>
         <v>46.986472275334606</v>
       </c>
@@ -4664,36 +4646,36 @@
       <c r="W19" s="10">
         <v>5304000000</v>
       </c>
-      <c r="X19" s="37">
-        <v>6258000000</v>
-      </c>
-      <c r="Y19" s="37">
-        <v>7097000002</v>
-      </c>
-      <c r="Z19" s="37">
-        <v>7856000003</v>
-      </c>
-      <c r="AA19" s="37">
+      <c r="X19" s="35">
+        <v>6266000000</v>
+      </c>
+      <c r="Y19" s="35">
+        <v>7063000000</v>
+      </c>
+      <c r="Z19" s="35">
+        <v>7853000000</v>
+      </c>
+      <c r="AA19" s="35">
         <v>7706000004</v>
       </c>
-      <c r="AB19" s="37">
+      <c r="AB19" s="35">
         <v>8341000005</v>
       </c>
-      <c r="AC19" s="28">
+      <c r="AC19" s="26">
         <f>W40-W56-W61</f>
         <v>7291000000</v>
       </c>
-      <c r="AD19" s="42">
+      <c r="AD19" s="40">
         <f>AE101/X3</f>
-        <v>14.351832384289677</v>
-      </c>
-      <c r="AE19" s="42">
+        <v>14.472276207302709</v>
+      </c>
+      <c r="AE19" s="40">
         <f>AE101/X28</f>
-        <v>49.432084473363822</v>
-      </c>
-      <c r="AF19" s="43">
+        <v>51.585253214379428</v>
+      </c>
+      <c r="AF19" s="41">
         <f>AE101/X106</f>
-        <v>51.409884937238495</v>
+        <v>51.24906152241919</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4787,19 +4769,19 @@
       </c>
       <c r="X20" s="16">
         <f t="shared" ref="X20" si="4">(X19/W19)-1</f>
-        <v>0.17986425339366519</v>
+        <v>0.18137254901960786</v>
       </c>
       <c r="Y20" s="16">
         <f t="shared" ref="Y20" si="5">(Y19/X19)-1</f>
-        <v>0.13406839277724503</v>
+        <v>0.12719438238110437</v>
       </c>
       <c r="Z20" s="16">
         <f t="shared" ref="Z20" si="6">(Z19/Y19)-1</f>
-        <v>0.10694659726449296</v>
+        <v>0.11185048846099388</v>
       </c>
       <c r="AA20" s="16">
         <f t="shared" ref="AA20" si="7">(AA19/Z19)-1</f>
-        <v>-1.9093686219796235E-2</v>
+        <v>-1.8718960397300366E-2</v>
       </c>
       <c r="AB20" s="16">
         <f t="shared" ref="AB20" si="8">(AB19/AA19)-1</f>
@@ -4873,28 +4855,28 @@
       <c r="V21" s="2">
         <v>0.45150000000000001</v>
       </c>
-      <c r="W21" s="36">
+      <c r="W21" s="34">
         <v>0.4572</v>
       </c>
-      <c r="X21" s="38">
+      <c r="X21" s="36">
         <f>X19/X3</f>
-        <v>0.45685501533070522</v>
-      </c>
-      <c r="Y21" s="38">
+        <v>0.46127797408716137</v>
+      </c>
+      <c r="Y21" s="36">
         <f t="shared" ref="Y21:AB21" si="9">Y19/Y3</f>
-        <v>0.46857256054403801</v>
-      </c>
-      <c r="Z21" s="38">
+        <v>0.46378619738656512</v>
+      </c>
+      <c r="Z21" s="36">
         <f t="shared" si="9"/>
-        <v>0.47753935949182419</v>
-      </c>
-      <c r="AA21" s="38">
+        <v>0.47224727885020146</v>
+      </c>
+      <c r="AA21" s="36">
         <f t="shared" si="9"/>
-        <v>0.44911994428255042</v>
-      </c>
-      <c r="AB21" s="38">
+        <v>0.43197488670889622</v>
+      </c>
+      <c r="AB21" s="36">
         <f t="shared" si="9"/>
-        <v>0.43992616060126583</v>
+        <v>0.43199709990677437</v>
       </c>
       <c r="AE21" s="18" t="s">
         <v>165</v>
@@ -4970,14 +4952,14 @@
       <c r="V22" s="10">
         <v>3530000000</v>
       </c>
-      <c r="W22" s="35">
+      <c r="W22" s="33">
         <v>4697000000</v>
       </c>
-      <c r="AE22" s="44">
+      <c r="AE22" s="42">
         <f>(-1*W98)/AE101</f>
         <v>4.3338620102405297E-3</v>
       </c>
-      <c r="AF22" s="45">
+      <c r="AF22" s="43">
         <f>W107/AE101</f>
         <v>2.1282721421181192E-2</v>
       </c>
@@ -5407,19 +5389,19 @@
       <c r="W28" s="11">
         <v>3367000000</v>
       </c>
-      <c r="X28" s="39">
-        <v>3977000001</v>
-      </c>
-      <c r="Y28" s="39">
-        <v>4372000002</v>
-      </c>
-      <c r="Z28" s="39">
-        <v>4811000003</v>
-      </c>
-      <c r="AA28" s="39">
-        <v>4746000004</v>
-      </c>
-      <c r="AB28" s="39">
+      <c r="X28" s="37">
+        <v>3811000000</v>
+      </c>
+      <c r="Y28" s="37">
+        <v>4438000000</v>
+      </c>
+      <c r="Z28" s="37">
+        <v>4803000000</v>
+      </c>
+      <c r="AA28" s="37">
+        <v>4746000000</v>
+      </c>
+      <c r="AB28" s="37">
         <v>5141000005</v>
       </c>
     </row>
@@ -5514,23 +5496,23 @@
       </c>
       <c r="X29" s="16">
         <f t="shared" ref="X29" si="11">(X28/W28)-1</f>
-        <v>0.18117018146718156</v>
+        <v>0.13186813186813184</v>
       </c>
       <c r="Y29" s="16">
         <f t="shared" ref="Y29" si="12">(Y28/X28)-1</f>
-        <v>9.9321096530218478E-2</v>
+        <v>0.16452374704801898</v>
       </c>
       <c r="Z29" s="16">
         <f t="shared" ref="Z29" si="13">(Z28/Y28)-1</f>
-        <v>0.10041171107026003</v>
+        <v>8.2244254168544417E-2</v>
       </c>
       <c r="AA29" s="16">
         <f t="shared" ref="AA29" si="14">(AA28/Z28)-1</f>
-        <v>-1.3510704418929098E-2</v>
+        <v>-1.1867582760774487E-2</v>
       </c>
       <c r="AB29" s="16">
         <f t="shared" ref="AB29" si="15">(AB28/AA28)-1</f>
-        <v>8.3227981598627876E-2</v>
+        <v>8.3227982511588694E-2</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5603,25 +5585,25 @@
       <c r="W30" s="2">
         <v>0.29020000000000001</v>
       </c>
-      <c r="X30" s="40">
+      <c r="X30" s="38">
         <f>X28/X3</f>
-        <v>0.29033435545335085</v>
-      </c>
-      <c r="Y30" s="40">
+        <v>0.28055064782096584</v>
+      </c>
+      <c r="Y30" s="38">
         <f t="shared" ref="Y30:AB30" si="16">Y28/Y3</f>
-        <v>0.28865707130595536</v>
-      </c>
-      <c r="Z30" s="40">
+        <v>0.29141768993367917</v>
+      </c>
+      <c r="Z30" s="38">
         <f t="shared" si="16"/>
-        <v>0.29244422849674789</v>
-      </c>
-      <c r="AA30" s="40">
+        <v>0.28883276204221542</v>
+      </c>
+      <c r="AA30" s="38">
         <f t="shared" si="16"/>
-        <v>0.27660566522904767</v>
-      </c>
-      <c r="AB30" s="40">
+        <v>0.2660463030438926</v>
+      </c>
+      <c r="AB30" s="38">
         <f t="shared" si="16"/>
-        <v>0.27114978929324896</v>
+        <v>0.26626268929977209</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5694,19 +5676,19 @@
       <c r="W31" s="12">
         <v>42.16</v>
       </c>
-      <c r="X31" s="41">
-        <v>38.04</v>
-      </c>
-      <c r="Y31" s="41">
-        <v>41.83</v>
-      </c>
-      <c r="Z31" s="41">
-        <v>46.02</v>
-      </c>
-      <c r="AA31" s="41">
+      <c r="X31" s="39">
+        <v>37.119999999999997</v>
+      </c>
+      <c r="Y31" s="39">
+        <v>42.45</v>
+      </c>
+      <c r="Z31" s="39">
+        <v>45.94</v>
+      </c>
+      <c r="AA31" s="39">
         <v>45.4</v>
       </c>
-      <c r="AB31" s="41">
+      <c r="AB31" s="39">
         <v>49.18</v>
       </c>
     </row>
@@ -9442,10 +9424,10 @@
       <c r="W83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD83" s="68" t="s">
+      <c r="AD83" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="AE83" s="69"/>
+      <c r="AE83" s="67"/>
     </row>
     <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9517,10 +9499,10 @@
       <c r="W84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD84" s="70" t="s">
+      <c r="AD84" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="AE84" s="70"/>
+      <c r="AE84" s="68"/>
     </row>
     <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9592,10 +9574,10 @@
       <c r="W85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD85" s="46" t="s">
+      <c r="AD85" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="AE85" s="47">
+      <c r="AE85" s="45">
         <f>W17</f>
         <v>-62000000</v>
       </c>
@@ -9670,10 +9652,10 @@
       <c r="W86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD86" s="46" t="s">
+      <c r="AD86" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="AE86" s="47">
+      <c r="AE86" s="45">
         <f>W56</f>
         <v>270000000</v>
       </c>
@@ -9748,10 +9730,10 @@
       <c r="W87" s="10">
         <v>4184000000</v>
       </c>
-      <c r="AD87" s="46" t="s">
+      <c r="AD87" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AE87" s="47">
+      <c r="AE87" s="45">
         <f>W61</f>
         <v>1664000000</v>
       </c>
@@ -9826,10 +9808,10 @@
       <c r="W88" s="1">
         <v>0</v>
       </c>
-      <c r="AD88" s="48" t="s">
+      <c r="AD88" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="AE88" s="49">
+      <c r="AE88" s="47">
         <f>AE85/(AE86+AE87)</f>
         <v>-3.2057911065149949E-2</v>
       </c>
@@ -9926,10 +9908,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AD89" s="46" t="s">
+      <c r="AD89" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="AE89" s="47">
+      <c r="AE89" s="45">
         <f>W27</f>
         <v>1305000000</v>
       </c>
@@ -10004,10 +9986,10 @@
       <c r="W90" s="1">
         <v>-1000000</v>
       </c>
-      <c r="AD90" s="46" t="s">
+      <c r="AD90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AE90" s="47">
+      <c r="AE90" s="45">
         <f>W25</f>
         <v>4635000000</v>
       </c>
@@ -10082,10 +10064,10 @@
       <c r="W91" s="1">
         <v>-683000000</v>
       </c>
-      <c r="AD91" s="48" t="s">
+      <c r="AD91" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="AE91" s="49">
+      <c r="AE91" s="47">
         <f>AE89/AE90</f>
         <v>0.28155339805825241</v>
       </c>
@@ -10160,10 +10142,10 @@
       <c r="W92" s="1">
         <v>5000000</v>
       </c>
-      <c r="AD92" s="48" t="s">
+      <c r="AD92" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="AE92" s="49">
+      <c r="AE92" s="47">
         <f>AE88*(1-AE91)</f>
         <v>-2.303189727010773E-2</v>
       </c>
@@ -10238,10 +10220,10 @@
       <c r="W93" s="1">
         <v>32000000</v>
       </c>
-      <c r="AD93" s="70" t="s">
+      <c r="AD93" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="AE93" s="70"/>
+      <c r="AE93" s="68"/>
     </row>
     <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10313,12 +10295,12 @@
       <c r="W94" s="10">
         <v>-579000000</v>
       </c>
-      <c r="AD94" s="46" t="s">
+      <c r="AD94" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="AE94" s="50">
+      <c r="AE94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10391,10 +10373,10 @@
       <c r="W95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD95" s="46" t="s">
+      <c r="AD95" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="AE95" s="51" cm="1">
+      <c r="AE95" s="49" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
         <v>0.74750000000000005</v>
       </c>
@@ -10469,10 +10451,10 @@
       <c r="W96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD96" s="46" t="s">
+      <c r="AD96" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="AE96" s="50">
+      <c r="AE96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10546,12 +10528,12 @@
       <c r="W97" s="1">
         <v>-123000000</v>
       </c>
-      <c r="AD97" s="48" t="s">
+      <c r="AD97" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="AE97" s="49">
+      <c r="AE97" s="47">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>7.2993525000000004E-2</v>
+        <v>7.3011199999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10624,10 +10606,10 @@
       <c r="W98" s="1">
         <v>-852000000</v>
       </c>
-      <c r="AD98" s="70" t="s">
+      <c r="AD98" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="AE98" s="70"/>
+      <c r="AE98" s="68"/>
     </row>
     <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10699,10 +10681,10 @@
       <c r="W99" s="1">
         <v>-1000000</v>
       </c>
-      <c r="AD99" s="46" t="s">
+      <c r="AD99" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="AE99" s="47">
+      <c r="AE99" s="45">
         <f>AE86+AE87</f>
         <v>1934000000</v>
       </c>
@@ -10777,10 +10759,10 @@
       <c r="W100" s="10">
         <v>-1237000000</v>
       </c>
-      <c r="AD100" s="48" t="s">
+      <c r="AD100" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="AE100" s="49">
+      <c r="AE100" s="47">
         <f>AE99/AE103</f>
         <v>9.7418264866863391E-3</v>
       </c>
@@ -10855,10 +10837,10 @@
       <c r="W101" s="1">
         <v>159000000</v>
       </c>
-      <c r="AD101" s="46" t="s">
+      <c r="AD101" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="AE101" s="52" cm="1">
+      <c r="AE101" s="50" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
         <v>196591400000</v>
       </c>
@@ -10933,10 +10915,10 @@
       <c r="W102" s="10">
         <v>-1237000000</v>
       </c>
-      <c r="AD102" s="48" t="s">
+      <c r="AD102" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="AE102" s="49">
+      <c r="AE102" s="47">
         <f>AE101/AE103</f>
         <v>0.99025817351331369</v>
       </c>
@@ -11011,10 +10993,10 @@
       <c r="W103" s="1">
         <v>6695000000</v>
       </c>
-      <c r="AD103" s="48" t="s">
+      <c r="AD103" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="AE103" s="53">
+      <c r="AE103" s="51">
         <f>AE99+AE101</f>
         <v>198525400000</v>
       </c>
@@ -11089,10 +11071,10 @@
       <c r="W104" s="11">
         <v>9223000000</v>
       </c>
-      <c r="AD104" s="70" t="s">
+      <c r="AD104" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="AE104" s="70"/>
+      <c r="AE104" s="68"/>
     </row>
     <row r="105" spans="1:31" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11186,35 +11168,35 @@
         <f>((W22*(1-$AE$91))+W77+W88+W81)</f>
         <v>4054543689.3203883</v>
       </c>
-      <c r="X105" s="29">
+      <c r="X105" s="27">
         <f>W105*(1+$AE$106)</f>
-        <v>4476644992.0291462</v>
-      </c>
-      <c r="Y105" s="29">
+        <v>4491601563.6141996</v>
+      </c>
+      <c r="Y105" s="27">
         <f t="shared" ref="Y105:AB105" si="21">X105*(1+$AE$106)</f>
-        <v>4942689466.4979534</v>
-      </c>
-      <c r="Z105" s="29">
+        <v>4975771912.2378273</v>
+      </c>
+      <c r="Z105" s="27">
         <f t="shared" si="21"/>
-        <v>5457251849.4829893</v>
-      </c>
-      <c r="AA105" s="29">
+        <v>5512133205.0416632</v>
+      </c>
+      <c r="AA105" s="27">
         <f t="shared" si="21"/>
-        <v>6025383134.131362</v>
-      </c>
-      <c r="AB105" s="29">
+        <v>6106311343.4510317</v>
+      </c>
+      <c r="AB105" s="27">
         <f t="shared" si="21"/>
-        <v>6652660151.0088215</v>
-      </c>
-      <c r="AC105" s="30" t="s">
+        <v>6764538670.6283178</v>
+      </c>
+      <c r="AC105" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="AD105" s="54" t="s">
+      <c r="AD105" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="AE105" s="55">
+      <c r="AE105" s="53">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.2058061997933839E-2</v>
+        <v>7.2075564811150669E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11306,34 +11288,34 @@
         <f t="shared" si="22"/>
         <v>0.22878120411160063</v>
       </c>
-      <c r="X106" s="33">
-        <v>3824000000</v>
-      </c>
-      <c r="Y106" s="33">
-        <v>4449000000</v>
-      </c>
-      <c r="Z106" s="33">
-        <v>4970000000</v>
-      </c>
-      <c r="AA106" s="33">
-        <v>4708000000</v>
-      </c>
-      <c r="AB106" s="33">
-        <v>5062000000</v>
-      </c>
-      <c r="AC106" s="30" t="s">
+      <c r="X106" s="31">
+        <v>3836000000</v>
+      </c>
+      <c r="Y106" s="31">
+        <v>4387000000</v>
+      </c>
+      <c r="Z106" s="31">
+        <v>4965000000</v>
+      </c>
+      <c r="AA106" s="31">
+        <v>4663000000</v>
+      </c>
+      <c r="AB106" s="31">
+        <v>5007000000</v>
+      </c>
+      <c r="AC106" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="AD106" s="56" t="s">
+      <c r="AD106" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="AE106" s="57">
+      <c r="AE106" s="55">
         <f>(SUM(X4:AB4)/5)</f>
-        <v>0.10410574778625929</v>
+        <v>0.1077945899177299</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="32" t="s">
+      <c r="A107" s="30" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1">
@@ -11402,139 +11384,139 @@
       <c r="W107" s="1">
         <v>4184000000</v>
       </c>
-      <c r="X107" s="30"/>
-      <c r="Y107" s="30"/>
-      <c r="Z107" s="30"/>
-      <c r="AA107" s="30"/>
-      <c r="AB107" s="34">
+      <c r="X107" s="28"/>
+      <c r="Y107" s="28"/>
+      <c r="Z107" s="28"/>
+      <c r="AA107" s="28"/>
+      <c r="AB107" s="32">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>110258471762.5603</v>
-      </c>
-      <c r="AC107" s="31" t="s">
+        <v>109019934664.37082</v>
+      </c>
+      <c r="AC107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="AD107" s="58" t="s">
+      <c r="AD107" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="AE107" s="59">
+      <c r="AE107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X108" s="34">
+      <c r="X108" s="32">
         <f t="shared" ref="X108:AA108" si="23">X107+X106</f>
-        <v>3824000000</v>
-      </c>
-      <c r="Y108" s="34">
+        <v>3836000000</v>
+      </c>
+      <c r="Y108" s="32">
         <f t="shared" si="23"/>
-        <v>4449000000</v>
-      </c>
-      <c r="Z108" s="34">
+        <v>4387000000</v>
+      </c>
+      <c r="Z108" s="32">
         <f t="shared" si="23"/>
-        <v>4970000000</v>
-      </c>
-      <c r="AA108" s="34">
+        <v>4965000000</v>
+      </c>
+      <c r="AA108" s="32">
         <f t="shared" si="23"/>
-        <v>4708000000</v>
-      </c>
-      <c r="AB108" s="34">
+        <v>4663000000</v>
+      </c>
+      <c r="AB108" s="32">
         <f>AB107+AB106</f>
-        <v>115320471762.5603</v>
-      </c>
-      <c r="AC108" s="31" t="s">
+        <v>114026934664.37082</v>
+      </c>
+      <c r="AC108" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="AD108" s="60" t="s">
+      <c r="AD108" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="AE108" s="57">
+      <c r="AE108" s="55">
         <f>AE105</f>
-        <v>7.2058061997933839E-2</v>
+        <v>7.2075564811150669E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="67" t="s">
+      <c r="X109" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="Y109" s="67"/>
+      <c r="Y109" s="65"/>
     </row>
     <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X110" s="61" t="s">
+      <c r="X110" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="Y110" s="52">
+      <c r="Y110" s="50">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>96471591782.145355</v>
+        <v>95470075062.107086</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X111" s="61" t="s">
+      <c r="X111" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="Y111" s="52">
+      <c r="Y111" s="50">
         <f>W40</f>
         <v>9225000000</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X112" s="61" t="s">
+      <c r="X112" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="Y112" s="52">
+      <c r="Y112" s="50">
         <f>AE99</f>
         <v>1934000000</v>
       </c>
     </row>
     <row r="113" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X113" s="61" t="s">
+      <c r="X113" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="Y113" s="52">
+      <c r="Y113" s="50">
         <f>Y110+Y111-Y112</f>
-        <v>103762591782.14536</v>
+        <v>102761075062.10709</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X114" s="61" t="s">
+      <c r="X114" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="Y114" s="61">
+      <c r="Y114" s="59">
         <f>W34*(1+(AC16*5))</f>
         <v>60608393.517080538</v>
       </c>
     </row>
     <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X115" s="62" t="s">
+      <c r="X115" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="Y115" s="63">
+      <c r="Y115" s="61">
         <f>Y113/Y114</f>
-        <v>1712.0168636857729</v>
+        <v>1695.4924738790044</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X116" s="61" t="s">
+      <c r="X116" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="Y116" s="64" cm="1">
+      <c r="Y116" s="62" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>1862.2</v>
+        <v>1906.2</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="62" t="s">
+      <c r="X117" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="Y117" s="65">
+      <c r="Y117" s="63">
         <f>Y115/Y116-1</f>
-        <v>-8.0648231293216188E-2</v>
+        <v>-0.11053799502727713</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="62" t="s">
+      <c r="X118" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="Y118" s="66" t="str">
+      <c r="Y118" s="64" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -11598,6 +11580,9 @@
     <hyperlink ref="AC106" r:id="rId47" xr:uid="{F2A414B3-380E-3F4D-8F11-0F084479A878}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError xmlns:x16r3="http://schemas.microsoft.com/office/spreadsheetml/2018/08/main" sqref="Y116" x16r3:misleadingFormat="1"/>
+  </ignoredErrors>
   <drawing r:id="rId48"/>
 </worksheet>
 </file>
--- a/Consumer/Hermes International.xlsx
+++ b/Consumer/Hermes International.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCB6B66-02E7-AD44-B9B3-E420D4257AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D514CE4C-5601-894B-83F3-68BA52FF28CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2253,6 +2253,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2264,7 +2265,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2283,6 +2284,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2409,10 +2411,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>2036</v>
-    <v>1039</v>
-    <v>0.74750000000000005</v>
-    <v>29.6</v>
-    <v>1.5772999999999999E-2</v>
+    <v>1160.5</v>
+    <v>0.73450000000000004</v>
+    <v>-0.4</v>
+    <v>-2.1080000000000003E-4</v>
     <v>EUR</v>
     <v>Hermes International SCA is a France-based company specialized in the design, manufacturing, and marketing of luxury products. The Company reports its businesses into a number segments, including Leather Goods and Saddler, which includes bags, riding, diaries and small leather goods; Ready-to-wear and Accessories, which includes Hermes ready-to-wear for men and women, belts, costume jewellery, gloves, hats and shoes; Other Hermes, which encompasses jewellery and hermes home products, such as the art of living and hermes tableware; Other product segment, which includes the production activities carried out on behalf of non-group brands, as well as the John Lobb, Saint-Louis, Puiforcat and Shang Xia products; Silk and Textiles; Perfumes, and Watches. Apart from France, Hermes International SCA is present in other countries in Europe, Asia and the Americas, among others.</v>
     <v>19686</v>
@@ -2420,24 +2422,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>24 rue du Faubourg Saint Honore, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>1908.8</v>
+    <v>1920</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45118.360358796293</v>
+    <v>45132.666666666664</v>
     <v>0</v>
-    <v>1896.4</v>
-    <v>196591400000</v>
+    <v>1891.4</v>
+    <v>202165400000</v>
     <v>Hermes International SCA</v>
     <v>Hermes International SCA</v>
-    <v>1899</v>
-    <v>58.278799999999997</v>
-    <v>1876.6</v>
-    <v>1906.2</v>
+    <v>1911.8</v>
+    <v>58.924700000000001</v>
+    <v>1897.4</v>
+    <v>1897</v>
     <v>105569400</v>
     <v>RMS</v>
     <v>Hermes International SCA (XPAR:RMS)</v>
-    <v>5811</v>
-    <v>55250</v>
+    <v>36849</v>
+    <v>50170</v>
     <v>1957</v>
   </rv>
   <rv s="2">
@@ -3008,7 +3010,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="U99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z131" sqref="Z131"/>
+      <selection pane="bottomRight" activeCell="V124" sqref="V124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4411,15 +4413,15 @@
       </c>
       <c r="AD16" s="40">
         <f>AE101/W3</f>
-        <v>16.944612997759005</v>
+        <v>17.425047405619722</v>
       </c>
       <c r="AE16" s="40">
         <f>AE101/W28</f>
-        <v>58.387704187704188</v>
+        <v>60.04318384318384</v>
       </c>
       <c r="AF16" s="41">
         <f>AE101/W107</f>
-        <v>46.986472275334606</v>
+        <v>48.318690248565964</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4667,15 +4669,15 @@
       </c>
       <c r="AD19" s="40">
         <f>AE101/X3</f>
-        <v>14.472276207302709</v>
+        <v>14.882611896348646</v>
       </c>
       <c r="AE19" s="40">
         <f>AE101/X28</f>
-        <v>51.585253214379428</v>
+        <v>53.0478614536867</v>
       </c>
       <c r="AF19" s="41">
         <f>AE101/X106</f>
-        <v>51.24906152241919</v>
+        <v>52.702137643378521</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4957,11 +4959,11 @@
       </c>
       <c r="AE22" s="42">
         <f>(-1*W98)/AE101</f>
-        <v>4.3338620102405297E-3</v>
+        <v>4.214371005127485E-3</v>
       </c>
       <c r="AF22" s="43">
         <f>W107/AE101</f>
-        <v>2.1282721421181192E-2</v>
+        <v>2.0695925217668304E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10300,7 +10302,7 @@
       </c>
       <c r="AE94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10378,7 +10380,7 @@
       </c>
       <c r="AE95" s="49" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>0.74750000000000005</v>
+        <v>0.73450000000000004</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10533,7 +10535,7 @@
       </c>
       <c r="AE97" s="47">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>7.3011199999999998E-2</v>
+        <v>7.2084360000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10764,7 +10766,7 @@
       </c>
       <c r="AE100" s="47">
         <f>AE99/AE103</f>
-        <v>9.7418264866863391E-3</v>
+        <v>9.4757750390251031E-3</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10842,7 +10844,7 @@
       </c>
       <c r="AE101" s="50" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>196591400000</v>
+        <v>202165400000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10920,7 +10922,7 @@
       </c>
       <c r="AE102" s="47">
         <f>AE101/AE103</f>
-        <v>0.99025817351331369</v>
+        <v>0.99052422496097492</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10998,7 +11000,7 @@
       </c>
       <c r="AE103" s="51">
         <f>AE99+AE101</f>
-        <v>198525400000</v>
+        <v>204099400000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11196,7 +11198,7 @@
       </c>
       <c r="AE105" s="53">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.2075564811150669E-2</v>
+        <v>7.1183059743554447E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11390,7 +11392,7 @@
       <c r="AA107" s="28"/>
       <c r="AB107" s="32">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>109019934664.37082</v>
+        <v>111126786066.10239</v>
       </c>
       <c r="AC107" s="29" t="s">
         <v>145</v>
@@ -11421,7 +11423,7 @@
       </c>
       <c r="AB108" s="32">
         <f>AB107+AB106</f>
-        <v>114026934664.37082</v>
+        <v>116133786066.10239</v>
       </c>
       <c r="AC108" s="29" t="s">
         <v>142</v>
@@ -11431,7 +11433,7 @@
       </c>
       <c r="AE108" s="55">
         <f>AE105</f>
-        <v>7.2075564811150669E-2</v>
+        <v>7.1183059743554447E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11446,7 +11448,7 @@
       </c>
       <c r="Y110" s="50">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>95470075062.107086</v>
+        <v>97331143943.65976</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11473,7 +11475,7 @@
       </c>
       <c r="Y113" s="50">
         <f>Y110+Y111-Y112</f>
-        <v>102761075062.10709</v>
+        <v>104622143943.65976</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11491,7 +11493,7 @@
       </c>
       <c r="Y115" s="61">
         <f>Y113/Y114</f>
-        <v>1695.4924738790044</v>
+        <v>1726.1989284400906</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11500,7 +11502,7 @@
       </c>
       <c r="Y116" s="62" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>1906.2</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11509,7 +11511,7 @@
       </c>
       <c r="Y117" s="63">
         <f>Y115/Y116-1</f>
-        <v>-0.11053799502727713</v>
+        <v>-9.0037465239804604E-2</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Hermes International.xlsx
+++ b/Consumer/Hermes International.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D514CE4C-5601-894B-83F3-68BA52FF28CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F942A37-3C3C-154D-9CEE-2673543116B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -555,9 +555,6 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
@@ -573,14 +570,20 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
@@ -588,8 +591,9 @@
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -701,6 +705,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -875,7 +886,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -925,16 +936,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -957,55 +961,119 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1095,15 +1163,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.962376237623762E-2"/>
-          <c:y val="0.15147809193008935"/>
-          <c:w val="0.85757095709570952"/>
-          <c:h val="0.65111135358274586"/>
+          <c:x val="8.6840197693574955E-2"/>
+          <c:y val="0.15105901340331332"/>
+          <c:w val="0.85385172981878099"/>
+          <c:h val="0.59665737750061343"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1152,12 +1220,102 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AB$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$W$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AB$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1226900000</c:v>
                 </c:pt>
@@ -1223,13 +1381,28 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>11602000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13584000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15229000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16629000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17839000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19308000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A61F-B44D-91FD-A3CD73236796}"/>
+              <c16:uniqueId val="{00000000-8379-EA4D-A3E3-9D186AF1FD06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1238,11 +1411,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1280,84 +1453,189 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AB$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$W$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AB$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>365300000</c:v>
+                  <c:v>208200000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>380300000</c:v>
+                  <c:v>220400000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>391400000</c:v>
+                  <c:v>220700000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>409300000</c:v>
+                  <c:v>214700000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>436500000</c:v>
+                  <c:v>251800000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>463300000</c:v>
+                  <c:v>272800000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>502200000</c:v>
+                  <c:v>293800000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>529900000</c:v>
+                  <c:v>295300000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>538000000</c:v>
+                  <c:v>295400000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>749700000</c:v>
+                  <c:v>431700000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1004300000</c:v>
+                  <c:v>603400000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1207600000</c:v>
+                  <c:v>739900000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1324200000</c:v>
+                  <c:v>790300000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1428800000</c:v>
+                  <c:v>858800000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1687500000</c:v>
+                  <c:v>972600000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1859100000</c:v>
+                  <c:v>1100300000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2093500000</c:v>
+                  <c:v>1221500000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2297200000</c:v>
+                  <c:v>1404600000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2751300000</c:v>
+                  <c:v>1528200000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2544900000</c:v>
+                  <c:v>1385400000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4055000000</c:v>
+                  <c:v>2445000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5304000000</c:v>
+                  <c:v>3367000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3811000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4438000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4803000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4746000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5141000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A61F-B44D-91FD-A3CD73236796}"/>
+              <c16:uniqueId val="{00000001-8379-EA4D-A3E3-9D186AF1FD06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1408,12 +1686,102 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AB$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$W$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AB$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>91400000</c:v>
                 </c:pt>
@@ -1479,13 +1847,28 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4184000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3836000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4387000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4965000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4663000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5007000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A61F-B44D-91FD-A3CD73236796}"/>
+              <c16:uniqueId val="{00000002-8379-EA4D-A3E3-9D186AF1FD06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1497,13 +1880,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="354611663"/>
-        <c:axId val="354613391"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1587704512"/>
+        <c:axId val="1588561680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="354611663"/>
+        <c:axId val="1587704512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +1914,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1543,7 +1926,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354613391"/>
+        <c:crossAx val="1588561680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1551,7 +1934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="354613391"/>
+        <c:axId val="1588561680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1587,7 +1970,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1599,7 +1982,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354611663"/>
+        <c:crossAx val="1587704512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1617,10 +2000,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35796408617239678"/>
-          <c:y val="0.89943741529278698"/>
-          <c:w val="0.30255367584002496"/>
-          <c:h val="4.8317039332959041E-2"/>
+          <c:x val="0.34362671717106208"/>
+          <c:y val="0.89007399555938926"/>
+          <c:w val="0.31476309504064387"/>
+          <c:h val="6.1060467996326959E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1727,7 +2110,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1965,7 +2348,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2199,23 +2581,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1603374</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{060635CB-B6F4-DA8B-72EC-141141C381FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDC3B57-0B48-3057-7A36-B41D78C95561}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,38 +2625,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2410,36 +2792,36 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>2036</v>
-    <v>1160.5</v>
-    <v>0.73450000000000004</v>
-    <v>-0.4</v>
-    <v>-2.1080000000000003E-4</v>
+    <v>2050.5</v>
+    <v>1238.5</v>
+    <v>0.73229999999999995</v>
+    <v>-6</v>
+    <v>-3.5590000000000001E-3</v>
     <v>EUR</v>
     <v>Hermes International SCA is a France-based company specialized in the design, manufacturing, and marketing of luxury products. The Company reports its businesses into a number segments, including Leather Goods and Saddler, which includes bags, riding, diaries and small leather goods; Ready-to-wear and Accessories, which includes Hermes ready-to-wear for men and women, belts, costume jewellery, gloves, hats and shoes; Other Hermes, which encompasses jewellery and hermes home products, such as the art of living and hermes tableware; Other product segment, which includes the production activities carried out on behalf of non-group brands, as well as the John Lobb, Saint-Louis, Puiforcat and Shang Xia products; Silk and Textiles; Perfumes, and Watches. Apart from France, Hermes International SCA is present in other countries in Europe, Asia and the Americas, among others.</v>
-    <v>19686</v>
+    <v>20607</v>
     <v>Euronext Paris</v>
     <v>XPAR</v>
     <v>XPAR</v>
     <v>24 rue du Faubourg Saint Honore, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>1920</v>
+    <v>1692.8</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45132.666666666664</v>
+    <v>45218.666666666664</v>
     <v>0</v>
-    <v>1891.4</v>
-    <v>202165400000</v>
+    <v>1668.8</v>
+    <v>177990000000</v>
     <v>Hermes International SCA</v>
     <v>Hermes International SCA</v>
-    <v>1911.8</v>
-    <v>58.924700000000001</v>
-    <v>1897.4</v>
-    <v>1897</v>
+    <v>1673.2</v>
+    <v>44.4773</v>
+    <v>1686</v>
+    <v>1680</v>
     <v>105569400</v>
     <v>RMS</v>
     <v>Hermes International SCA (XPAR:RMS)</v>
-    <v>36849</v>
-    <v>50170</v>
+    <v>50452</v>
+    <v>54960</v>
     <v>1957</v>
   </rv>
   <rv s="2">
@@ -3004,13 +3386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF118"/>
+  <dimension ref="A1:AF119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V124" sqref="V124"/>
+      <selection pane="bottomRight" activeCell="Y94" sqref="Y94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3295,87 +3677,87 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="44">
         <f>(C3/B3)-1</f>
         <v>1.2551960224957304E-2</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="44">
         <f>(D3/C3)-1</f>
         <v>-9.9009900990099098E-3</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="44">
         <f>(E3/D3)-1</f>
         <v>8.2601626016260088E-2</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="44">
         <f t="shared" ref="F4:AB4" si="0">(F3/E3)-1</f>
         <v>7.1943526584559825E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="44">
         <f t="shared" si="0"/>
         <v>6.1300266218299093E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="44">
         <f t="shared" si="0"/>
         <v>7.2744075516535833E-2</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="44">
         <f t="shared" si="0"/>
         <v>8.584087133099505E-2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="44">
         <f t="shared" si="0"/>
         <v>8.4835090105406241E-2</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="44">
         <f t="shared" si="0"/>
         <v>0.25413989447839946</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="44">
         <f t="shared" si="0"/>
         <v>0.18343885371542812</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="44">
         <f t="shared" si="0"/>
         <v>0.22627762917077288</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="44">
         <f t="shared" si="0"/>
         <v>7.7695818145288698E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="44">
         <f t="shared" si="0"/>
         <v>9.6889315010120436E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="44">
         <f t="shared" si="0"/>
         <v>0.17539940756567773</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="44">
         <f t="shared" si="0"/>
         <v>7.4612683329890572E-2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="44">
         <f t="shared" si="0"/>
         <v>6.6683326285033262E-2</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="44">
         <f t="shared" si="0"/>
         <v>7.5147321187219562E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="44">
         <f t="shared" si="0"/>
         <v>0.15375203231591827</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="44">
         <f t="shared" si="0"/>
         <v>-7.1766859400877459E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="44">
         <f t="shared" si="0"/>
         <v>0.40576579960559678</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="44">
         <f t="shared" si="0"/>
         <v>0.2916945001113338</v>
       </c>
@@ -3560,13 +3942,13 @@
       <c r="AC6" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AD6" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AE6" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="AF6" s="19" t="s">
+      <c r="AF6" s="70" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3645,16 +4027,16 @@
         <v>0.70789999999999997</v>
       </c>
       <c r="AD7" s="20">
-        <f>W21</f>
-        <v>0.4572</v>
+        <f>X21</f>
+        <v>0.46127797408716137</v>
       </c>
       <c r="AE7" s="20">
-        <f>W30</f>
-        <v>0.29020000000000001</v>
+        <f>X30</f>
+        <v>0.28055064782096584</v>
       </c>
       <c r="AF7" s="20">
-        <f>W107/W3</f>
-        <v>0.36062747802103085</v>
+        <f>X107/X3</f>
+        <v>0.28239104829210837</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4411,17 +4793,17 @@
         <f>(W35+V35+U35+T35+S35)/5</f>
         <v>-4.8227323990037534E-2</v>
       </c>
-      <c r="AD16" s="40">
-        <f>AE101/W3</f>
-        <v>17.425047405619722</v>
-      </c>
-      <c r="AE16" s="40">
-        <f>AE101/W28</f>
-        <v>60.04318384318384</v>
-      </c>
-      <c r="AF16" s="41">
-        <f>AE101/W107</f>
-        <v>48.318690248565964</v>
+      <c r="AD16" s="35">
+        <f>AE102/W3</f>
+        <v>15.341320461989312</v>
+      </c>
+      <c r="AE16" s="35">
+        <f>AE102/W28</f>
+        <v>52.863082863082866</v>
+      </c>
+      <c r="AF16" s="36">
+        <f>AE102/W107</f>
+        <v>42.540630975143401</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4569,13 +4951,13 @@
         <v>123</v>
       </c>
       <c r="AD18" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE18" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="AE18" s="19" t="s">
+      <c r="AF18" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="AF18" s="19" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4648,36 +5030,36 @@
       <c r="W19" s="10">
         <v>5304000000</v>
       </c>
-      <c r="X19" s="35">
+      <c r="X19" s="30">
         <v>6266000000</v>
       </c>
-      <c r="Y19" s="35">
+      <c r="Y19" s="30">
         <v>7063000000</v>
       </c>
-      <c r="Z19" s="35">
+      <c r="Z19" s="30">
         <v>7853000000</v>
       </c>
-      <c r="AA19" s="35">
+      <c r="AA19" s="30">
         <v>7706000004</v>
       </c>
-      <c r="AB19" s="35">
+      <c r="AB19" s="30">
         <v>8341000005</v>
       </c>
       <c r="AC19" s="26">
         <f>W40-W56-W61</f>
         <v>7291000000</v>
       </c>
-      <c r="AD19" s="40">
-        <f>AE101/X3</f>
-        <v>14.882611896348646</v>
-      </c>
-      <c r="AE19" s="40">
-        <f>AE101/X28</f>
-        <v>53.0478614536867</v>
-      </c>
-      <c r="AF19" s="41">
-        <f>AE101/X106</f>
-        <v>52.702137643378521</v>
+      <c r="AD19" s="35">
+        <f>AE102/X3</f>
+        <v>13.10291519434629</v>
+      </c>
+      <c r="AE19" s="35">
+        <f>AE102/X28</f>
+        <v>46.704277092626604</v>
+      </c>
+      <c r="AF19" s="36">
+        <f>AE102/X107</f>
+        <v>46.39989572471324</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4857,31 +5239,34 @@
       <c r="V21" s="2">
         <v>0.45150000000000001</v>
       </c>
-      <c r="W21" s="34">
+      <c r="W21" s="29">
         <v>0.4572</v>
       </c>
-      <c r="X21" s="36">
+      <c r="X21" s="31">
         <f>X19/X3</f>
         <v>0.46127797408716137</v>
       </c>
-      <c r="Y21" s="36">
+      <c r="Y21" s="31">
         <f t="shared" ref="Y21:AB21" si="9">Y19/Y3</f>
         <v>0.46378619738656512</v>
       </c>
-      <c r="Z21" s="36">
+      <c r="Z21" s="31">
         <f t="shared" si="9"/>
         <v>0.47224727885020146</v>
       </c>
-      <c r="AA21" s="36">
+      <c r="AA21" s="31">
         <f t="shared" si="9"/>
         <v>0.43197488670889622</v>
       </c>
-      <c r="AB21" s="36">
+      <c r="AB21" s="31">
         <f t="shared" si="9"/>
         <v>0.43199709990677437</v>
       </c>
+      <c r="AD21" s="45" t="s">
+        <v>167</v>
+      </c>
       <c r="AE21" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF21" s="19" t="s">
         <v>166</v>
@@ -4954,16 +5339,20 @@
       <c r="V22" s="10">
         <v>3530000000</v>
       </c>
-      <c r="W22" s="33">
+      <c r="W22" s="28">
         <v>4697000000</v>
       </c>
-      <c r="AE22" s="42">
-        <f>(-1*W98)/AE101</f>
-        <v>4.214371005127485E-3</v>
-      </c>
-      <c r="AF22" s="43">
-        <f>W107/AE101</f>
-        <v>2.0695925217668304E-2</v>
+      <c r="AD22" s="17">
+        <f>SUM(X29:AB29)/5</f>
+        <v>8.9999306567101894E-2</v>
+      </c>
+      <c r="AE22" s="37">
+        <f>(-1*W98)/AE102</f>
+        <v>4.7867857744817123E-3</v>
+      </c>
+      <c r="AF22" s="38">
+        <f>X107/AE102</f>
+        <v>2.155177257149278E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5391,19 +5780,19 @@
       <c r="W28" s="11">
         <v>3367000000</v>
       </c>
-      <c r="X28" s="37">
+      <c r="X28" s="32">
         <v>3811000000</v>
       </c>
-      <c r="Y28" s="37">
+      <c r="Y28" s="32">
         <v>4438000000</v>
       </c>
-      <c r="Z28" s="37">
+      <c r="Z28" s="32">
         <v>4803000000</v>
       </c>
-      <c r="AA28" s="37">
+      <c r="AA28" s="32">
         <v>4746000000</v>
       </c>
-      <c r="AB28" s="37">
+      <c r="AB28" s="32">
         <v>5141000005</v>
       </c>
     </row>
@@ -5587,23 +5976,23 @@
       <c r="W30" s="2">
         <v>0.29020000000000001</v>
       </c>
-      <c r="X30" s="38">
+      <c r="X30" s="33">
         <f>X28/X3</f>
         <v>0.28055064782096584</v>
       </c>
-      <c r="Y30" s="38">
+      <c r="Y30" s="33">
         <f t="shared" ref="Y30:AB30" si="16">Y28/Y3</f>
         <v>0.29141768993367917</v>
       </c>
-      <c r="Z30" s="38">
+      <c r="Z30" s="33">
         <f t="shared" si="16"/>
         <v>0.28883276204221542</v>
       </c>
-      <c r="AA30" s="38">
+      <c r="AA30" s="33">
         <f t="shared" si="16"/>
         <v>0.2660463030438926</v>
       </c>
-      <c r="AB30" s="38">
+      <c r="AB30" s="33">
         <f t="shared" si="16"/>
         <v>0.26626268929977209</v>
       </c>
@@ -5678,19 +6067,19 @@
       <c r="W31" s="12">
         <v>42.16</v>
       </c>
-      <c r="X31" s="39">
+      <c r="X31" s="34">
         <v>37.119999999999997</v>
       </c>
-      <c r="Y31" s="39">
+      <c r="Y31" s="34">
         <v>42.45</v>
       </c>
-      <c r="Z31" s="39">
+      <c r="Z31" s="34">
         <v>45.94</v>
       </c>
-      <c r="AA31" s="39">
+      <c r="AA31" s="34">
         <v>45.4</v>
       </c>
-      <c r="AB31" s="39">
+      <c r="AB31" s="34">
         <v>49.18</v>
       </c>
     </row>
@@ -5765,7 +6154,7 @@
         <v>42.16</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -5835,8 +6224,12 @@
       <c r="W33" s="1">
         <v>79867332</v>
       </c>
+      <c r="X33" s="1" cm="1">
+        <f t="array" ref="X33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>105569400</v>
+      </c>
     </row>
-    <row r="34" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -5906,8 +6299,12 @@
       <c r="W34" s="1">
         <v>79867332</v>
       </c>
+      <c r="X34" s="1" cm="1">
+        <f t="array" ref="X34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>105569400</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -5917,7 +6314,7 @@
         <v>1.1163911586726015E-3</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:W35" si="17">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:X35" si="17">(D34-C34)/C34</f>
         <v>9.1528504339676177E-5</v>
       </c>
       <c r="E35" s="22">
@@ -5996,8 +6393,12 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
+      <c r="X35" s="22">
+        <f t="shared" si="17"/>
+        <v>0.32180952282217212</v>
+      </c>
     </row>
-    <row r="36" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -6068,7 +6469,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -6139,7 +6540,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -6210,7 +6611,7 @@
         <v>9225000000</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -6281,7 +6682,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -6352,7 +6753,7 @@
         <v>9225000000</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -6423,7 +6824,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -6494,7 +6895,7 @@
         <v>1779000000</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -6565,7 +6966,7 @@
         <v>262000000</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -6636,7 +7037,7 @@
         <v>11828000000</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -6707,7 +7108,7 @@
         <v>3589000000</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -6778,7 +7179,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -6849,7 +7250,7 @@
         <v>213000000</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -9214,7 +9615,7 @@
         <v>4.7405619720737808E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>69</v>
       </c>
@@ -9285,7 +9686,7 @@
         <v>73000000</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>70</v>
       </c>
@@ -9356,7 +9757,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -9426,12 +9827,8 @@
       <c r="W83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD83" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE83" s="67"/>
     </row>
-    <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -9501,12 +9898,18 @@
       <c r="W84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD84" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE84" s="68"/>
+      <c r="X84" s="46"/>
+      <c r="Y84" s="46"/>
+      <c r="Z84" s="46"/>
+      <c r="AA84" s="46"/>
+      <c r="AB84" s="46"/>
+      <c r="AC84" s="46"/>
+      <c r="AD84" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE84" s="76"/>
     </row>
-    <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -9576,249 +9979,270 @@
       <c r="W85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD85" s="44" t="s">
+      <c r="X85" s="46"/>
+      <c r="Y85" s="46"/>
+      <c r="Z85" s="46"/>
+      <c r="AA85" s="46"/>
+      <c r="AB85" s="46"/>
+      <c r="AC85" s="46"/>
+      <c r="AD85" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE85" s="77"/>
+    </row>
+    <row r="86" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="1">
+        <v>-16100000</v>
+      </c>
+      <c r="C86" s="1">
+        <v>600000</v>
+      </c>
+      <c r="D86" s="1">
+        <v>-14000000</v>
+      </c>
+      <c r="E86" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="F86" s="1">
+        <v>33200000</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H86" s="1">
+        <v>-3900000</v>
+      </c>
+      <c r="I86" s="1">
+        <v>9400000</v>
+      </c>
+      <c r="J86" s="1">
+        <v>16300000</v>
+      </c>
+      <c r="K86" s="1">
+        <v>66400000</v>
+      </c>
+      <c r="L86" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="M86" s="1">
+        <v>58400000</v>
+      </c>
+      <c r="N86" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="O86" s="1">
+        <v>19100000</v>
+      </c>
+      <c r="P86" s="1">
+        <v>-23700000</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>25400000</v>
+      </c>
+      <c r="R86" s="1">
+        <v>7600000</v>
+      </c>
+      <c r="S86" s="1">
+        <v>-59200000</v>
+      </c>
+      <c r="T86" s="1">
+        <v>-41200000</v>
+      </c>
+      <c r="U86" s="1">
+        <v>14100000</v>
+      </c>
+      <c r="V86" s="1">
+        <v>-8000000</v>
+      </c>
+      <c r="W86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X86" s="46"/>
+      <c r="Y86" s="46"/>
+      <c r="Z86" s="46"/>
+      <c r="AA86" s="46"/>
+      <c r="AB86" s="46"/>
+      <c r="AC86" s="46"/>
+      <c r="AD86" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="AE85" s="45">
+      <c r="AE86" s="47">
         <f>W17</f>
         <v>-62000000</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86" s="1">
-        <v>-16100000</v>
-      </c>
-      <c r="C86" s="1">
-        <v>600000</v>
-      </c>
-      <c r="D86" s="1">
-        <v>-14000000</v>
-      </c>
-      <c r="E86" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="F86" s="1">
-        <v>33200000</v>
-      </c>
-      <c r="G86" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="H86" s="1">
-        <v>-3900000</v>
-      </c>
-      <c r="I86" s="1">
-        <v>9400000</v>
-      </c>
-      <c r="J86" s="1">
-        <v>16300000</v>
-      </c>
-      <c r="K86" s="1">
-        <v>66400000</v>
-      </c>
-      <c r="L86" s="1">
-        <v>7000000</v>
-      </c>
-      <c r="M86" s="1">
-        <v>58400000</v>
-      </c>
-      <c r="N86" s="1">
-        <v>2900000</v>
-      </c>
-      <c r="O86" s="1">
-        <v>19100000</v>
-      </c>
-      <c r="P86" s="1">
-        <v>-23700000</v>
-      </c>
-      <c r="Q86" s="1">
-        <v>25400000</v>
-      </c>
-      <c r="R86" s="1">
-        <v>7600000</v>
-      </c>
-      <c r="S86" s="1">
-        <v>-59200000</v>
-      </c>
-      <c r="T86" s="1">
-        <v>-41200000</v>
-      </c>
-      <c r="U86" s="1">
-        <v>14100000</v>
-      </c>
-      <c r="V86" s="1">
-        <v>-8000000</v>
-      </c>
-      <c r="W86" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD86" s="44" t="s">
+    <row r="87" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="10">
+        <v>216800000</v>
+      </c>
+      <c r="C87" s="10">
+        <v>246700000</v>
+      </c>
+      <c r="D87" s="10">
+        <v>237200000</v>
+      </c>
+      <c r="E87" s="10">
+        <v>278500000</v>
+      </c>
+      <c r="F87" s="10">
+        <v>305100000</v>
+      </c>
+      <c r="G87" s="10">
+        <v>293300000</v>
+      </c>
+      <c r="H87" s="10">
+        <v>324800000</v>
+      </c>
+      <c r="I87" s="10">
+        <v>302600000</v>
+      </c>
+      <c r="J87" s="10">
+        <v>457500000</v>
+      </c>
+      <c r="K87" s="10">
+        <v>663800000</v>
+      </c>
+      <c r="L87" s="10">
+        <v>735900000</v>
+      </c>
+      <c r="M87" s="10">
+        <v>771200000</v>
+      </c>
+      <c r="N87" s="10">
+        <v>896900000</v>
+      </c>
+      <c r="O87" s="10">
+        <v>966800000</v>
+      </c>
+      <c r="P87" s="10">
+        <v>1185700000</v>
+      </c>
+      <c r="Q87" s="10">
+        <v>1473900000</v>
+      </c>
+      <c r="R87" s="10">
+        <v>1605600000</v>
+      </c>
+      <c r="S87" s="10">
+        <v>1759400000</v>
+      </c>
+      <c r="T87" s="10">
+        <v>2087300000</v>
+      </c>
+      <c r="U87" s="10">
+        <v>1642400000</v>
+      </c>
+      <c r="V87" s="10">
+        <v>3405000000</v>
+      </c>
+      <c r="W87" s="10">
+        <v>4184000000</v>
+      </c>
+      <c r="X87" s="46"/>
+      <c r="Y87" s="46"/>
+      <c r="Z87" s="46"/>
+      <c r="AA87" s="46"/>
+      <c r="AB87" s="46"/>
+      <c r="AC87" s="46"/>
+      <c r="AD87" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="AE86" s="45">
+      <c r="AE87" s="47">
         <f>W56</f>
         <v>270000000</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" s="10">
-        <v>216800000</v>
-      </c>
-      <c r="C87" s="10">
-        <v>246700000</v>
-      </c>
-      <c r="D87" s="10">
-        <v>237200000</v>
-      </c>
-      <c r="E87" s="10">
-        <v>278500000</v>
-      </c>
-      <c r="F87" s="10">
-        <v>305100000</v>
-      </c>
-      <c r="G87" s="10">
-        <v>293300000</v>
-      </c>
-      <c r="H87" s="10">
-        <v>324800000</v>
-      </c>
-      <c r="I87" s="10">
-        <v>302600000</v>
-      </c>
-      <c r="J87" s="10">
-        <v>457500000</v>
-      </c>
-      <c r="K87" s="10">
-        <v>663800000</v>
-      </c>
-      <c r="L87" s="10">
-        <v>735900000</v>
-      </c>
-      <c r="M87" s="10">
-        <v>771200000</v>
-      </c>
-      <c r="N87" s="10">
-        <v>896900000</v>
-      </c>
-      <c r="O87" s="10">
-        <v>966800000</v>
-      </c>
-      <c r="P87" s="10">
-        <v>1185700000</v>
-      </c>
-      <c r="Q87" s="10">
-        <v>1473900000</v>
-      </c>
-      <c r="R87" s="10">
-        <v>1605600000</v>
-      </c>
-      <c r="S87" s="10">
-        <v>1759400000</v>
-      </c>
-      <c r="T87" s="10">
-        <v>2087300000</v>
-      </c>
-      <c r="U87" s="10">
-        <v>1642400000</v>
-      </c>
-      <c r="V87" s="10">
-        <v>3405000000</v>
-      </c>
-      <c r="W87" s="10">
-        <v>4184000000</v>
-      </c>
-      <c r="AD87" s="44" t="s">
+    <row r="88" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="1">
+        <v>-125400000</v>
+      </c>
+      <c r="C88" s="1">
+        <v>-101600000</v>
+      </c>
+      <c r="D88" s="1">
+        <v>-91700000</v>
+      </c>
+      <c r="E88" s="1">
+        <v>-100600000</v>
+      </c>
+      <c r="F88" s="1">
+        <v>-101500000</v>
+      </c>
+      <c r="G88" s="1">
+        <v>-123200000</v>
+      </c>
+      <c r="H88" s="1">
+        <v>-119900000</v>
+      </c>
+      <c r="I88" s="1">
+        <v>-160600000</v>
+      </c>
+      <c r="J88" s="1">
+        <v>-199400000</v>
+      </c>
+      <c r="K88" s="1">
+        <v>-138300000</v>
+      </c>
+      <c r="L88" s="1">
+        <v>-185200000</v>
+      </c>
+      <c r="M88" s="1">
+        <v>-263000000</v>
+      </c>
+      <c r="N88" s="1">
+        <v>-211200000</v>
+      </c>
+      <c r="O88" s="1">
+        <v>-278900000</v>
+      </c>
+      <c r="P88" s="1">
+        <v>-252400000</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>-262100000</v>
+      </c>
+      <c r="R88" s="1">
+        <v>-265300000</v>
+      </c>
+      <c r="S88" s="1">
+        <v>-312300000</v>
+      </c>
+      <c r="T88" s="1">
+        <v>-478000000</v>
+      </c>
+      <c r="U88" s="1">
+        <v>0</v>
+      </c>
+      <c r="V88" s="1">
+        <v>0</v>
+      </c>
+      <c r="W88" s="1">
+        <v>0</v>
+      </c>
+      <c r="X88" s="46"/>
+      <c r="Y88" s="46"/>
+      <c r="Z88" s="46"/>
+      <c r="AA88" s="46"/>
+      <c r="AB88" s="46"/>
+      <c r="AC88" s="46"/>
+      <c r="AD88" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="AE87" s="45">
+      <c r="AE88" s="47">
         <f>W61</f>
         <v>1664000000</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B88" s="1">
-        <v>-125400000</v>
-      </c>
-      <c r="C88" s="1">
-        <v>-101600000</v>
-      </c>
-      <c r="D88" s="1">
-        <v>-91700000</v>
-      </c>
-      <c r="E88" s="1">
-        <v>-100600000</v>
-      </c>
-      <c r="F88" s="1">
-        <v>-101500000</v>
-      </c>
-      <c r="G88" s="1">
-        <v>-123200000</v>
-      </c>
-      <c r="H88" s="1">
-        <v>-119900000</v>
-      </c>
-      <c r="I88" s="1">
-        <v>-160600000</v>
-      </c>
-      <c r="J88" s="1">
-        <v>-199400000</v>
-      </c>
-      <c r="K88" s="1">
-        <v>-138300000</v>
-      </c>
-      <c r="L88" s="1">
-        <v>-185200000</v>
-      </c>
-      <c r="M88" s="1">
-        <v>-263000000</v>
-      </c>
-      <c r="N88" s="1">
-        <v>-211200000</v>
-      </c>
-      <c r="O88" s="1">
-        <v>-278900000</v>
-      </c>
-      <c r="P88" s="1">
-        <v>-252400000</v>
-      </c>
-      <c r="Q88" s="1">
-        <v>-262100000</v>
-      </c>
-      <c r="R88" s="1">
-        <v>-265300000</v>
-      </c>
-      <c r="S88" s="1">
-        <v>-312300000</v>
-      </c>
-      <c r="T88" s="1">
-        <v>-478000000</v>
-      </c>
-      <c r="U88" s="1">
-        <v>0</v>
-      </c>
-      <c r="V88" s="1">
-        <v>0</v>
-      </c>
-      <c r="W88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD88" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE88" s="47">
-        <f>AE85/(AE86+AE87)</f>
-        <v>-3.2057911065149949E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>104</v>
       </c>
@@ -9910,171 +10334,189 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AD89" s="44" t="s">
+      <c r="X89" s="46"/>
+      <c r="Y89" s="46"/>
+      <c r="Z89" s="46"/>
+      <c r="AA89" s="46"/>
+      <c r="AB89" s="46"/>
+      <c r="AC89" s="46"/>
+      <c r="AD89" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE89" s="48">
+        <f>AE86/(AE87+AE88)</f>
+        <v>-3.2057911065149949E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="W90" s="1">
+        <v>-1000000</v>
+      </c>
+      <c r="X90" s="46"/>
+      <c r="Y90" s="46"/>
+      <c r="Z90" s="46"/>
+      <c r="AA90" s="46"/>
+      <c r="AB90" s="46"/>
+      <c r="AC90" s="46"/>
+      <c r="AD90" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="AE89" s="45">
+      <c r="AE90" s="47">
         <f>W27</f>
         <v>1305000000</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="U90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="V90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="W90" s="1">
-        <v>-1000000</v>
-      </c>
-      <c r="AD90" s="44" t="s">
+    <row r="91" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91" s="1">
+        <v>-24300000</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H91" s="1">
+        <v>-20400000</v>
+      </c>
+      <c r="I91" s="1">
+        <v>-1900000</v>
+      </c>
+      <c r="J91" s="1">
+        <v>-69800000</v>
+      </c>
+      <c r="K91" s="1">
+        <v>-62500000</v>
+      </c>
+      <c r="L91" s="1">
+        <v>-19600000</v>
+      </c>
+      <c r="M91" s="1">
+        <v>-134600000</v>
+      </c>
+      <c r="N91" s="1">
+        <v>-71600000</v>
+      </c>
+      <c r="O91" s="1">
+        <v>-45800000</v>
+      </c>
+      <c r="P91" s="1">
+        <v>-14400000</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>-36300000</v>
+      </c>
+      <c r="R91" s="1">
+        <v>-147600000</v>
+      </c>
+      <c r="S91" s="1">
+        <v>-88400000</v>
+      </c>
+      <c r="T91" s="1">
+        <v>-89400000</v>
+      </c>
+      <c r="U91" s="1">
+        <v>-36100000</v>
+      </c>
+      <c r="V91" s="1">
+        <v>-730000000</v>
+      </c>
+      <c r="W91" s="1">
+        <v>-683000000</v>
+      </c>
+      <c r="X91" s="46"/>
+      <c r="Y91" s="46"/>
+      <c r="Z91" s="46"/>
+      <c r="AA91" s="46"/>
+      <c r="AB91" s="46"/>
+      <c r="AC91" s="46"/>
+      <c r="AD91" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="AE90" s="45">
+      <c r="AE91" s="47">
         <f>W25</f>
         <v>4635000000</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F91" s="1">
-        <v>-24300000</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H91" s="1">
-        <v>-20400000</v>
-      </c>
-      <c r="I91" s="1">
-        <v>-1900000</v>
-      </c>
-      <c r="J91" s="1">
-        <v>-69800000</v>
-      </c>
-      <c r="K91" s="1">
-        <v>-62500000</v>
-      </c>
-      <c r="L91" s="1">
-        <v>-19600000</v>
-      </c>
-      <c r="M91" s="1">
-        <v>-134600000</v>
-      </c>
-      <c r="N91" s="1">
-        <v>-71600000</v>
-      </c>
-      <c r="O91" s="1">
-        <v>-45800000</v>
-      </c>
-      <c r="P91" s="1">
-        <v>-14400000</v>
-      </c>
-      <c r="Q91" s="1">
-        <v>-36300000</v>
-      </c>
-      <c r="R91" s="1">
-        <v>-147600000</v>
-      </c>
-      <c r="S91" s="1">
-        <v>-88400000</v>
-      </c>
-      <c r="T91" s="1">
-        <v>-89400000</v>
-      </c>
-      <c r="U91" s="1">
-        <v>-36100000</v>
-      </c>
-      <c r="V91" s="1">
-        <v>-730000000</v>
-      </c>
-      <c r="W91" s="1">
-        <v>-683000000</v>
-      </c>
-      <c r="AD91" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE91" s="47">
-        <f>AE89/AE90</f>
-        <v>0.28155339805825241</v>
-      </c>
-    </row>
-    <row r="92" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>77</v>
       </c>
@@ -10144,15 +10586,21 @@
       <c r="W92" s="1">
         <v>5000000</v>
       </c>
-      <c r="AD92" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE92" s="47">
-        <f>AE88*(1-AE91)</f>
-        <v>-2.303189727010773E-2</v>
+      <c r="X92" s="46"/>
+      <c r="Y92" s="46"/>
+      <c r="Z92" s="46"/>
+      <c r="AA92" s="46"/>
+      <c r="AB92" s="46"/>
+      <c r="AC92" s="46"/>
+      <c r="AD92" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE92" s="48">
+        <f>AE90/AE91</f>
+        <v>0.28155339805825241</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -10222,12 +10670,21 @@
       <c r="W93" s="1">
         <v>32000000</v>
       </c>
-      <c r="AD93" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE93" s="68"/>
+      <c r="X93" s="46"/>
+      <c r="Y93" s="46"/>
+      <c r="Z93" s="46"/>
+      <c r="AA93" s="46"/>
+      <c r="AB93" s="46"/>
+      <c r="AC93" s="46"/>
+      <c r="AD93" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE93" s="48">
+        <f>AE89*(1-AE92)</f>
+        <v>-2.303189727010773E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -10297,15 +10754,18 @@
       <c r="W94" s="10">
         <v>-579000000</v>
       </c>
-      <c r="AD94" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE94" s="48">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="X94" s="46"/>
+      <c r="Y94" s="46"/>
+      <c r="Z94" s="46"/>
+      <c r="AA94" s="46"/>
+      <c r="AB94" s="46"/>
+      <c r="AC94" s="46"/>
+      <c r="AD94" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE94" s="77"/>
     </row>
-    <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
@@ -10375,15 +10835,21 @@
       <c r="W95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD95" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE95" s="49" cm="1">
-        <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>0.73450000000000004</v>
+      <c r="X95" s="46"/>
+      <c r="Y95" s="46"/>
+      <c r="Z95" s="46"/>
+      <c r="AA95" s="46"/>
+      <c r="AB95" s="46"/>
+      <c r="AC95" s="46"/>
+      <c r="AD95" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE95" s="71">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>81</v>
       </c>
@@ -10453,12 +10919,20 @@
       <c r="W96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD96" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE96" s="48">
-        <v>8.4000000000000005E-2</v>
-      </c>
+      <c r="X96" s="46"/>
+      <c r="Y96" s="46"/>
+      <c r="Z96" s="46"/>
+      <c r="AA96" s="46"/>
+      <c r="AB96" s="46"/>
+      <c r="AC96" s="46"/>
+      <c r="AD96" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE96" s="50" cm="1">
+        <f t="array" ref="AE96">_FV(A1,"Beta")</f>
+        <v>0.73229999999999995</v>
+      </c>
+      <c r="AF96" s="69"/>
     </row>
     <row r="97" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
@@ -10530,15 +11004,20 @@
       <c r="W97" s="1">
         <v>-123000000</v>
       </c>
-      <c r="AD97" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE97" s="47">
-        <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>7.2084360000000014E-2</v>
+      <c r="X97" s="46"/>
+      <c r="Y97" s="46"/>
+      <c r="Z97" s="46"/>
+      <c r="AA97" s="46"/>
+      <c r="AB97" s="46"/>
+      <c r="AC97" s="46"/>
+      <c r="AD97" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE97" s="49">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -10608,12 +11087,21 @@
       <c r="W98" s="1">
         <v>-852000000</v>
       </c>
-      <c r="AD98" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE98" s="68"/>
+      <c r="X98" s="46"/>
+      <c r="Y98" s="46"/>
+      <c r="Z98" s="46"/>
+      <c r="AA98" s="46"/>
+      <c r="AB98" s="46"/>
+      <c r="AC98" s="46"/>
+      <c r="AD98" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE98" s="48">
+        <f>(AE95)+((AE96)*(AE97-AE95))</f>
+        <v>7.4635854000000001E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -10683,13 +11171,16 @@
       <c r="W99" s="1">
         <v>-1000000</v>
       </c>
-      <c r="AD99" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE99" s="45">
-        <f>AE86+AE87</f>
-        <v>1934000000</v>
-      </c>
+      <c r="X99" s="46"/>
+      <c r="Y99" s="46"/>
+      <c r="Z99" s="46"/>
+      <c r="AA99" s="46"/>
+      <c r="AB99" s="46"/>
+      <c r="AC99" s="46"/>
+      <c r="AD99" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE99" s="77"/>
     </row>
     <row r="100" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -10761,12 +11252,18 @@
       <c r="W100" s="10">
         <v>-1237000000</v>
       </c>
-      <c r="AD100" s="46" t="s">
-        <v>139</v>
+      <c r="X100" s="46"/>
+      <c r="Y100" s="46"/>
+      <c r="Z100" s="46"/>
+      <c r="AA100" s="46"/>
+      <c r="AB100" s="46"/>
+      <c r="AC100" s="46"/>
+      <c r="AD100" s="39" t="s">
+        <v>138</v>
       </c>
       <c r="AE100" s="47">
-        <f>AE99/AE103</f>
-        <v>9.4757750390251031E-3</v>
+        <f>AE87+AE88</f>
+        <v>1934000000</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10839,12 +11336,18 @@
       <c r="W101" s="1">
         <v>159000000</v>
       </c>
-      <c r="AD101" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE101" s="50" cm="1">
-        <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>202165400000</v>
+      <c r="X101" s="46"/>
+      <c r="Y101" s="46"/>
+      <c r="Z101" s="46"/>
+      <c r="AA101" s="46"/>
+      <c r="AB101" s="46"/>
+      <c r="AC101" s="46"/>
+      <c r="AD101" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE101" s="48">
+        <f>AE100/AE104</f>
+        <v>1.0748982903892755E-2</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10917,12 +11420,18 @@
       <c r="W102" s="10">
         <v>-1237000000</v>
       </c>
-      <c r="AD102" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE102" s="47">
-        <f>AE101/AE103</f>
-        <v>0.99052422496097492</v>
+      <c r="X102" s="46"/>
+      <c r="Y102" s="46"/>
+      <c r="Z102" s="46"/>
+      <c r="AA102" s="46"/>
+      <c r="AB102" s="46"/>
+      <c r="AC102" s="46"/>
+      <c r="AD102" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE102" s="51" cm="1">
+        <f t="array" ref="AE102">_FV(A1,"Market cap",TRUE)</f>
+        <v>177990000000</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10995,15 +11504,21 @@
       <c r="W103" s="1">
         <v>6695000000</v>
       </c>
-      <c r="AD103" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE103" s="51">
-        <f>AE99+AE101</f>
-        <v>204099400000</v>
+      <c r="X103" s="46"/>
+      <c r="Y103" s="46"/>
+      <c r="Z103" s="46"/>
+      <c r="AA103" s="46"/>
+      <c r="AB103" s="46"/>
+      <c r="AC103" s="46"/>
+      <c r="AD103" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE103" s="48">
+        <f>AE102/AE104</f>
+        <v>0.9892510170961073</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -11073,17 +11588,28 @@
       <c r="W104" s="11">
         <v>9223000000</v>
       </c>
-      <c r="AD104" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE104" s="68"/>
+      <c r="X104" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y104" s="79"/>
+      <c r="Z104" s="79"/>
+      <c r="AA104" s="79"/>
+      <c r="AB104" s="79"/>
+      <c r="AC104" s="46"/>
+      <c r="AD104" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE104" s="52">
+        <f>AE100+AE102</f>
+        <v>179924000000</v>
+      </c>
     </row>
-    <row r="105" spans="1:31" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>157</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" ref="B105:V105" si="20">((B22*(1-$AE$91))+B77+B88+B81)</f>
+        <f t="shared" ref="B105:W105" si="20">((B22*(1-$AE$92))+B77+B88+B81)</f>
         <v>119934951.45631069</v>
       </c>
       <c r="C105" s="1">
@@ -11167,370 +11693,461 @@
         <v>3445116504.8543692</v>
       </c>
       <c r="W105" s="1">
-        <f>((W22*(1-$AE$91))+W77+W88+W81)</f>
+        <f t="shared" si="20"/>
         <v>4054543689.3203883</v>
       </c>
-      <c r="X105" s="27">
-        <f>W105*(1+$AE$106)</f>
-        <v>4491601563.6141996</v>
-      </c>
-      <c r="Y105" s="27">
-        <f t="shared" ref="Y105:AB105" si="21">X105*(1+$AE$106)</f>
-        <v>4975771912.2378273</v>
-      </c>
-      <c r="Z105" s="27">
-        <f t="shared" si="21"/>
-        <v>5512133205.0416632</v>
-      </c>
-      <c r="AA105" s="27">
-        <f t="shared" si="21"/>
-        <v>6106311343.4510317</v>
-      </c>
-      <c r="AB105" s="27">
-        <f t="shared" si="21"/>
-        <v>6764538670.6283178</v>
-      </c>
-      <c r="AC105" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD105" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE105" s="53">
-        <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.1183059743554447E-2</v>
-      </c>
+      <c r="X105" s="72">
+        <f>X107/X3</f>
+        <v>0.28239104829210837</v>
+      </c>
+      <c r="Y105" s="72">
+        <f>Y107/Y3</f>
+        <v>0.2880688160745945</v>
+      </c>
+      <c r="Z105" s="72">
+        <f>Z107/Z3</f>
+        <v>0.29857477900054125</v>
+      </c>
+      <c r="AA105" s="72">
+        <f>AA107/AA3</f>
+        <v>0.26139357587308704</v>
+      </c>
+      <c r="AB105" s="72">
+        <f>AB107/AB3</f>
+        <v>0.25932256059664388</v>
+      </c>
+      <c r="AC105" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD105" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE105" s="77"/>
     </row>
-    <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f t="shared" ref="C106:W106" si="22">(C107/B107)-1</f>
+        <f t="shared" ref="C106:W106" si="21">(C107/B107)-1</f>
         <v>0.58752735229759301</v>
       </c>
       <c r="D106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.7567195037905279E-3</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.22268041237113412</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.14446318156267557</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.16453831041257372</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.20458553791887124</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.30697901415324547</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.81760563380281681</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.0360325455249901</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>4.7954329210275981E-2</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-7.71745051752315E-2</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.34927194018103114</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.2084001750036784E-3</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.35673789795028354</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.29840351441122892</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.10604060075920119</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>7.9683652913526748E-2</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.11208624144841406</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.25806251165102845</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.8517587939698492</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.22878120411160063</v>
       </c>
-      <c r="X106" s="31">
+      <c r="X106" s="54">
+        <f>(X107/W107)-1</f>
+        <v>-8.317399617590826E-2</v>
+      </c>
+      <c r="Y106" s="54">
+        <f>(Y107/X107)-1</f>
+        <v>0.14363920750782055</v>
+      </c>
+      <c r="Z106" s="54">
+        <f>(Z107/Y107)-1</f>
+        <v>0.13175290631410985</v>
+      </c>
+      <c r="AA106" s="54">
+        <f>(AA107/Z107)-1</f>
+        <v>-6.0825780463242718E-2</v>
+      </c>
+      <c r="AB106" s="54">
+        <f>(AB107/AA107)-1</f>
+        <v>7.3772249624705077E-2</v>
+      </c>
+      <c r="AC106" s="68">
+        <f>SUM(X106:AB106)/5</f>
+        <v>4.1032917361496904E-2</v>
+      </c>
+      <c r="AD106" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE106" s="55">
+        <f>(AE101*AE93)+(AE103*AE98)</f>
+        <v>7.3586025011335973E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1">
+        <v>91400000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>145100000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>145500000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>177900000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>203600000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>170100000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>204900000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>142000000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>258100000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>525500000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>550700000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>508200000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>685700000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>687900000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>933300000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>1211800000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>1340300000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>1447100000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>1609300000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>1194000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>3405000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>4184000000</v>
+      </c>
+      <c r="X107" s="56">
         <v>3836000000</v>
       </c>
-      <c r="Y106" s="31">
+      <c r="Y107" s="56">
         <v>4387000000</v>
       </c>
-      <c r="Z106" s="31">
+      <c r="Z107" s="56">
         <v>4965000000</v>
       </c>
-      <c r="AA106" s="31">
+      <c r="AA107" s="56">
         <v>4663000000</v>
       </c>
-      <c r="AB106" s="31">
+      <c r="AB107" s="56">
         <v>5007000000</v>
       </c>
-      <c r="AC106" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD106" s="54" t="s">
+      <c r="AC107" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD107" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="AE106" s="55">
+      <c r="AE107" s="42">
         <f>(SUM(X4:AB4)/5)</f>
         <v>0.1077945899177299</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B107" s="1">
-        <v>91400000</v>
-      </c>
-      <c r="C107" s="1">
-        <v>145100000</v>
-      </c>
-      <c r="D107" s="1">
-        <v>145500000</v>
-      </c>
-      <c r="E107" s="1">
-        <v>177900000</v>
-      </c>
-      <c r="F107" s="1">
-        <v>203600000</v>
-      </c>
-      <c r="G107" s="1">
-        <v>170100000</v>
-      </c>
-      <c r="H107" s="1">
-        <v>204900000</v>
-      </c>
-      <c r="I107" s="1">
-        <v>142000000</v>
-      </c>
-      <c r="J107" s="1">
-        <v>258100000</v>
-      </c>
-      <c r="K107" s="1">
-        <v>525500000</v>
-      </c>
-      <c r="L107" s="1">
-        <v>550700000</v>
-      </c>
-      <c r="M107" s="1">
-        <v>508200000</v>
-      </c>
-      <c r="N107" s="1">
-        <v>685700000</v>
-      </c>
-      <c r="O107" s="1">
-        <v>687900000</v>
-      </c>
-      <c r="P107" s="1">
-        <v>933300000</v>
-      </c>
-      <c r="Q107" s="1">
-        <v>1211800000</v>
-      </c>
-      <c r="R107" s="1">
-        <v>1340300000</v>
-      </c>
-      <c r="S107" s="1">
-        <v>1447100000</v>
-      </c>
-      <c r="T107" s="1">
-        <v>1609300000</v>
-      </c>
-      <c r="U107" s="1">
-        <v>1194000000</v>
-      </c>
-      <c r="V107" s="1">
-        <v>3405000000</v>
-      </c>
-      <c r="W107" s="1">
-        <v>4184000000</v>
-      </c>
-      <c r="X107" s="28"/>
-      <c r="Y107" s="28"/>
-      <c r="Z107" s="28"/>
-      <c r="AA107" s="28"/>
-      <c r="AB107" s="32">
-        <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>111126786066.10239</v>
-      </c>
-      <c r="AC107" s="29" t="s">
+    <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.2">
+      <c r="X108" s="74"/>
+      <c r="Y108" s="74"/>
+      <c r="Z108" s="74"/>
+      <c r="AA108" s="74"/>
+      <c r="AB108" s="58">
+        <f>AB107*(1+AE108)/(AE109-AE108)</f>
+        <v>105630682872.3398</v>
+      </c>
+      <c r="AC108" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="AD107" s="56" t="s">
+      <c r="AD108" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="AE107" s="57">
+      <c r="AE108" s="43">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X108" s="32">
-        <f t="shared" ref="X108:AA108" si="23">X107+X106</f>
+    <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.2">
+      <c r="X109" s="58">
+        <f t="shared" ref="X109:AA109" si="22">X108+X107</f>
         <v>3836000000</v>
       </c>
-      <c r="Y108" s="32">
-        <f t="shared" si="23"/>
+      <c r="Y109" s="58">
+        <f t="shared" si="22"/>
         <v>4387000000</v>
       </c>
-      <c r="Z108" s="32">
-        <f t="shared" si="23"/>
+      <c r="Z109" s="58">
+        <f t="shared" si="22"/>
         <v>4965000000</v>
       </c>
-      <c r="AA108" s="32">
-        <f t="shared" si="23"/>
+      <c r="AA109" s="58">
+        <f t="shared" si="22"/>
         <v>4663000000</v>
       </c>
-      <c r="AB108" s="32">
-        <f>AB107+AB106</f>
-        <v>116133786066.10239</v>
-      </c>
-      <c r="AC108" s="29" t="s">
+      <c r="AB109" s="58">
+        <f>AB108+AB107</f>
+        <v>110637682872.3398</v>
+      </c>
+      <c r="AC109" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="AD108" s="58" t="s">
+      <c r="AD109" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="AE108" s="55">
-        <f>AE105</f>
-        <v>7.1183059743554447E-2</v>
+      <c r="AE109" s="42">
+        <f>AE106</f>
+        <v>7.3586025011335973E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="65" t="s">
+    <row r="110" spans="1:31" ht="19" x14ac:dyDescent="0.2">
+      <c r="X110" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="Y109" s="65"/>
+      <c r="Y110" s="78"/>
+      <c r="Z110" s="46"/>
+      <c r="AA110" s="46"/>
+      <c r="AB110" s="46"/>
+      <c r="AC110" s="46"/>
+      <c r="AD110" s="46"/>
+      <c r="AE110" s="46"/>
     </row>
-    <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X110" s="59" t="s">
+    <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.2">
+      <c r="X111" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="Y110" s="50">
-        <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>97331143943.65976</v>
-      </c>
+      <c r="Y111" s="51">
+        <f>NPV(AE109,X109,Y109,Z109,AA109,AB109)</f>
+        <v>92476292939.021362</v>
+      </c>
+      <c r="Z111" s="46"/>
+      <c r="AA111" s="46"/>
+      <c r="AB111" s="46"/>
+      <c r="AC111" s="46"/>
+      <c r="AD111" s="46"/>
+      <c r="AE111" s="46"/>
     </row>
-    <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X111" s="59" t="s">
+    <row r="112" spans="1:31" ht="20" x14ac:dyDescent="0.2">
+      <c r="X112" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="Y111" s="50">
+      <c r="Y112" s="51">
         <f>W40</f>
         <v>9225000000</v>
       </c>
+      <c r="Z112" s="46"/>
+      <c r="AA112" s="46"/>
+      <c r="AB112" s="46"/>
+      <c r="AC112" s="46"/>
+      <c r="AD112" s="46"/>
+      <c r="AE112" s="46"/>
     </row>
-    <row r="112" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X112" s="59" t="s">
+    <row r="113" spans="24:31" ht="20" x14ac:dyDescent="0.2">
+      <c r="X113" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="Y112" s="50">
-        <f>AE99</f>
+      <c r="Y113" s="51">
+        <f>AE100</f>
         <v>1934000000</v>
       </c>
+      <c r="Z113" s="46"/>
+      <c r="AA113" s="46"/>
+      <c r="AB113" s="46"/>
+      <c r="AC113" s="46"/>
+      <c r="AD113" s="46"/>
+      <c r="AE113" s="46"/>
     </row>
-    <row r="113" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X113" s="59" t="s">
+    <row r="114" spans="24:31" ht="20" x14ac:dyDescent="0.2">
+      <c r="X114" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="Y113" s="50">
-        <f>Y110+Y111-Y112</f>
-        <v>104622143943.65976</v>
-      </c>
+      <c r="Y114" s="51">
+        <f>Y111+Y112-Y113</f>
+        <v>99767292939.021362</v>
+      </c>
+      <c r="Z114" s="46"/>
+      <c r="AA114" s="46"/>
+      <c r="AB114" s="46"/>
+      <c r="AC114" s="46"/>
+      <c r="AD114" s="46"/>
+      <c r="AE114" s="46"/>
     </row>
-    <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X114" s="59" t="s">
+    <row r="115" spans="24:31" ht="20" x14ac:dyDescent="0.2">
+      <c r="X115" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="Y114" s="59">
+      <c r="Y115" s="62">
         <f>W34*(1+(AC16*5))</f>
         <v>60608393.517080538</v>
       </c>
+      <c r="Z115" s="46"/>
+      <c r="AA115" s="46"/>
+      <c r="AB115" s="46"/>
+      <c r="AC115" s="46"/>
+      <c r="AD115" s="46"/>
+      <c r="AE115" s="46"/>
     </row>
-    <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X115" s="60" t="s">
+    <row r="116" spans="24:31" ht="20" x14ac:dyDescent="0.2">
+      <c r="X116" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="Y115" s="61">
-        <f>Y113/Y114</f>
-        <v>1726.1989284400906</v>
-      </c>
+      <c r="Y116" s="64">
+        <f>Y114/Y115</f>
+        <v>1646.0969702307839</v>
+      </c>
+      <c r="Z116" s="46"/>
+      <c r="AA116" s="46"/>
+      <c r="AB116" s="46"/>
+      <c r="AC116" s="46"/>
+      <c r="AD116" s="46"/>
+      <c r="AE116" s="46"/>
     </row>
-    <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X116" s="59" t="s">
+    <row r="117" spans="24:31" ht="20" x14ac:dyDescent="0.2">
+      <c r="X117" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="Y116" s="62" cm="1">
-        <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>1897</v>
-      </c>
+      <c r="Y117" s="65" cm="1">
+        <f t="array" ref="Y117">_FV(A1,"Price")</f>
+        <v>1680</v>
+      </c>
+      <c r="Z117" s="46"/>
+      <c r="AA117" s="46"/>
+      <c r="AB117" s="46"/>
+      <c r="AC117" s="46"/>
+      <c r="AD117" s="46"/>
+      <c r="AE117" s="46"/>
     </row>
-    <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="60" t="s">
+    <row r="118" spans="24:31" ht="20" x14ac:dyDescent="0.2">
+      <c r="X118" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="Y117" s="63">
-        <f>Y115/Y116-1</f>
-        <v>-9.0037465239804604E-2</v>
-      </c>
+      <c r="Y118" s="66">
+        <f>Y116/Y117-1</f>
+        <v>-2.0180374862628692E-2</v>
+      </c>
+      <c r="Z118" s="46"/>
+      <c r="AA118" s="46"/>
+      <c r="AB118" s="46"/>
+      <c r="AC118" s="46"/>
+      <c r="AD118" s="46"/>
+      <c r="AE118" s="46"/>
     </row>
-    <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="60" t="s">
+    <row r="119" spans="24:31" ht="20" x14ac:dyDescent="0.2">
+      <c r="X119" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="Y118" s="64" t="str">
-        <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
+      <c r="Y119" s="67" t="str">
+        <f>IF(Y116&gt;Y117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="Z119" s="46"/>
+      <c r="AA119" s="46"/>
+      <c r="AB119" s="46"/>
+      <c r="AC119" s="46"/>
+      <c r="AD119" s="46"/>
+      <c r="AE119" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="X109:Y109"/>
-    <mergeCell ref="AD83:AE83"/>
+  <mergeCells count="7">
     <mergeCell ref="AD84:AE84"/>
-    <mergeCell ref="AD93:AE93"/>
-    <mergeCell ref="AD98:AE98"/>
-    <mergeCell ref="AD104:AE104"/>
+    <mergeCell ref="AD85:AE85"/>
+    <mergeCell ref="X110:Y110"/>
+    <mergeCell ref="X104:AB104"/>
+    <mergeCell ref="AD105:AE105"/>
+    <mergeCell ref="AD99:AE99"/>
+    <mergeCell ref="AD94:AE94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/RMS.PA" display="ROIC.AI | RMS.PA" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11579,12 +12196,9 @@
     <hyperlink ref="W36" r:id="rId44" location="phrase=R.M.S" tooltip="https://www.infogreffe.com/recherche-entreprise-dirigeants/resultats-entreprise-dirigeants.html?ga_cat=globale&amp;ga_q=R.M.S#phrase=R.M.S" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="W74" r:id="rId45" location="phrase=R.M.S" tooltip="https://www.infogreffe.com/recherche-entreprise-dirigeants/resultats-entreprise-dirigeants.html?ga_cat=globale&amp;ga_q=R.M.S#phrase=R.M.S" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="X1" r:id="rId46" display="https://finbox.com/ENXTPA:RMS/explorer/revenue_proj" xr:uid="{3AAAE857-2DF6-7E43-BC47-F98C8D288B34}"/>
-    <hyperlink ref="AC106" r:id="rId47" xr:uid="{F2A414B3-380E-3F4D-8F11-0F084479A878}"/>
+    <hyperlink ref="AC107" r:id="rId47" xr:uid="{F2A414B3-380E-3F4D-8F11-0F084479A878}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError xmlns:x16r3="http://schemas.microsoft.com/office/spreadsheetml/2018/08/main" sqref="Y116" x16r3:misleadingFormat="1"/>
-  </ignoredErrors>
   <drawing r:id="rId48"/>
 </worksheet>
 </file>
--- a/Consumer/Hermes International.xlsx
+++ b/Consumer/Hermes International.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F942A37-3C3C-154D-9CEE-2673543116B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF09AB3-6E8A-A449-AE3D-C1F779CE9B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2653,7 +2653,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2794,9 +2794,9 @@
     <v>Powered by Refinitiv</v>
     <v>2050.5</v>
     <v>1238.5</v>
-    <v>0.73229999999999995</v>
-    <v>-6</v>
-    <v>-3.5590000000000001E-3</v>
+    <v>0.73340000000000005</v>
+    <v>-25.8</v>
+    <v>-1.5357000000000001E-2</v>
     <v>EUR</v>
     <v>Hermes International SCA is a France-based company specialized in the design, manufacturing, and marketing of luxury products. The Company reports its businesses into a number segments, including Leather Goods and Saddler, which includes bags, riding, diaries and small leather goods; Ready-to-wear and Accessories, which includes Hermes ready-to-wear for men and women, belts, costume jewellery, gloves, hats and shoes; Other Hermes, which encompasses jewellery and hermes home products, such as the art of living and hermes tableware; Other product segment, which includes the production activities carried out on behalf of non-group brands, as well as the John Lobb, Saint-Louis, Puiforcat and Shang Xia products; Silk and Textiles; Perfumes, and Watches. Apart from France, Hermes International SCA is present in other countries in Europe, Asia and the Americas, among others.</v>
     <v>20607</v>
@@ -2804,24 +2804,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>24 rue du Faubourg Saint Honore, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>1692.8</v>
+    <v>1673.6</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45218.666666666664</v>
+    <v>45219.666666666664</v>
     <v>0</v>
-    <v>1668.8</v>
-    <v>177990000000</v>
+    <v>1650.4</v>
+    <v>177356600000</v>
     <v>Hermes International SCA</v>
     <v>Hermes International SCA</v>
-    <v>1673.2</v>
+    <v>1656</v>
     <v>44.4773</v>
-    <v>1686</v>
     <v>1680</v>
+    <v>1654.2</v>
     <v>105569400</v>
     <v>RMS</v>
     <v>Hermes International SCA (XPAR:RMS)</v>
-    <v>50452</v>
-    <v>54960</v>
+    <v>81432</v>
+    <v>55480</v>
     <v>1957</v>
   </rv>
   <rv s="2">
@@ -3389,10 +3389,10 @@
   <dimension ref="A1:AF119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y94" sqref="Y94"/>
+      <selection pane="bottomRight" activeCell="Y102" sqref="Y102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4795,15 +4795,15 @@
       </c>
       <c r="AD16" s="35">
         <f>AE102/W3</f>
-        <v>15.341320461989312</v>
+        <v>15.286726426478193</v>
       </c>
       <c r="AE16" s="35">
         <f>AE102/W28</f>
-        <v>52.863082863082866</v>
+        <v>52.674962874962873</v>
       </c>
       <c r="AF16" s="36">
         <f>AE102/W107</f>
-        <v>42.540630975143401</v>
+        <v>42.389244741873803</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5051,15 +5051,15 @@
       </c>
       <c r="AD19" s="35">
         <f>AE102/X3</f>
-        <v>13.10291519434629</v>
+        <v>13.056286808009423</v>
       </c>
       <c r="AE19" s="35">
         <f>AE102/X28</f>
-        <v>46.704277092626604</v>
+        <v>46.538073996326425</v>
       </c>
       <c r="AF19" s="36">
         <f>AE102/X107</f>
-        <v>46.39989572471324</v>
+        <v>46.23477580813347</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5348,11 +5348,11 @@
       </c>
       <c r="AE22" s="37">
         <f>(-1*W98)/AE102</f>
-        <v>4.7867857744817123E-3</v>
+        <v>4.8038809945612397E-3</v>
       </c>
       <c r="AF22" s="38">
         <f>X107/AE102</f>
-        <v>2.155177257149278E-2</v>
+        <v>2.1628741191475252E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="AE95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10930,7 +10930,7 @@
       </c>
       <c r="AE96" s="50" cm="1">
         <f t="array" ref="AE96">_FV(A1,"Beta")</f>
-        <v>0.73229999999999995</v>
+        <v>0.73340000000000005</v>
       </c>
       <c r="AF96" s="69"/>
     </row>
@@ -11098,7 +11098,7 @@
       </c>
       <c r="AE98" s="48">
         <f>(AE95)+((AE96)*(AE97-AE95))</f>
-        <v>7.4635854000000001E-2</v>
+        <v>7.490360800000001E-2</v>
       </c>
     </row>
     <row r="99" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -11347,7 +11347,7 @@
       </c>
       <c r="AE101" s="48">
         <f>AE100/AE104</f>
-        <v>1.0748982903892755E-2</v>
+        <v>1.0786957040692597E-2</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="AE102" s="51" cm="1">
         <f t="array" ref="AE102">_FV(A1,"Market cap",TRUE)</f>
-        <v>177990000000</v>
+        <v>177356600000</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="AE103" s="48">
         <f>AE102/AE104</f>
-        <v>0.9892510170961073</v>
+        <v>0.98921304295930745</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11601,7 +11601,7 @@
       </c>
       <c r="AE104" s="52">
         <f>AE100+AE102</f>
-        <v>179924000000</v>
+        <v>179290600000</v>
       </c>
     </row>
     <row r="105" spans="1:31" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11842,7 +11842,7 @@
       </c>
       <c r="AE106" s="55">
         <f>(AE101*AE93)+(AE103*AE98)</f>
-        <v>7.3586025011335973E-2</v>
+        <v>7.3847181911892837E-2</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11948,7 +11948,7 @@
       <c r="AA108" s="74"/>
       <c r="AB108" s="58">
         <f>AB107*(1+AE108)/(AE109-AE108)</f>
-        <v>105630682872.3398</v>
+        <v>105065938281.90666</v>
       </c>
       <c r="AC108" s="59" t="s">
         <v>145</v>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="AB109" s="58">
         <f>AB108+AB107</f>
-        <v>110637682872.3398</v>
+        <v>110072938281.90666</v>
       </c>
       <c r="AC109" s="59" t="s">
         <v>142</v>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="AE109" s="42">
         <f>AE106</f>
-        <v>7.3586025011335973E-2</v>
+        <v>7.3847181911892837E-2</v>
       </c>
     </row>
     <row r="110" spans="1:31" ht="19" x14ac:dyDescent="0.2">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="Y111" s="51">
         <f>NPV(AE109,X109,Y109,Z109,AA109,AB109)</f>
-        <v>92476292939.021362</v>
+        <v>91977455317.602982</v>
       </c>
       <c r="Z111" s="46"/>
       <c r="AA111" s="46"/>
@@ -12055,7 +12055,7 @@
       </c>
       <c r="Y114" s="51">
         <f>Y111+Y112-Y113</f>
-        <v>99767292939.021362</v>
+        <v>99268455317.602982</v>
       </c>
       <c r="Z114" s="46"/>
       <c r="AA114" s="46"/>
@@ -12085,7 +12085,7 @@
       </c>
       <c r="Y116" s="64">
         <f>Y114/Y115</f>
-        <v>1646.0969702307839</v>
+        <v>1637.8664662944307</v>
       </c>
       <c r="Z116" s="46"/>
       <c r="AA116" s="46"/>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="Y117" s="65" cm="1">
         <f t="array" ref="Y117">_FV(A1,"Price")</f>
-        <v>1680</v>
+        <v>1654.2</v>
       </c>
       <c r="Z117" s="46"/>
       <c r="AA117" s="46"/>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="Y118" s="66">
         <f>Y116/Y117-1</f>
-        <v>-2.0180374862628692E-2</v>
+        <v>-9.8739775756071513E-3</v>
       </c>
       <c r="Z118" s="46"/>
       <c r="AA118" s="46"/>

--- a/Consumer/Hermes International.xlsx
+++ b/Consumer/Hermes International.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF09AB3-6E8A-A449-AE3D-C1F779CE9B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC1565C-CDD1-0D4F-B696-6BA077223C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2628,13 +2628,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2650,14 +2652,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2667,6 +2669,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2793,10 +2797,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>2050.5</v>
-    <v>1238.5</v>
-    <v>0.73340000000000005</v>
-    <v>-25.8</v>
-    <v>-1.5357000000000001E-2</v>
+    <v>1270</v>
+    <v>0.72440000000000004</v>
+    <v>10</v>
+    <v>5.7509999999999992E-3</v>
     <v>EUR</v>
     <v>Hermes International SCA is a France-based company specialized in the design, manufacturing, and marketing of luxury products. The Company reports its businesses into a number segments, including Leather Goods and Saddler, which includes bags, riding, diaries and small leather goods; Ready-to-wear and Accessories, which includes Hermes ready-to-wear for men and women, belts, costume jewellery, gloves, hats and shoes; Other Hermes, which encompasses jewellery and hermes home products, such as the art of living and hermes tableware; Other product segment, which includes the production activities carried out on behalf of non-group brands, as well as the John Lobb, Saint-Louis, Puiforcat and Shang Xia products; Silk and Textiles; Perfumes, and Watches. Apart from France, Hermes International SCA is present in other countries in Europe, Asia and the Americas, among others.</v>
     <v>20607</v>
@@ -2804,24 +2808,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>24 rue du Faubourg Saint Honore, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>1673.6</v>
+    <v>1774.4</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45219.666666666664</v>
+    <v>45226.666666666664</v>
     <v>0</v>
-    <v>1650.4</v>
-    <v>177356600000</v>
+    <v>1733.2</v>
+    <v>184619800000</v>
     <v>Hermes International SCA</v>
     <v>Hermes International SCA</v>
-    <v>1656</v>
-    <v>44.4773</v>
-    <v>1680</v>
-    <v>1654.2</v>
+    <v>1749.6</v>
+    <v>46.298699999999997</v>
+    <v>1738.8</v>
+    <v>1748.8</v>
     <v>105569400</v>
     <v>RMS</v>
     <v>Hermes International SCA (XPAR:RMS)</v>
-    <v>81432</v>
-    <v>55480</v>
+    <v>49506</v>
+    <v>64020</v>
     <v>1957</v>
   </rv>
   <rv s="2">
@@ -4795,15 +4799,15 @@
       </c>
       <c r="AD16" s="35">
         <f>AE102/W3</f>
-        <v>15.286726426478193</v>
+        <v>15.912756421306671</v>
       </c>
       <c r="AE16" s="35">
         <f>AE102/W28</f>
-        <v>52.674962874962873</v>
+        <v>54.832135432135431</v>
       </c>
       <c r="AF16" s="36">
         <f>AE102/W107</f>
-        <v>42.389244741873803</v>
+        <v>44.125191204588909</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5051,15 +5055,15 @@
       </c>
       <c r="AD19" s="35">
         <f>AE102/X3</f>
-        <v>13.056286808009423</v>
+        <v>13.590974676089518</v>
       </c>
       <c r="AE19" s="35">
         <f>AE102/X28</f>
-        <v>46.538073996326425</v>
+        <v>48.443925478876935</v>
       </c>
       <c r="AF19" s="36">
         <f>AE102/X107</f>
-        <v>46.23477580813347</v>
+        <v>48.128206465067777</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5348,11 +5352,11 @@
       </c>
       <c r="AE22" s="37">
         <f>(-1*W98)/AE102</f>
-        <v>4.8038809945612397E-3</v>
+        <v>4.6148896272230821E-3</v>
       </c>
       <c r="AF22" s="38">
         <f>X107/AE102</f>
-        <v>2.1628741191475252E-2</v>
+        <v>2.0777836396746178E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10846,7 +10850,7 @@
       </c>
       <c r="AE95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10930,7 +10934,7 @@
       </c>
       <c r="AE96" s="50" cm="1">
         <f t="array" ref="AE96">_FV(A1,"Beta")</f>
-        <v>0.73340000000000005</v>
+        <v>0.72440000000000004</v>
       </c>
       <c r="AF96" s="69"/>
     </row>
@@ -11098,7 +11102,7 @@
       </c>
       <c r="AE98" s="48">
         <f>(AE95)+((AE96)*(AE97-AE95))</f>
-        <v>7.490360800000001E-2</v>
+        <v>7.4202420000000005E-2</v>
       </c>
     </row>
     <row r="99" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -11347,7 +11351,7 @@
       </c>
       <c r="AE101" s="48">
         <f>AE100/AE104</f>
-        <v>1.0786957040692597E-2</v>
+        <v>1.0366982607698154E-2</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11431,7 +11435,7 @@
       </c>
       <c r="AE102" s="51" cm="1">
         <f t="array" ref="AE102">_FV(A1,"Market cap",TRUE)</f>
-        <v>177356600000</v>
+        <v>184619800000</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11515,7 +11519,7 @@
       </c>
       <c r="AE103" s="48">
         <f>AE102/AE104</f>
-        <v>0.98921304295930745</v>
+        <v>0.98963301739230181</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11601,7 +11605,7 @@
       </c>
       <c r="AE104" s="52">
         <f>AE100+AE102</f>
-        <v>179290600000</v>
+        <v>186553800000</v>
       </c>
     </row>
     <row r="105" spans="1:31" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11842,7 +11846,7 @@
       </c>
       <c r="AE106" s="55">
         <f>(AE101*AE93)+(AE103*AE98)</f>
-        <v>7.3847181911892837E-2</v>
+        <v>7.319439352398939E-2</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11948,7 +11952,7 @@
       <c r="AA108" s="74"/>
       <c r="AB108" s="58">
         <f>AB107*(1+AE108)/(AE109-AE108)</f>
-        <v>105065938281.90666</v>
+        <v>106489046229.93944</v>
       </c>
       <c r="AC108" s="59" t="s">
         <v>145</v>
@@ -11979,7 +11983,7 @@
       </c>
       <c r="AB109" s="58">
         <f>AB108+AB107</f>
-        <v>110072938281.90666</v>
+        <v>111496046229.93944</v>
       </c>
       <c r="AC109" s="59" t="s">
         <v>142</v>
@@ -11989,7 +11993,7 @@
       </c>
       <c r="AE109" s="42">
         <f>AE106</f>
-        <v>7.3847181911892837E-2</v>
+        <v>7.319439352398939E-2</v>
       </c>
     </row>
     <row r="110" spans="1:31" ht="19" x14ac:dyDescent="0.2">
@@ -12010,7 +12014,7 @@
       </c>
       <c r="Y111" s="51">
         <f>NPV(AE109,X109,Y109,Z109,AA109,AB109)</f>
-        <v>91977455317.602982</v>
+        <v>93234489286.176132</v>
       </c>
       <c r="Z111" s="46"/>
       <c r="AA111" s="46"/>
@@ -12055,7 +12059,7 @@
       </c>
       <c r="Y114" s="51">
         <f>Y111+Y112-Y113</f>
-        <v>99268455317.602982</v>
+        <v>100525489286.17613</v>
       </c>
       <c r="Z114" s="46"/>
       <c r="AA114" s="46"/>
@@ -12085,7 +12089,7 @@
       </c>
       <c r="Y116" s="64">
         <f>Y114/Y115</f>
-        <v>1637.8664662944307</v>
+        <v>1658.6067284203175</v>
       </c>
       <c r="Z116" s="46"/>
       <c r="AA116" s="46"/>
@@ -12100,7 +12104,7 @@
       </c>
       <c r="Y117" s="65" cm="1">
         <f t="array" ref="Y117">_FV(A1,"Price")</f>
-        <v>1654.2</v>
+        <v>1748.8</v>
       </c>
       <c r="Z117" s="46"/>
       <c r="AA117" s="46"/>
@@ -12115,7 +12119,7 @@
       </c>
       <c r="Y118" s="66">
         <f>Y116/Y117-1</f>
-        <v>-9.8739775756071513E-3</v>
+        <v>-5.1574377618757161E-2</v>
       </c>
       <c r="Z118" s="46"/>
       <c r="AA118" s="46"/>

--- a/Consumer/Hermes International.xlsx
+++ b/Consumer/Hermes International.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC1565C-CDD1-0D4F-B696-6BA077223C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780737E5-7289-FC42-9451-6215E399962D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2633,13 +2633,9 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
-      <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2656,7 +2652,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2667,10 +2663,6 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2797,10 +2789,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>2050.5</v>
-    <v>1270</v>
-    <v>0.72440000000000004</v>
-    <v>10</v>
-    <v>5.7509999999999992E-3</v>
+    <v>1301</v>
+    <v>0.7147</v>
+    <v>45.4</v>
+    <v>2.5595E-2</v>
     <v>EUR</v>
     <v>Hermes International SCA is a France-based company specialized in the design, manufacturing, and marketing of luxury products. The Company reports its businesses into a number segments, including Leather Goods and Saddler, which includes bags, riding, diaries and small leather goods; Ready-to-wear and Accessories, which includes Hermes ready-to-wear for men and women, belts, costume jewellery, gloves, hats and shoes; Other Hermes, which encompasses jewellery and hermes home products, such as the art of living and hermes tableware; Other product segment, which includes the production activities carried out on behalf of non-group brands, as well as the John Lobb, Saint-Louis, Puiforcat and Shang Xia products; Silk and Textiles; Perfumes, and Watches. Apart from France, Hermes International SCA is present in other countries in Europe, Asia and the Americas, among others.</v>
     <v>20607</v>
@@ -2808,24 +2800,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>24 rue du Faubourg Saint Honore, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>1774.4</v>
+    <v>1837.2</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45226.666666666664</v>
+    <v>45232.708333333336</v>
     <v>0</v>
-    <v>1733.2</v>
-    <v>184619800000</v>
+    <v>1784.8</v>
+    <v>187259000000</v>
     <v>Hermes International SCA</v>
     <v>Hermes International SCA</v>
-    <v>1749.6</v>
-    <v>46.298699999999997</v>
-    <v>1738.8</v>
-    <v>1748.8</v>
+    <v>1791.8</v>
+    <v>48.162500000000001</v>
+    <v>1773.8</v>
+    <v>1819.2</v>
     <v>105569400</v>
     <v>RMS</v>
     <v>Hermes International SCA (XPAR:RMS)</v>
-    <v>49506</v>
-    <v>64020</v>
+    <v>55717</v>
+    <v>59330</v>
     <v>1957</v>
   </rv>
   <rv s="2">
@@ -3393,10 +3385,10 @@
   <dimension ref="A1:AF119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y102" sqref="Y102"/>
+      <selection pane="bottomRight" activeCell="V118" sqref="V118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4799,15 +4791,15 @@
       </c>
       <c r="AD16" s="35">
         <f>AE102/W3</f>
-        <v>15.912756421306671</v>
+        <v>16.14023444233753</v>
       </c>
       <c r="AE16" s="35">
         <f>AE102/W28</f>
-        <v>54.832135432135431</v>
+        <v>55.615978615978619</v>
       </c>
       <c r="AF16" s="36">
         <f>AE102/W107</f>
-        <v>44.125191204588909</v>
+        <v>44.75597514340344</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5055,15 +5047,15 @@
       </c>
       <c r="AD19" s="35">
         <f>AE102/X3</f>
-        <v>13.590974676089518</v>
+        <v>13.785262073027091</v>
       </c>
       <c r="AE19" s="35">
         <f>AE102/X28</f>
-        <v>48.443925478876935</v>
+        <v>49.136447126738389</v>
       </c>
       <c r="AF19" s="36">
         <f>AE102/X107</f>
-        <v>48.128206465067777</v>
+        <v>48.816214807090716</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5352,11 +5344,11 @@
       </c>
       <c r="AE22" s="37">
         <f>(-1*W98)/AE102</f>
-        <v>4.6148896272230821E-3</v>
+        <v>4.5498480713877573E-3</v>
       </c>
       <c r="AF22" s="38">
         <f>X107/AE102</f>
-        <v>2.0777836396746178E-2</v>
+        <v>2.0484996715778681E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10850,7 +10842,7 @@
       </c>
       <c r="AE95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10934,7 +10926,7 @@
       </c>
       <c r="AE96" s="50" cm="1">
         <f t="array" ref="AE96">_FV(A1,"Beta")</f>
-        <v>0.72440000000000004</v>
+        <v>0.7147</v>
       </c>
       <c r="AF96" s="69"/>
     </row>
@@ -11102,7 +11094,7 @@
       </c>
       <c r="AE98" s="48">
         <f>(AE95)+((AE96)*(AE97-AE95))</f>
-        <v>7.4202420000000005E-2</v>
+        <v>7.3943175E-2</v>
       </c>
     </row>
     <row r="99" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -11351,7 +11343,7 @@
       </c>
       <c r="AE101" s="48">
         <f>AE100/AE104</f>
-        <v>1.0366982607698154E-2</v>
+        <v>1.0222365520923078E-2</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11435,7 +11427,7 @@
       </c>
       <c r="AE102" s="51" cm="1">
         <f t="array" ref="AE102">_FV(A1,"Market cap",TRUE)</f>
-        <v>184619800000</v>
+        <v>187259000000</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11519,7 +11511,7 @@
       </c>
       <c r="AE103" s="48">
         <f>AE102/AE104</f>
-        <v>0.98963301739230181</v>
+        <v>0.98977763447907696</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11605,7 +11597,7 @@
       </c>
       <c r="AE104" s="52">
         <f>AE100+AE102</f>
-        <v>186553800000</v>
+        <v>189193000000</v>
       </c>
     </row>
     <row r="105" spans="1:31" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11838,7 +11830,7 @@
         <v>7.3772249624705077E-2</v>
       </c>
       <c r="AC106" s="68">
-        <f>SUM(X106:AB106)/5</f>
+        <f>AVERAGE(X106:AB106)</f>
         <v>4.1032917361496904E-2</v>
       </c>
       <c r="AD106" s="41" t="s">
@@ -11846,7 +11838,7 @@
       </c>
       <c r="AE106" s="55">
         <f>(AE101*AE93)+(AE103*AE98)</f>
-        <v>7.319439352398939E-2</v>
+        <v>7.2951860364837029E-2</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11952,7 +11944,7 @@
       <c r="AA108" s="74"/>
       <c r="AB108" s="58">
         <f>AB107*(1+AE108)/(AE109-AE108)</f>
-        <v>106489046229.93944</v>
+        <v>107027651501.99283</v>
       </c>
       <c r="AC108" s="59" t="s">
         <v>145</v>
@@ -11983,7 +11975,7 @@
       </c>
       <c r="AB109" s="58">
         <f>AB108+AB107</f>
-        <v>111496046229.93944</v>
+        <v>112034651501.99283</v>
       </c>
       <c r="AC109" s="59" t="s">
         <v>142</v>
@@ -11993,7 +11985,7 @@
       </c>
       <c r="AE109" s="42">
         <f>AE106</f>
-        <v>7.319439352398939E-2</v>
+        <v>7.2951860364837029E-2</v>
       </c>
     </row>
     <row r="110" spans="1:31" ht="19" x14ac:dyDescent="0.2">
@@ -12014,7 +12006,7 @@
       </c>
       <c r="Y111" s="51">
         <f>NPV(AE109,X109,Y109,Z109,AA109,AB109)</f>
-        <v>93234489286.176132</v>
+        <v>93710245420.180649</v>
       </c>
       <c r="Z111" s="46"/>
       <c r="AA111" s="46"/>
@@ -12059,7 +12051,7 @@
       </c>
       <c r="Y114" s="51">
         <f>Y111+Y112-Y113</f>
-        <v>100525489286.17613</v>
+        <v>101001245420.18065</v>
       </c>
       <c r="Z114" s="46"/>
       <c r="AA114" s="46"/>
@@ -12089,7 +12081,7 @@
       </c>
       <c r="Y116" s="64">
         <f>Y114/Y115</f>
-        <v>1658.6067284203175</v>
+        <v>1666.4564024736389</v>
       </c>
       <c r="Z116" s="46"/>
       <c r="AA116" s="46"/>
@@ -12104,7 +12096,7 @@
       </c>
       <c r="Y117" s="65" cm="1">
         <f t="array" ref="Y117">_FV(A1,"Price")</f>
-        <v>1748.8</v>
+        <v>1819.2</v>
       </c>
       <c r="Z117" s="46"/>
       <c r="AA117" s="46"/>
@@ -12119,7 +12111,7 @@
       </c>
       <c r="Y118" s="66">
         <f>Y116/Y117-1</f>
-        <v>-5.1574377618757161E-2</v>
+        <v>-8.3961959941931119E-2</v>
       </c>
       <c r="Z118" s="46"/>
       <c r="AA118" s="46"/>

--- a/Consumer/Hermes International.xlsx
+++ b/Consumer/Hermes International.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780737E5-7289-FC42-9451-6215E399962D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571AE3B9-1B88-9A46-826F-AE653D85EDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2635,6 +2635,7 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -2652,7 +2653,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2663,6 +2664,7 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2789,10 +2791,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>2050.5</v>
-    <v>1301</v>
-    <v>0.7147</v>
-    <v>45.4</v>
-    <v>2.5595E-2</v>
+    <v>1326</v>
+    <v>0.71560000000000001</v>
+    <v>23.6</v>
+    <v>1.2749999999999999E-2</v>
     <v>EUR</v>
     <v>Hermes International SCA is a France-based company specialized in the design, manufacturing, and marketing of luxury products. The Company reports its businesses into a number segments, including Leather Goods and Saddler, which includes bags, riding, diaries and small leather goods; Ready-to-wear and Accessories, which includes Hermes ready-to-wear for men and women, belts, costume jewellery, gloves, hats and shoes; Other Hermes, which encompasses jewellery and hermes home products, such as the art of living and hermes tableware; Other product segment, which includes the production activities carried out on behalf of non-group brands, as well as the John Lobb, Saint-Louis, Puiforcat and Shang Xia products; Silk and Textiles; Perfumes, and Watches. Apart from France, Hermes International SCA is present in other countries in Europe, Asia and the Americas, among others.</v>
     <v>20607</v>
@@ -2800,24 +2802,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>24 rue du Faubourg Saint Honore, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>1837.2</v>
+    <v>1882</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45232.708333333336</v>
+    <v>45239.708333333336</v>
     <v>0</v>
-    <v>1784.8</v>
-    <v>187259000000</v>
+    <v>1840</v>
+    <v>195409000000</v>
     <v>Hermes International SCA</v>
     <v>Hermes International SCA</v>
-    <v>1791.8</v>
-    <v>48.162500000000001</v>
-    <v>1773.8</v>
-    <v>1819.2</v>
+    <v>1847</v>
+    <v>49.004399999999997</v>
+    <v>1851</v>
+    <v>1874.6</v>
     <v>105569400</v>
     <v>RMS</v>
     <v>Hermes International SCA (XPAR:RMS)</v>
-    <v>55717</v>
-    <v>59330</v>
+    <v>52528</v>
+    <v>48900</v>
     <v>1957</v>
   </rv>
   <rv s="2">
@@ -3385,10 +3387,10 @@
   <dimension ref="A1:AF119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V118" sqref="V118"/>
+      <selection pane="bottomRight" activeCell="Y129" sqref="Y129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4791,15 +4793,15 @@
       </c>
       <c r="AD16" s="35">
         <f>AE102/W3</f>
-        <v>16.14023444233753</v>
+        <v>16.842699534563007</v>
       </c>
       <c r="AE16" s="35">
         <f>AE102/W28</f>
-        <v>55.615978615978619</v>
+        <v>58.036531036531038</v>
       </c>
       <c r="AF16" s="36">
         <f>AE102/W107</f>
-        <v>44.75597514340344</v>
+        <v>46.703871892925427</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5047,15 +5049,15 @@
       </c>
       <c r="AD19" s="35">
         <f>AE102/X3</f>
-        <v>13.785262073027091</v>
+        <v>14.385232626619553</v>
       </c>
       <c r="AE19" s="35">
         <f>AE102/X28</f>
-        <v>49.136447126738389</v>
+        <v>51.274993440041982</v>
       </c>
       <c r="AF19" s="36">
         <f>AE102/X107</f>
-        <v>48.816214807090716</v>
+        <v>50.940823774765377</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5344,11 +5346,11 @@
       </c>
       <c r="AE22" s="37">
         <f>(-1*W98)/AE102</f>
-        <v>4.5498480713877573E-3</v>
+        <v>4.3600857688233397E-3</v>
       </c>
       <c r="AF22" s="38">
         <f>X107/AE102</f>
-        <v>2.0484996715778681E-2</v>
+        <v>1.9630620902824334E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10842,7 +10844,7 @@
       </c>
       <c r="AE95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10926,7 +10928,7 @@
       </c>
       <c r="AE96" s="50" cm="1">
         <f t="array" ref="AE96">_FV(A1,"Beta")</f>
-        <v>0.7147</v>
+        <v>0.71560000000000001</v>
       </c>
       <c r="AF96" s="69"/>
     </row>
@@ -11094,7 +11096,7 @@
       </c>
       <c r="AE98" s="48">
         <f>(AE95)+((AE96)*(AE97-AE95))</f>
-        <v>7.3943175E-2</v>
+        <v>7.3110324000000004E-2</v>
       </c>
     </row>
     <row r="99" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -11343,7 +11345,7 @@
       </c>
       <c r="AE101" s="48">
         <f>AE100/AE104</f>
-        <v>1.0222365520923078E-2</v>
+        <v>9.800195598526424E-3</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11427,7 +11429,7 @@
       </c>
       <c r="AE102" s="51" cm="1">
         <f t="array" ref="AE102">_FV(A1,"Market cap",TRUE)</f>
-        <v>187259000000</v>
+        <v>195409000000</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11511,7 +11513,7 @@
       </c>
       <c r="AE103" s="48">
         <f>AE102/AE104</f>
-        <v>0.98977763447907696</v>
+        <v>0.99019980440147359</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11597,7 +11599,7 @@
       </c>
       <c r="AE104" s="52">
         <f>AE100+AE102</f>
-        <v>189193000000</v>
+        <v>197343000000</v>
       </c>
     </row>
     <row r="105" spans="1:31" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11838,7 +11840,7 @@
       </c>
       <c r="AE106" s="55">
         <f>(AE101*AE93)+(AE103*AE98)</f>
-        <v>7.2951860364837029E-2</v>
+        <v>7.2168111426276133E-2</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11944,7 +11946,7 @@
       <c r="AA108" s="74"/>
       <c r="AB108" s="58">
         <f>AB107*(1+AE108)/(AE109-AE108)</f>
-        <v>107027651501.99283</v>
+        <v>108806031125.95682</v>
       </c>
       <c r="AC108" s="59" t="s">
         <v>145</v>
@@ -11975,7 +11977,7 @@
       </c>
       <c r="AB109" s="58">
         <f>AB108+AB107</f>
-        <v>112034651501.99283</v>
+        <v>113813031125.95682</v>
       </c>
       <c r="AC109" s="59" t="s">
         <v>142</v>
@@ -11985,7 +11987,7 @@
       </c>
       <c r="AE109" s="42">
         <f>AE106</f>
-        <v>7.2951860364837029E-2</v>
+        <v>7.2168111426276133E-2</v>
       </c>
     </row>
     <row r="110" spans="1:31" ht="19" x14ac:dyDescent="0.2">
@@ -12006,7 +12008,7 @@
       </c>
       <c r="Y111" s="51">
         <f>NPV(AE109,X109,Y109,Z109,AA109,AB109)</f>
-        <v>93710245420.180649</v>
+        <v>95281127407.631531</v>
       </c>
       <c r="Z111" s="46"/>
       <c r="AA111" s="46"/>
@@ -12051,7 +12053,7 @@
       </c>
       <c r="Y114" s="51">
         <f>Y111+Y112-Y113</f>
-        <v>101001245420.18065</v>
+        <v>102572127407.63153</v>
       </c>
       <c r="Z114" s="46"/>
       <c r="AA114" s="46"/>
@@ -12081,7 +12083,7 @@
       </c>
       <c r="Y116" s="64">
         <f>Y114/Y115</f>
-        <v>1666.4564024736389</v>
+        <v>1692.3749575828117</v>
       </c>
       <c r="Z116" s="46"/>
       <c r="AA116" s="46"/>
@@ -12096,7 +12098,7 @@
       </c>
       <c r="Y117" s="65" cm="1">
         <f t="array" ref="Y117">_FV(A1,"Price")</f>
-        <v>1819.2</v>
+        <v>1874.6</v>
       </c>
       <c r="Z117" s="46"/>
       <c r="AA117" s="46"/>
@@ -12111,7 +12113,7 @@
       </c>
       <c r="Y118" s="66">
         <f>Y116/Y117-1</f>
-        <v>-8.3961959941931119E-2</v>
+        <v>-9.720742687356676E-2</v>
       </c>
       <c r="Z118" s="46"/>
       <c r="AA118" s="46"/>
